--- a/AAII_Financials/Quarterly/HNP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HNP_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>HNP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,170 +665,183 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42551</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42369</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42185</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11862800</v>
+        <v>12526000</v>
       </c>
       <c r="E8" s="3">
-        <v>12372700</v>
+        <v>11571800</v>
       </c>
       <c r="F8" s="3">
-        <v>11697800</v>
+        <v>12069100</v>
       </c>
       <c r="G8" s="3">
-        <v>11521200</v>
+        <v>11410800</v>
       </c>
       <c r="H8" s="3">
-        <v>10156200</v>
+        <v>11238500</v>
       </c>
       <c r="I8" s="3">
-        <v>8633100</v>
+        <v>9907100</v>
       </c>
       <c r="J8" s="3">
+        <v>8421300</v>
+      </c>
+      <c r="K8" s="3">
         <v>7528000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9357600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9601400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8777800</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7367300</v>
+        <v>7851400</v>
       </c>
       <c r="E9" s="3">
-        <v>8506900</v>
+        <v>7186500</v>
       </c>
       <c r="F9" s="3">
-        <v>7965800</v>
+        <v>8298200</v>
       </c>
       <c r="G9" s="3">
-        <v>7654400</v>
+        <v>7770400</v>
       </c>
       <c r="H9" s="3">
-        <v>6818700</v>
+        <v>7466700</v>
       </c>
       <c r="I9" s="3">
-        <v>5438900</v>
+        <v>6651400</v>
       </c>
       <c r="J9" s="3">
+        <v>5305500</v>
+      </c>
+      <c r="K9" s="3">
         <v>3747700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4869000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5130900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5071300</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4495600</v>
+        <v>4674600</v>
       </c>
       <c r="E10" s="3">
-        <v>3865800</v>
+        <v>4385300</v>
       </c>
       <c r="F10" s="3">
-        <v>3732000</v>
+        <v>3771000</v>
       </c>
       <c r="G10" s="3">
-        <v>3866700</v>
+        <v>3640400</v>
       </c>
       <c r="H10" s="3">
-        <v>3337600</v>
+        <v>3771900</v>
       </c>
       <c r="I10" s="3">
-        <v>3194200</v>
+        <v>3255700</v>
       </c>
       <c r="J10" s="3">
+        <v>3115800</v>
+      </c>
+      <c r="K10" s="3">
         <v>3780300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4488500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4470500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3706500</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -842,8 +855,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -877,8 +891,11 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -912,8 +929,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -947,43 +967,49 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1534100</v>
+        <v>1563800</v>
       </c>
       <c r="E15" s="3">
-        <v>1484000</v>
+        <v>1496500</v>
       </c>
       <c r="F15" s="3">
-        <v>1452500</v>
+        <v>1447600</v>
       </c>
       <c r="G15" s="3">
-        <v>1439700</v>
+        <v>1416900</v>
       </c>
       <c r="H15" s="3">
-        <v>1455900</v>
+        <v>1404300</v>
       </c>
       <c r="I15" s="3">
-        <v>1061100</v>
+        <v>1420200</v>
       </c>
       <c r="J15" s="3">
+        <v>1035100</v>
+      </c>
+      <c r="K15" s="3">
         <v>1064600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1086400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1052400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>851300</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -994,78 +1020,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10359700</v>
+        <v>12259900</v>
       </c>
       <c r="E17" s="3">
-        <v>12027900</v>
+        <v>10105500</v>
       </c>
       <c r="F17" s="3">
-        <v>10591300</v>
+        <v>11732800</v>
       </c>
       <c r="G17" s="3">
-        <v>10930500</v>
+        <v>10331500</v>
       </c>
       <c r="H17" s="3">
-        <v>9429200</v>
+        <v>10662400</v>
       </c>
       <c r="I17" s="3">
-        <v>7824000</v>
+        <v>9197900</v>
       </c>
       <c r="J17" s="3">
+        <v>7632000</v>
+      </c>
+      <c r="K17" s="3">
         <v>5700300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7631500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7002300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7198900</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1503200</v>
+        <v>266100</v>
       </c>
       <c r="E18" s="3">
-        <v>344800</v>
+        <v>1466300</v>
       </c>
       <c r="F18" s="3">
-        <v>1106400</v>
+        <v>336300</v>
       </c>
       <c r="G18" s="3">
-        <v>590600</v>
+        <v>1079300</v>
       </c>
       <c r="H18" s="3">
-        <v>727000</v>
+        <v>576100</v>
       </c>
       <c r="I18" s="3">
-        <v>809100</v>
+        <v>709200</v>
       </c>
       <c r="J18" s="3">
+        <v>789300</v>
+      </c>
+      <c r="K18" s="3">
         <v>1827700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1726000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2599100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1578900</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1079,183 +1112,199 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>109600</v>
+        <v>103600</v>
       </c>
       <c r="E20" s="3">
-        <v>274200</v>
+        <v>106900</v>
       </c>
       <c r="F20" s="3">
-        <v>62300</v>
+        <v>267500</v>
       </c>
       <c r="G20" s="3">
-        <v>423500</v>
+        <v>60800</v>
       </c>
       <c r="H20" s="3">
-        <v>59600</v>
+        <v>413100</v>
       </c>
       <c r="I20" s="3">
-        <v>230000</v>
+        <v>58200</v>
       </c>
       <c r="J20" s="3">
+        <v>224300</v>
+      </c>
+      <c r="K20" s="3">
         <v>93300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>98900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>162400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>111900</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3151800</v>
+        <v>441600</v>
       </c>
       <c r="E21" s="3">
-        <v>650100</v>
+        <v>3074500</v>
       </c>
       <c r="F21" s="3">
-        <v>2629000</v>
+        <v>634200</v>
       </c>
       <c r="G21" s="3">
-        <v>995900</v>
+        <v>2564500</v>
       </c>
       <c r="H21" s="3">
-        <v>2251700</v>
+        <v>971500</v>
       </c>
       <c r="I21" s="3">
-        <v>1035600</v>
+        <v>2196400</v>
       </c>
       <c r="J21" s="3">
+        <v>1010200</v>
+      </c>
+      <c r="K21" s="3">
         <v>2985600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1859900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3813800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1699700</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>788900</v>
+        <v>736800</v>
       </c>
       <c r="E22" s="3">
-        <v>767300</v>
+        <v>769600</v>
       </c>
       <c r="F22" s="3">
-        <v>737300</v>
+        <v>748400</v>
       </c>
       <c r="G22" s="3">
-        <v>729800</v>
+        <v>719200</v>
       </c>
       <c r="H22" s="3">
-        <v>669000</v>
+        <v>711900</v>
       </c>
       <c r="I22" s="3">
-        <v>493300</v>
+        <v>652600</v>
       </c>
       <c r="J22" s="3">
+        <v>481200</v>
+      </c>
+      <c r="K22" s="3">
         <v>484900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>572600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>606700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>594400</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>823800</v>
+        <v>-367000</v>
       </c>
       <c r="E23" s="3">
-        <v>-148300</v>
+        <v>803600</v>
       </c>
       <c r="F23" s="3">
-        <v>431400</v>
+        <v>-144600</v>
       </c>
       <c r="G23" s="3">
-        <v>284300</v>
+        <v>420800</v>
       </c>
       <c r="H23" s="3">
-        <v>117700</v>
+        <v>277400</v>
       </c>
       <c r="I23" s="3">
-        <v>545800</v>
+        <v>114800</v>
       </c>
       <c r="J23" s="3">
+        <v>532400</v>
+      </c>
+      <c r="K23" s="3">
         <v>1436100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1252400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2154800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1096400</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>193200</v>
+        <v>93000</v>
       </c>
       <c r="E24" s="3">
-        <v>-14600</v>
+        <v>188500</v>
       </c>
       <c r="F24" s="3">
-        <v>106800</v>
+        <v>-14200</v>
       </c>
       <c r="G24" s="3">
-        <v>106000</v>
+        <v>104200</v>
       </c>
       <c r="H24" s="3">
-        <v>68700</v>
+        <v>103400</v>
       </c>
       <c r="I24" s="3">
-        <v>150800</v>
+        <v>67000</v>
       </c>
       <c r="J24" s="3">
+        <v>147100</v>
+      </c>
+      <c r="K24" s="3">
         <v>346400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>319300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>526500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>348700</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1289,78 +1338,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>630600</v>
+        <v>-460100</v>
       </c>
       <c r="E26" s="3">
-        <v>-133700</v>
+        <v>615200</v>
       </c>
       <c r="F26" s="3">
-        <v>324500</v>
+        <v>-130400</v>
       </c>
       <c r="G26" s="3">
-        <v>178400</v>
+        <v>316600</v>
       </c>
       <c r="H26" s="3">
-        <v>48900</v>
+        <v>174000</v>
       </c>
       <c r="I26" s="3">
-        <v>395000</v>
+        <v>47700</v>
       </c>
       <c r="J26" s="3">
+        <v>385300</v>
+      </c>
+      <c r="K26" s="3">
         <v>1089800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>933100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1628300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>747700</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>454700</v>
+        <v>-432300</v>
       </c>
       <c r="E27" s="3">
-        <v>-192200</v>
+        <v>443600</v>
       </c>
       <c r="F27" s="3">
-        <v>248400</v>
+        <v>-187400</v>
       </c>
       <c r="G27" s="3">
-        <v>181800</v>
+        <v>242300</v>
       </c>
       <c r="H27" s="3">
-        <v>35000</v>
+        <v>177400</v>
       </c>
       <c r="I27" s="3">
-        <v>336300</v>
+        <v>34100</v>
       </c>
       <c r="J27" s="3">
+        <v>328000</v>
+      </c>
+      <c r="K27" s="3">
         <v>886300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>697700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1328400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>574300</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1394,8 +1452,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1429,8 +1490,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1464,8 +1528,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1499,78 +1566,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-109600</v>
+        <v>-103600</v>
       </c>
       <c r="E32" s="3">
-        <v>-274200</v>
+        <v>-106900</v>
       </c>
       <c r="F32" s="3">
-        <v>-62300</v>
+        <v>-267500</v>
       </c>
       <c r="G32" s="3">
-        <v>-423500</v>
+        <v>-60800</v>
       </c>
       <c r="H32" s="3">
-        <v>-59600</v>
+        <v>-413100</v>
       </c>
       <c r="I32" s="3">
-        <v>-230000</v>
+        <v>-58200</v>
       </c>
       <c r="J32" s="3">
+        <v>-224300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-93300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-98900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-162400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-111900</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>454700</v>
+        <v>-432300</v>
       </c>
       <c r="E33" s="3">
-        <v>-192200</v>
+        <v>443600</v>
       </c>
       <c r="F33" s="3">
-        <v>248400</v>
+        <v>-187400</v>
       </c>
       <c r="G33" s="3">
-        <v>181800</v>
+        <v>242300</v>
       </c>
       <c r="H33" s="3">
-        <v>35000</v>
+        <v>177400</v>
       </c>
       <c r="I33" s="3">
-        <v>336300</v>
+        <v>34100</v>
       </c>
       <c r="J33" s="3">
+        <v>328000</v>
+      </c>
+      <c r="K33" s="3">
         <v>886300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>697700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1328400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>574300</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1604,83 +1680,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>454700</v>
+        <v>-432300</v>
       </c>
       <c r="E35" s="3">
-        <v>-192200</v>
+        <v>443600</v>
       </c>
       <c r="F35" s="3">
-        <v>248400</v>
+        <v>-187400</v>
       </c>
       <c r="G35" s="3">
-        <v>181800</v>
+        <v>242300</v>
       </c>
       <c r="H35" s="3">
-        <v>35000</v>
+        <v>177400</v>
       </c>
       <c r="I35" s="3">
-        <v>336300</v>
+        <v>34100</v>
       </c>
       <c r="J35" s="3">
+        <v>328000</v>
+      </c>
+      <c r="K35" s="3">
         <v>886300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>697700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1328400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>574300</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42551</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42369</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42185</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1694,8 +1779,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1709,60 +1795,64 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1857300</v>
+        <v>1741600</v>
       </c>
       <c r="E41" s="3">
-        <v>2210000</v>
+        <v>1811700</v>
       </c>
       <c r="F41" s="3">
-        <v>2322900</v>
+        <v>2155700</v>
       </c>
       <c r="G41" s="3">
-        <v>1331800</v>
+        <v>2265900</v>
       </c>
       <c r="H41" s="3">
-        <v>1739700</v>
+        <v>1299200</v>
       </c>
       <c r="I41" s="3">
-        <v>1120700</v>
+        <v>1697100</v>
       </c>
       <c r="J41" s="3">
+        <v>1093200</v>
+      </c>
+      <c r="K41" s="3">
         <v>1271100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1109800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1482900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1779800</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>63200</v>
+        <v>64100</v>
       </c>
       <c r="E42" s="3">
-        <v>79000</v>
+        <v>61700</v>
       </c>
       <c r="F42" s="3">
-        <v>0</v>
+        <v>77100</v>
       </c>
       <c r="G42" s="3">
-        <v>88200</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>86100</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>8</v>
@@ -1779,253 +1869,277 @@
       <c r="M42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4693500</v>
+        <v>5163800</v>
       </c>
       <c r="E43" s="3">
-        <v>4849600</v>
+        <v>4578300</v>
       </c>
       <c r="F43" s="3">
-        <v>4194000</v>
+        <v>4730600</v>
       </c>
       <c r="G43" s="3">
-        <v>4332200</v>
+        <v>4091100</v>
       </c>
       <c r="H43" s="3">
-        <v>3616300</v>
+        <v>4226000</v>
       </c>
       <c r="I43" s="3">
-        <v>2901600</v>
+        <v>3527600</v>
       </c>
       <c r="J43" s="3">
+        <v>2830400</v>
+      </c>
+      <c r="K43" s="3">
         <v>2173600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2846100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2479300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2660500</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1473600</v>
+        <v>1243300</v>
       </c>
       <c r="E44" s="3">
-        <v>1369300</v>
+        <v>1437400</v>
       </c>
       <c r="F44" s="3">
-        <v>1284200</v>
+        <v>1335700</v>
       </c>
       <c r="G44" s="3">
-        <v>1059700</v>
+        <v>1252700</v>
       </c>
       <c r="H44" s="3">
-        <v>1205000</v>
+        <v>1033700</v>
       </c>
       <c r="I44" s="3">
-        <v>987000</v>
+        <v>1175400</v>
       </c>
       <c r="J44" s="3">
+        <v>962800</v>
+      </c>
+      <c r="K44" s="3">
         <v>765400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>804800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>898500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>974700</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>542200</v>
+        <v>294300</v>
       </c>
       <c r="E45" s="3">
-        <v>359100</v>
+        <v>528900</v>
       </c>
       <c r="F45" s="3">
-        <v>260500</v>
+        <v>350200</v>
       </c>
       <c r="G45" s="3">
-        <v>152200</v>
+        <v>254100</v>
       </c>
       <c r="H45" s="3">
-        <v>689400</v>
+        <v>148500</v>
       </c>
       <c r="I45" s="3">
-        <v>294700</v>
+        <v>672500</v>
       </c>
       <c r="J45" s="3">
+        <v>287500</v>
+      </c>
+      <c r="K45" s="3">
         <v>252200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>220700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>234800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>91800</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8629800</v>
+        <v>8507000</v>
       </c>
       <c r="E46" s="3">
-        <v>8866900</v>
+        <v>8418100</v>
       </c>
       <c r="F46" s="3">
-        <v>8061500</v>
+        <v>8649400</v>
       </c>
       <c r="G46" s="3">
-        <v>6964200</v>
+        <v>7863800</v>
       </c>
       <c r="H46" s="3">
-        <v>7250400</v>
+        <v>6793300</v>
       </c>
       <c r="I46" s="3">
-        <v>5304000</v>
+        <v>7072600</v>
       </c>
       <c r="J46" s="3">
+        <v>5173800</v>
+      </c>
+      <c r="K46" s="3">
         <v>4462300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4981400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5095500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5506700</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5294400</v>
+        <v>5074300</v>
       </c>
       <c r="E47" s="3">
-        <v>5189900</v>
+        <v>5164500</v>
       </c>
       <c r="F47" s="3">
-        <v>3618700</v>
+        <v>5062600</v>
       </c>
       <c r="G47" s="3">
-        <v>3547700</v>
+        <v>3529900</v>
       </c>
       <c r="H47" s="3">
-        <v>3806500</v>
+        <v>3460600</v>
       </c>
       <c r="I47" s="3">
-        <v>3623300</v>
+        <v>3713200</v>
       </c>
       <c r="J47" s="3">
+        <v>3534400</v>
+      </c>
+      <c r="K47" s="3">
         <v>3938500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4006200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3852800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3412900</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>41843200</v>
+        <v>42472600</v>
       </c>
       <c r="E48" s="3">
-        <v>40503500</v>
+        <v>40816600</v>
       </c>
       <c r="F48" s="3">
-        <v>40037000</v>
+        <v>39509800</v>
       </c>
       <c r="G48" s="3">
-        <v>40826600</v>
+        <v>39054700</v>
       </c>
       <c r="H48" s="3">
-        <v>40894600</v>
+        <v>39825000</v>
       </c>
       <c r="I48" s="3">
-        <v>32004900</v>
+        <v>39891300</v>
       </c>
       <c r="J48" s="3">
+        <v>31219700</v>
+      </c>
+      <c r="K48" s="3">
         <v>31397500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>32601700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>32015300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>27396000</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3119200</v>
+        <v>3141600</v>
       </c>
       <c r="E49" s="3">
-        <v>3127400</v>
+        <v>3042700</v>
       </c>
       <c r="F49" s="3">
-        <v>3096200</v>
+        <v>3050700</v>
       </c>
       <c r="G49" s="3">
-        <v>3119900</v>
+        <v>3020300</v>
       </c>
       <c r="H49" s="3">
-        <v>3115800</v>
+        <v>3043400</v>
       </c>
       <c r="I49" s="3">
-        <v>2588700</v>
+        <v>3039400</v>
       </c>
       <c r="J49" s="3">
+        <v>2525200</v>
+      </c>
+      <c r="K49" s="3">
         <v>2643700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2590300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2854700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3312200</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2059,8 +2173,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2094,43 +2211,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1015500</v>
+        <v>742400</v>
       </c>
       <c r="E52" s="3">
-        <v>2560000</v>
+        <v>990600</v>
       </c>
       <c r="F52" s="3">
-        <v>2404400</v>
+        <v>2497100</v>
       </c>
       <c r="G52" s="3">
-        <v>2444300</v>
+        <v>2345400</v>
       </c>
       <c r="H52" s="3">
-        <v>2199200</v>
+        <v>2384300</v>
       </c>
       <c r="I52" s="3">
-        <v>1652300</v>
+        <v>2145200</v>
       </c>
       <c r="J52" s="3">
+        <v>1611700</v>
+      </c>
+      <c r="K52" s="3">
         <v>1621700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1659200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1540400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>390400</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2164,43 +2287,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>59902100</v>
+        <v>59937900</v>
       </c>
       <c r="E54" s="3">
-        <v>60247700</v>
+        <v>58432500</v>
       </c>
       <c r="F54" s="3">
-        <v>57217800</v>
+        <v>58769700</v>
       </c>
       <c r="G54" s="3">
-        <v>56902700</v>
+        <v>55814100</v>
       </c>
       <c r="H54" s="3">
-        <v>57266500</v>
+        <v>55506700</v>
       </c>
       <c r="I54" s="3">
-        <v>45173200</v>
+        <v>55861600</v>
       </c>
       <c r="J54" s="3">
+        <v>44065000</v>
+      </c>
+      <c r="K54" s="3">
         <v>44063700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>45838900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>45358600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>40018200</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2214,8 +2343,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2229,218 +2359,237 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2081900</v>
+        <v>2218500</v>
       </c>
       <c r="E57" s="3">
-        <v>2106800</v>
+        <v>2030900</v>
       </c>
       <c r="F57" s="3">
-        <v>2297600</v>
+        <v>2055100</v>
       </c>
       <c r="G57" s="3">
-        <v>2223400</v>
+        <v>2241200</v>
       </c>
       <c r="H57" s="3">
-        <v>2309000</v>
+        <v>2168900</v>
       </c>
       <c r="I57" s="3">
-        <v>4064100</v>
+        <v>2252300</v>
       </c>
       <c r="J57" s="3">
+        <v>3964400</v>
+      </c>
+      <c r="K57" s="3">
         <v>3372500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3813800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3809400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3639800</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>15926800</v>
+        <v>13721100</v>
       </c>
       <c r="E58" s="3">
-        <v>13945500</v>
+        <v>15536100</v>
       </c>
       <c r="F58" s="3">
-        <v>14608800</v>
+        <v>13603300</v>
       </c>
       <c r="G58" s="3">
-        <v>16272800</v>
+        <v>14250400</v>
       </c>
       <c r="H58" s="3">
-        <v>18084000</v>
+        <v>15873600</v>
       </c>
       <c r="I58" s="3">
-        <v>14037500</v>
+        <v>17640300</v>
       </c>
       <c r="J58" s="3">
+        <v>13693100</v>
+      </c>
+      <c r="K58" s="3">
         <v>11625600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>13811500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>13072400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>10789000</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3133100</v>
+        <v>3881600</v>
       </c>
       <c r="E59" s="3">
-        <v>3777500</v>
+        <v>3056300</v>
       </c>
       <c r="F59" s="3">
-        <v>3364000</v>
+        <v>3684900</v>
       </c>
       <c r="G59" s="3">
-        <v>3879500</v>
+        <v>3281500</v>
       </c>
       <c r="H59" s="3">
-        <v>3926500</v>
+        <v>3784400</v>
       </c>
       <c r="I59" s="3">
-        <v>579000</v>
+        <v>3830200</v>
       </c>
       <c r="J59" s="3">
+        <v>564800</v>
+      </c>
+      <c r="K59" s="3">
         <v>1605700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>753300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1505300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>819000</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>21141900</v>
+        <v>19821200</v>
       </c>
       <c r="E60" s="3">
-        <v>19829800</v>
+        <v>20623200</v>
       </c>
       <c r="F60" s="3">
-        <v>20270300</v>
+        <v>19343300</v>
       </c>
       <c r="G60" s="3">
-        <v>22375800</v>
+        <v>19773100</v>
       </c>
       <c r="H60" s="3">
-        <v>24319500</v>
+        <v>21826800</v>
       </c>
       <c r="I60" s="3">
-        <v>18680600</v>
+        <v>23722800</v>
       </c>
       <c r="J60" s="3">
+        <v>18222300</v>
+      </c>
+      <c r="K60" s="3">
         <v>16603700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>18378600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>18387100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>15247800</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>20407000</v>
+        <v>20732500</v>
       </c>
       <c r="E61" s="3">
-        <v>22476000</v>
+        <v>19906300</v>
       </c>
       <c r="F61" s="3">
-        <v>20099700</v>
+        <v>21924600</v>
       </c>
       <c r="G61" s="3">
-        <v>17813600</v>
+        <v>19606600</v>
       </c>
       <c r="H61" s="3">
-        <v>16682200</v>
+        <v>17376600</v>
       </c>
       <c r="I61" s="3">
-        <v>11147500</v>
+        <v>16272900</v>
       </c>
       <c r="J61" s="3">
+        <v>10874000</v>
+      </c>
+      <c r="K61" s="3">
         <v>12014200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>11604600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>12603500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>11917700</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1264700</v>
+        <v>1136300</v>
       </c>
       <c r="E62" s="3">
-        <v>1280800</v>
+        <v>1233700</v>
       </c>
       <c r="F62" s="3">
-        <v>1243700</v>
+        <v>1249300</v>
       </c>
       <c r="G62" s="3">
-        <v>1272700</v>
+        <v>1213200</v>
       </c>
       <c r="H62" s="3">
-        <v>1275400</v>
+        <v>1241500</v>
       </c>
       <c r="I62" s="3">
-        <v>683400</v>
+        <v>1244100</v>
       </c>
       <c r="J62" s="3">
+        <v>666700</v>
+      </c>
+      <c r="K62" s="3">
         <v>749600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>763300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>734100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>522800</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2474,8 +2623,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2509,8 +2661,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2544,43 +2699,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>45990900</v>
+        <v>44709700</v>
       </c>
       <c r="E66" s="3">
-        <v>46698100</v>
+        <v>44862600</v>
       </c>
       <c r="F66" s="3">
-        <v>44622400</v>
+        <v>45552500</v>
       </c>
       <c r="G66" s="3">
-        <v>44327900</v>
+        <v>43527700</v>
       </c>
       <c r="H66" s="3">
-        <v>45477100</v>
+        <v>43240400</v>
       </c>
       <c r="I66" s="3">
-        <v>32833500</v>
+        <v>44361400</v>
       </c>
       <c r="J66" s="3">
+        <v>32028000</v>
+      </c>
+      <c r="K66" s="3">
         <v>31986500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>33351300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>34266300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>29819300</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2594,8 +2755,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2629,8 +2791,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2664,8 +2829,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2699,8 +2867,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2734,43 +2905,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6504500</v>
+        <v>5993500</v>
       </c>
       <c r="E72" s="3">
-        <v>6274900</v>
+        <v>6344900</v>
       </c>
       <c r="F72" s="3">
-        <v>6462400</v>
+        <v>6121000</v>
       </c>
       <c r="G72" s="3">
-        <v>6463000</v>
+        <v>6303900</v>
       </c>
       <c r="H72" s="3">
-        <v>6281200</v>
+        <v>6304500</v>
       </c>
       <c r="I72" s="3">
-        <v>6878700</v>
+        <v>6127100</v>
       </c>
       <c r="J72" s="3">
+        <v>6709900</v>
+      </c>
+      <c r="K72" s="3">
         <v>6542400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6910800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6213100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5583500</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2804,8 +2981,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2839,8 +3019,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2874,43 +3057,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13911200</v>
+        <v>15228200</v>
       </c>
       <c r="E76" s="3">
-        <v>13549600</v>
+        <v>13569900</v>
       </c>
       <c r="F76" s="3">
-        <v>12595400</v>
+        <v>13217200</v>
       </c>
       <c r="G76" s="3">
-        <v>12574800</v>
+        <v>12286400</v>
       </c>
       <c r="H76" s="3">
-        <v>11789400</v>
+        <v>12266300</v>
       </c>
       <c r="I76" s="3">
-        <v>12339700</v>
+        <v>11500200</v>
       </c>
       <c r="J76" s="3">
+        <v>12037000</v>
+      </c>
+      <c r="K76" s="3">
         <v>12077300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12487500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11092300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10198900</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2944,83 +3133,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42551</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42369</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42185</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>454700</v>
+        <v>-432300</v>
       </c>
       <c r="E81" s="3">
-        <v>-192200</v>
+        <v>443600</v>
       </c>
       <c r="F81" s="3">
-        <v>248400</v>
+        <v>-187400</v>
       </c>
       <c r="G81" s="3">
-        <v>181800</v>
+        <v>242300</v>
       </c>
       <c r="H81" s="3">
-        <v>35000</v>
+        <v>177400</v>
       </c>
       <c r="I81" s="3">
-        <v>336300</v>
+        <v>34100</v>
       </c>
       <c r="J81" s="3">
+        <v>328000</v>
+      </c>
+      <c r="K81" s="3">
         <v>886300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>697700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1328400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>574300</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3034,8 +3232,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3069,8 +3268,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3104,8 +3306,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3139,8 +3344,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3174,8 +3382,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3209,8 +3420,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3244,43 +3458,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2401700</v>
+        <v>2881200</v>
       </c>
       <c r="E89" s="3">
-        <v>1953100</v>
+        <v>2342700</v>
       </c>
       <c r="F89" s="3">
-        <v>2168800</v>
+        <v>1905200</v>
       </c>
       <c r="G89" s="3">
-        <v>2137200</v>
+        <v>2115600</v>
       </c>
       <c r="H89" s="3">
-        <v>2052100</v>
+        <v>2084800</v>
       </c>
       <c r="I89" s="3">
-        <v>1728200</v>
+        <v>2001700</v>
       </c>
       <c r="J89" s="3">
+        <v>1685800</v>
+      </c>
+      <c r="K89" s="3">
         <v>2792900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2718000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3569000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2482700</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3294,43 +3514,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1599500</v>
+        <v>-2832000</v>
       </c>
       <c r="E91" s="3">
-        <v>-1970500</v>
+        <v>-1560300</v>
       </c>
       <c r="F91" s="3">
-        <v>-987100</v>
+        <v>-1922200</v>
       </c>
       <c r="G91" s="3">
-        <v>-2197400</v>
+        <v>-962900</v>
       </c>
       <c r="H91" s="3">
-        <v>-1504100</v>
+        <v>-2143500</v>
       </c>
       <c r="I91" s="3">
-        <v>-1840500</v>
+        <v>-1467200</v>
       </c>
       <c r="J91" s="3">
+        <v>-1795400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1049900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1905100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1685200</v>
       </c>
-      <c r="M91" s="3" t="s">
+      <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3364,8 +3588,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3399,43 +3626,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1435000</v>
+        <v>-2663800</v>
       </c>
       <c r="E94" s="3">
-        <v>-2047700</v>
+        <v>-1399800</v>
       </c>
       <c r="F94" s="3">
-        <v>-875800</v>
+        <v>-1997500</v>
       </c>
       <c r="G94" s="3">
-        <v>-1647100</v>
+        <v>-854300</v>
       </c>
       <c r="H94" s="3">
-        <v>-2908300</v>
+        <v>-1606700</v>
       </c>
       <c r="I94" s="3">
-        <v>-1554100</v>
+        <v>-2836900</v>
       </c>
       <c r="J94" s="3">
+        <v>-1516000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-978300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1871500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3028300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1869600</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3449,28 +3682,29 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-157800</v>
+        <v>-65800</v>
       </c>
       <c r="E96" s="3">
-        <v>-62300</v>
+        <v>-153900</v>
       </c>
       <c r="F96" s="3">
-        <v>-155800</v>
+        <v>-60800</v>
       </c>
       <c r="G96" s="3">
-        <v>-187700</v>
+        <v>-151900</v>
       </c>
       <c r="H96" s="3">
-        <v>-436900</v>
+        <v>-183100</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-426200</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -3484,8 +3718,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3519,8 +3756,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3554,8 +3794,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3589,109 +3832,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1313300</v>
+        <v>-304400</v>
       </c>
       <c r="E100" s="3">
-        <v>-21300</v>
+        <v>-1281100</v>
       </c>
       <c r="F100" s="3">
-        <v>-300500</v>
+        <v>-20800</v>
       </c>
       <c r="G100" s="3">
-        <v>-897600</v>
+        <v>-293100</v>
       </c>
       <c r="H100" s="3">
-        <v>1473400</v>
+        <v>-875500</v>
       </c>
       <c r="I100" s="3">
-        <v>-321800</v>
+        <v>1437200</v>
       </c>
       <c r="J100" s="3">
+        <v>-313900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1629800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1225200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-873400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-512800</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-6600</v>
+        <v>15300</v>
       </c>
       <c r="E101" s="3">
-        <v>5200</v>
+        <v>-6400</v>
       </c>
       <c r="F101" s="3">
+        <v>5100</v>
+      </c>
+      <c r="G101" s="3">
         <v>-1400</v>
       </c>
-      <c r="G101" s="3">
-        <v>-1800</v>
-      </c>
       <c r="H101" s="3">
-        <v>3300</v>
+        <v>-1700</v>
       </c>
       <c r="I101" s="3">
-        <v>-2800</v>
+        <v>3200</v>
       </c>
       <c r="J101" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K101" s="3">
         <v>13200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>5500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-16200</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-353200</v>
+        <v>-71700</v>
       </c>
       <c r="E102" s="3">
-        <v>-110700</v>
+        <v>-344600</v>
       </c>
       <c r="F102" s="3">
-        <v>991000</v>
+        <v>-108000</v>
       </c>
       <c r="G102" s="3">
-        <v>-409200</v>
+        <v>966700</v>
       </c>
       <c r="H102" s="3">
-        <v>620400</v>
+        <v>-399200</v>
       </c>
       <c r="I102" s="3">
-        <v>-150400</v>
+        <v>605200</v>
       </c>
       <c r="J102" s="3">
+        <v>-146700</v>
+      </c>
+      <c r="K102" s="3">
         <v>198100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-373100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-333400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>84100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HNP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HNP_QTR_FIN.xlsx
@@ -732,25 +732,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12526000</v>
+        <v>12997600</v>
       </c>
       <c r="E8" s="3">
-        <v>11571800</v>
+        <v>12007500</v>
       </c>
       <c r="F8" s="3">
-        <v>12069100</v>
+        <v>12523600</v>
       </c>
       <c r="G8" s="3">
-        <v>11410800</v>
+        <v>11840400</v>
       </c>
       <c r="H8" s="3">
-        <v>11238500</v>
+        <v>11661700</v>
       </c>
       <c r="I8" s="3">
-        <v>9907100</v>
+        <v>10280100</v>
       </c>
       <c r="J8" s="3">
-        <v>8421300</v>
+        <v>8738400</v>
       </c>
       <c r="K8" s="3">
         <v>7528000</v>
@@ -770,25 +770,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7851400</v>
+        <v>8147000</v>
       </c>
       <c r="E9" s="3">
-        <v>7186500</v>
+        <v>7457100</v>
       </c>
       <c r="F9" s="3">
-        <v>8298200</v>
+        <v>8610600</v>
       </c>
       <c r="G9" s="3">
-        <v>7770400</v>
+        <v>8062900</v>
       </c>
       <c r="H9" s="3">
-        <v>7466700</v>
+        <v>7747800</v>
       </c>
       <c r="I9" s="3">
-        <v>6651400</v>
+        <v>6901900</v>
       </c>
       <c r="J9" s="3">
-        <v>5305500</v>
+        <v>5505300</v>
       </c>
       <c r="K9" s="3">
         <v>3747700</v>
@@ -808,25 +808,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4674600</v>
+        <v>4850600</v>
       </c>
       <c r="E10" s="3">
-        <v>4385300</v>
+        <v>4550400</v>
       </c>
       <c r="F10" s="3">
-        <v>3771000</v>
+        <v>3913000</v>
       </c>
       <c r="G10" s="3">
-        <v>3640400</v>
+        <v>3777500</v>
       </c>
       <c r="H10" s="3">
-        <v>3771900</v>
+        <v>3913900</v>
       </c>
       <c r="I10" s="3">
-        <v>3255700</v>
+        <v>3378300</v>
       </c>
       <c r="J10" s="3">
-        <v>3115800</v>
+        <v>3233100</v>
       </c>
       <c r="K10" s="3">
         <v>3780300</v>
@@ -976,25 +976,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1563800</v>
+        <v>1622600</v>
       </c>
       <c r="E15" s="3">
-        <v>1496500</v>
+        <v>1552800</v>
       </c>
       <c r="F15" s="3">
-        <v>1447600</v>
+        <v>1502100</v>
       </c>
       <c r="G15" s="3">
-        <v>1416900</v>
+        <v>1470200</v>
       </c>
       <c r="H15" s="3">
-        <v>1404300</v>
+        <v>1457200</v>
       </c>
       <c r="I15" s="3">
-        <v>1420200</v>
+        <v>1473600</v>
       </c>
       <c r="J15" s="3">
-        <v>1035100</v>
+        <v>1074100</v>
       </c>
       <c r="K15" s="3">
         <v>1064600</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12259900</v>
+        <v>12721500</v>
       </c>
       <c r="E17" s="3">
-        <v>10105500</v>
+        <v>10486000</v>
       </c>
       <c r="F17" s="3">
-        <v>11732800</v>
+        <v>12174600</v>
       </c>
       <c r="G17" s="3">
-        <v>10331500</v>
+        <v>10720500</v>
       </c>
       <c r="H17" s="3">
-        <v>10662400</v>
+        <v>11063900</v>
       </c>
       <c r="I17" s="3">
-        <v>9197900</v>
+        <v>9544200</v>
       </c>
       <c r="J17" s="3">
-        <v>7632000</v>
+        <v>7919400</v>
       </c>
       <c r="K17" s="3">
         <v>5700300</v>
@@ -1065,25 +1065,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>266100</v>
+        <v>276100</v>
       </c>
       <c r="E18" s="3">
-        <v>1466300</v>
+        <v>1521500</v>
       </c>
       <c r="F18" s="3">
-        <v>336300</v>
+        <v>349000</v>
       </c>
       <c r="G18" s="3">
-        <v>1079300</v>
+        <v>1119900</v>
       </c>
       <c r="H18" s="3">
-        <v>576100</v>
+        <v>597800</v>
       </c>
       <c r="I18" s="3">
-        <v>709200</v>
+        <v>735900</v>
       </c>
       <c r="J18" s="3">
-        <v>789300</v>
+        <v>819000</v>
       </c>
       <c r="K18" s="3">
         <v>1827700</v>
@@ -1119,25 +1119,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>103600</v>
+        <v>107500</v>
       </c>
       <c r="E20" s="3">
-        <v>106900</v>
+        <v>111000</v>
       </c>
       <c r="F20" s="3">
-        <v>267500</v>
+        <v>277500</v>
       </c>
       <c r="G20" s="3">
-        <v>60800</v>
+        <v>63100</v>
       </c>
       <c r="H20" s="3">
-        <v>413100</v>
+        <v>428700</v>
       </c>
       <c r="I20" s="3">
-        <v>58200</v>
+        <v>60400</v>
       </c>
       <c r="J20" s="3">
-        <v>224300</v>
+        <v>232800</v>
       </c>
       <c r="K20" s="3">
         <v>93300</v>
@@ -1157,25 +1157,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>441600</v>
+        <v>458300</v>
       </c>
       <c r="E21" s="3">
-        <v>3074500</v>
+        <v>3190300</v>
       </c>
       <c r="F21" s="3">
-        <v>634200</v>
+        <v>658100</v>
       </c>
       <c r="G21" s="3">
-        <v>2564500</v>
+        <v>2661000</v>
       </c>
       <c r="H21" s="3">
-        <v>971500</v>
+        <v>1008100</v>
       </c>
       <c r="I21" s="3">
-        <v>2196400</v>
+        <v>2279100</v>
       </c>
       <c r="J21" s="3">
-        <v>1010200</v>
+        <v>1048200</v>
       </c>
       <c r="K21" s="3">
         <v>2985600</v>
@@ -1195,25 +1195,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>736800</v>
+        <v>764500</v>
       </c>
       <c r="E22" s="3">
-        <v>769600</v>
+        <v>798600</v>
       </c>
       <c r="F22" s="3">
-        <v>748400</v>
+        <v>776600</v>
       </c>
       <c r="G22" s="3">
-        <v>719200</v>
+        <v>746300</v>
       </c>
       <c r="H22" s="3">
-        <v>711900</v>
+        <v>738700</v>
       </c>
       <c r="I22" s="3">
-        <v>652600</v>
+        <v>677200</v>
       </c>
       <c r="J22" s="3">
-        <v>481200</v>
+        <v>499300</v>
       </c>
       <c r="K22" s="3">
         <v>484900</v>
@@ -1233,25 +1233,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-367000</v>
+        <v>-380900</v>
       </c>
       <c r="E23" s="3">
-        <v>803600</v>
+        <v>833900</v>
       </c>
       <c r="F23" s="3">
-        <v>-144600</v>
+        <v>-150100</v>
       </c>
       <c r="G23" s="3">
-        <v>420800</v>
+        <v>436600</v>
       </c>
       <c r="H23" s="3">
-        <v>277400</v>
+        <v>287800</v>
       </c>
       <c r="I23" s="3">
-        <v>114800</v>
+        <v>119100</v>
       </c>
       <c r="J23" s="3">
-        <v>532400</v>
+        <v>552400</v>
       </c>
       <c r="K23" s="3">
         <v>1436100</v>
@@ -1271,25 +1271,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>93000</v>
+        <v>96500</v>
       </c>
       <c r="E24" s="3">
-        <v>188500</v>
+        <v>195600</v>
       </c>
       <c r="F24" s="3">
-        <v>-14200</v>
+        <v>-14700</v>
       </c>
       <c r="G24" s="3">
-        <v>104200</v>
+        <v>108100</v>
       </c>
       <c r="H24" s="3">
-        <v>103400</v>
+        <v>107300</v>
       </c>
       <c r="I24" s="3">
-        <v>67000</v>
+        <v>69500</v>
       </c>
       <c r="J24" s="3">
-        <v>147100</v>
+        <v>152700</v>
       </c>
       <c r="K24" s="3">
         <v>346400</v>
@@ -1347,25 +1347,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-460100</v>
+        <v>-477400</v>
       </c>
       <c r="E26" s="3">
-        <v>615200</v>
+        <v>638300</v>
       </c>
       <c r="F26" s="3">
-        <v>-130400</v>
+        <v>-135400</v>
       </c>
       <c r="G26" s="3">
-        <v>316600</v>
+        <v>328500</v>
       </c>
       <c r="H26" s="3">
-        <v>174000</v>
+        <v>180500</v>
       </c>
       <c r="I26" s="3">
-        <v>47700</v>
+        <v>49500</v>
       </c>
       <c r="J26" s="3">
-        <v>385300</v>
+        <v>399800</v>
       </c>
       <c r="K26" s="3">
         <v>1089800</v>
@@ -1385,25 +1385,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-432300</v>
+        <v>-448600</v>
       </c>
       <c r="E27" s="3">
-        <v>443600</v>
+        <v>460300</v>
       </c>
       <c r="F27" s="3">
-        <v>-187400</v>
+        <v>-194500</v>
       </c>
       <c r="G27" s="3">
-        <v>242300</v>
+        <v>251400</v>
       </c>
       <c r="H27" s="3">
-        <v>177400</v>
+        <v>184000</v>
       </c>
       <c r="I27" s="3">
-        <v>34100</v>
+        <v>35400</v>
       </c>
       <c r="J27" s="3">
-        <v>328000</v>
+        <v>340400</v>
       </c>
       <c r="K27" s="3">
         <v>886300</v>
@@ -1575,25 +1575,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-103600</v>
+        <v>-107500</v>
       </c>
       <c r="E32" s="3">
-        <v>-106900</v>
+        <v>-111000</v>
       </c>
       <c r="F32" s="3">
-        <v>-267500</v>
+        <v>-277500</v>
       </c>
       <c r="G32" s="3">
-        <v>-60800</v>
+        <v>-63100</v>
       </c>
       <c r="H32" s="3">
-        <v>-413100</v>
+        <v>-428700</v>
       </c>
       <c r="I32" s="3">
-        <v>-58200</v>
+        <v>-60400</v>
       </c>
       <c r="J32" s="3">
-        <v>-224300</v>
+        <v>-232800</v>
       </c>
       <c r="K32" s="3">
         <v>-93300</v>
@@ -1613,25 +1613,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-432300</v>
+        <v>-448600</v>
       </c>
       <c r="E33" s="3">
-        <v>443600</v>
+        <v>460300</v>
       </c>
       <c r="F33" s="3">
-        <v>-187400</v>
+        <v>-194500</v>
       </c>
       <c r="G33" s="3">
-        <v>242300</v>
+        <v>251400</v>
       </c>
       <c r="H33" s="3">
-        <v>177400</v>
+        <v>184000</v>
       </c>
       <c r="I33" s="3">
-        <v>34100</v>
+        <v>35400</v>
       </c>
       <c r="J33" s="3">
-        <v>328000</v>
+        <v>340400</v>
       </c>
       <c r="K33" s="3">
         <v>886300</v>
@@ -1689,25 +1689,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-432300</v>
+        <v>-448600</v>
       </c>
       <c r="E35" s="3">
-        <v>443600</v>
+        <v>460300</v>
       </c>
       <c r="F35" s="3">
-        <v>-187400</v>
+        <v>-194500</v>
       </c>
       <c r="G35" s="3">
-        <v>242300</v>
+        <v>251400</v>
       </c>
       <c r="H35" s="3">
-        <v>177400</v>
+        <v>184000</v>
       </c>
       <c r="I35" s="3">
-        <v>34100</v>
+        <v>35400</v>
       </c>
       <c r="J35" s="3">
-        <v>328000</v>
+        <v>340400</v>
       </c>
       <c r="K35" s="3">
         <v>886300</v>
@@ -1802,25 +1802,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1741600</v>
+        <v>1807100</v>
       </c>
       <c r="E41" s="3">
-        <v>1811700</v>
+        <v>1880000</v>
       </c>
       <c r="F41" s="3">
-        <v>2155700</v>
+        <v>2236900</v>
       </c>
       <c r="G41" s="3">
-        <v>2265900</v>
+        <v>2351200</v>
       </c>
       <c r="H41" s="3">
-        <v>1299200</v>
+        <v>1348100</v>
       </c>
       <c r="I41" s="3">
-        <v>1697100</v>
+        <v>1761000</v>
       </c>
       <c r="J41" s="3">
-        <v>1093200</v>
+        <v>1134300</v>
       </c>
       <c r="K41" s="3">
         <v>1271100</v>
@@ -1840,19 +1840,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>64100</v>
+        <v>66500</v>
       </c>
       <c r="E42" s="3">
-        <v>61700</v>
+        <v>64000</v>
       </c>
       <c r="F42" s="3">
-        <v>77100</v>
+        <v>80000</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>86100</v>
+        <v>89300</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>8</v>
@@ -1878,25 +1878,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5163800</v>
+        <v>5358200</v>
       </c>
       <c r="E43" s="3">
-        <v>4578300</v>
+        <v>4750700</v>
       </c>
       <c r="F43" s="3">
-        <v>4730600</v>
+        <v>4908700</v>
       </c>
       <c r="G43" s="3">
-        <v>4091100</v>
+        <v>4245200</v>
       </c>
       <c r="H43" s="3">
-        <v>4226000</v>
+        <v>4385100</v>
       </c>
       <c r="I43" s="3">
-        <v>3527600</v>
+        <v>3660400</v>
       </c>
       <c r="J43" s="3">
-        <v>2830400</v>
+        <v>2937000</v>
       </c>
       <c r="K43" s="3">
         <v>2173600</v>
@@ -1916,25 +1916,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1243300</v>
+        <v>1290100</v>
       </c>
       <c r="E44" s="3">
-        <v>1437400</v>
+        <v>1491600</v>
       </c>
       <c r="F44" s="3">
-        <v>1335700</v>
+        <v>1386000</v>
       </c>
       <c r="G44" s="3">
-        <v>1252700</v>
+        <v>1299900</v>
       </c>
       <c r="H44" s="3">
-        <v>1033700</v>
+        <v>1072600</v>
       </c>
       <c r="I44" s="3">
-        <v>1175400</v>
+        <v>1219700</v>
       </c>
       <c r="J44" s="3">
-        <v>962800</v>
+        <v>999100</v>
       </c>
       <c r="K44" s="3">
         <v>765400</v>
@@ -1954,25 +1954,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>294300</v>
+        <v>305300</v>
       </c>
       <c r="E45" s="3">
-        <v>528900</v>
+        <v>548800</v>
       </c>
       <c r="F45" s="3">
-        <v>350200</v>
+        <v>363400</v>
       </c>
       <c r="G45" s="3">
-        <v>254100</v>
+        <v>263700</v>
       </c>
       <c r="H45" s="3">
-        <v>148500</v>
+        <v>154100</v>
       </c>
       <c r="I45" s="3">
-        <v>672500</v>
+        <v>697800</v>
       </c>
       <c r="J45" s="3">
-        <v>287500</v>
+        <v>298300</v>
       </c>
       <c r="K45" s="3">
         <v>252200</v>
@@ -1992,25 +1992,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8507000</v>
+        <v>8827300</v>
       </c>
       <c r="E46" s="3">
-        <v>8418100</v>
+        <v>8735100</v>
       </c>
       <c r="F46" s="3">
-        <v>8649400</v>
+        <v>8975100</v>
       </c>
       <c r="G46" s="3">
-        <v>7863800</v>
+        <v>8159900</v>
       </c>
       <c r="H46" s="3">
-        <v>6793300</v>
+        <v>7049100</v>
       </c>
       <c r="I46" s="3">
-        <v>7072600</v>
+        <v>7338900</v>
       </c>
       <c r="J46" s="3">
-        <v>5173800</v>
+        <v>5368700</v>
       </c>
       <c r="K46" s="3">
         <v>4462300</v>
@@ -2030,25 +2030,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5074300</v>
+        <v>5265300</v>
       </c>
       <c r="E47" s="3">
-        <v>5164500</v>
+        <v>5359000</v>
       </c>
       <c r="F47" s="3">
-        <v>5062600</v>
+        <v>5253200</v>
       </c>
       <c r="G47" s="3">
-        <v>3529900</v>
+        <v>3662800</v>
       </c>
       <c r="H47" s="3">
-        <v>3460600</v>
+        <v>3590900</v>
       </c>
       <c r="I47" s="3">
-        <v>3713200</v>
+        <v>3853000</v>
       </c>
       <c r="J47" s="3">
-        <v>3534400</v>
+        <v>3667500</v>
       </c>
       <c r="K47" s="3">
         <v>3938500</v>
@@ -2068,25 +2068,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>42472600</v>
+        <v>44071900</v>
       </c>
       <c r="E48" s="3">
-        <v>40816600</v>
+        <v>42353500</v>
       </c>
       <c r="F48" s="3">
-        <v>39509800</v>
+        <v>40997500</v>
       </c>
       <c r="G48" s="3">
-        <v>39054700</v>
+        <v>40525300</v>
       </c>
       <c r="H48" s="3">
-        <v>39825000</v>
+        <v>41324500</v>
       </c>
       <c r="I48" s="3">
-        <v>39891300</v>
+        <v>41393300</v>
       </c>
       <c r="J48" s="3">
-        <v>31219700</v>
+        <v>32395300</v>
       </c>
       <c r="K48" s="3">
         <v>31397500</v>
@@ -2106,25 +2106,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3141600</v>
+        <v>3259900</v>
       </c>
       <c r="E49" s="3">
-        <v>3042700</v>
+        <v>3157200</v>
       </c>
       <c r="F49" s="3">
-        <v>3050700</v>
+        <v>4828500</v>
       </c>
       <c r="G49" s="3">
-        <v>3020300</v>
+        <v>4762400</v>
       </c>
       <c r="H49" s="3">
-        <v>3043400</v>
+        <v>4793900</v>
       </c>
       <c r="I49" s="3">
-        <v>3039400</v>
+        <v>4828900</v>
       </c>
       <c r="J49" s="3">
-        <v>2525200</v>
+        <v>3848400</v>
       </c>
       <c r="K49" s="3">
         <v>2643700</v>
@@ -2220,25 +2220,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>742400</v>
+        <v>770300</v>
       </c>
       <c r="E52" s="3">
-        <v>990600</v>
+        <v>1027900</v>
       </c>
       <c r="F52" s="3">
-        <v>2497100</v>
+        <v>928300</v>
       </c>
       <c r="G52" s="3">
-        <v>2345400</v>
+        <v>805400</v>
       </c>
       <c r="H52" s="3">
-        <v>2384300</v>
+        <v>838100</v>
       </c>
       <c r="I52" s="3">
-        <v>2145200</v>
+        <v>550900</v>
       </c>
       <c r="J52" s="3">
-        <v>1611700</v>
+        <v>444300</v>
       </c>
       <c r="K52" s="3">
         <v>1621700</v>
@@ -2296,25 +2296,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>59937900</v>
+        <v>62194800</v>
       </c>
       <c r="E54" s="3">
-        <v>58432500</v>
+        <v>60632700</v>
       </c>
       <c r="F54" s="3">
-        <v>58769700</v>
+        <v>60982600</v>
       </c>
       <c r="G54" s="3">
-        <v>55814100</v>
+        <v>57915700</v>
       </c>
       <c r="H54" s="3">
-        <v>55506700</v>
+        <v>57596700</v>
       </c>
       <c r="I54" s="3">
-        <v>55861600</v>
+        <v>57965000</v>
       </c>
       <c r="J54" s="3">
-        <v>44065000</v>
+        <v>45724200</v>
       </c>
       <c r="K54" s="3">
         <v>44063700</v>
@@ -2366,25 +2366,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2218500</v>
+        <v>2302000</v>
       </c>
       <c r="E57" s="3">
-        <v>2030900</v>
+        <v>2107300</v>
       </c>
       <c r="F57" s="3">
-        <v>2055100</v>
+        <v>2132500</v>
       </c>
       <c r="G57" s="3">
-        <v>2241200</v>
+        <v>2325600</v>
       </c>
       <c r="H57" s="3">
-        <v>2168900</v>
+        <v>2250600</v>
       </c>
       <c r="I57" s="3">
-        <v>2252300</v>
+        <v>2337100</v>
       </c>
       <c r="J57" s="3">
-        <v>3964400</v>
+        <v>4113700</v>
       </c>
       <c r="K57" s="3">
         <v>3372500</v>
@@ -2404,25 +2404,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>13721100</v>
+        <v>14237700</v>
       </c>
       <c r="E58" s="3">
-        <v>15536100</v>
+        <v>16121100</v>
       </c>
       <c r="F58" s="3">
-        <v>13603300</v>
+        <v>14115600</v>
       </c>
       <c r="G58" s="3">
-        <v>14250400</v>
+        <v>14787000</v>
       </c>
       <c r="H58" s="3">
-        <v>15873600</v>
+        <v>16471300</v>
       </c>
       <c r="I58" s="3">
-        <v>17640300</v>
+        <v>18304600</v>
       </c>
       <c r="J58" s="3">
-        <v>13693100</v>
+        <v>14208700</v>
       </c>
       <c r="K58" s="3">
         <v>11625600</v>
@@ -2442,25 +2442,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3881600</v>
+        <v>4027800</v>
       </c>
       <c r="E59" s="3">
-        <v>3056300</v>
+        <v>3171300</v>
       </c>
       <c r="F59" s="3">
-        <v>3684900</v>
+        <v>3823600</v>
       </c>
       <c r="G59" s="3">
-        <v>3281500</v>
+        <v>3405000</v>
       </c>
       <c r="H59" s="3">
-        <v>3784400</v>
+        <v>3926800</v>
       </c>
       <c r="I59" s="3">
-        <v>3830200</v>
+        <v>3974400</v>
       </c>
       <c r="J59" s="3">
-        <v>564800</v>
+        <v>586100</v>
       </c>
       <c r="K59" s="3">
         <v>1605700</v>
@@ -2480,25 +2480,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>19821200</v>
+        <v>20567500</v>
       </c>
       <c r="E60" s="3">
-        <v>20623200</v>
+        <v>21399700</v>
       </c>
       <c r="F60" s="3">
-        <v>19343300</v>
+        <v>20071700</v>
       </c>
       <c r="G60" s="3">
-        <v>19773100</v>
+        <v>20517600</v>
       </c>
       <c r="H60" s="3">
-        <v>21826800</v>
+        <v>22648700</v>
       </c>
       <c r="I60" s="3">
-        <v>23722800</v>
+        <v>24616100</v>
       </c>
       <c r="J60" s="3">
-        <v>18222300</v>
+        <v>18908400</v>
       </c>
       <c r="K60" s="3">
         <v>16603700</v>
@@ -2518,25 +2518,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>20732500</v>
+        <v>21513200</v>
       </c>
       <c r="E61" s="3">
-        <v>19906300</v>
+        <v>20655900</v>
       </c>
       <c r="F61" s="3">
-        <v>21924600</v>
+        <v>22750100</v>
       </c>
       <c r="G61" s="3">
-        <v>19606600</v>
+        <v>20344900</v>
       </c>
       <c r="H61" s="3">
-        <v>17376600</v>
+        <v>18030900</v>
       </c>
       <c r="I61" s="3">
-        <v>16272900</v>
+        <v>16885700</v>
       </c>
       <c r="J61" s="3">
-        <v>10874000</v>
+        <v>11283400</v>
       </c>
       <c r="K61" s="3">
         <v>12014200</v>
@@ -2556,25 +2556,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1136300</v>
+        <v>1179100</v>
       </c>
       <c r="E62" s="3">
-        <v>1233700</v>
+        <v>1280100</v>
       </c>
       <c r="F62" s="3">
-        <v>1249300</v>
+        <v>1296400</v>
       </c>
       <c r="G62" s="3">
-        <v>1213200</v>
+        <v>1258800</v>
       </c>
       <c r="H62" s="3">
-        <v>1241500</v>
+        <v>1288300</v>
       </c>
       <c r="I62" s="3">
-        <v>1244100</v>
+        <v>1291000</v>
       </c>
       <c r="J62" s="3">
-        <v>666700</v>
+        <v>691800</v>
       </c>
       <c r="K62" s="3">
         <v>749600</v>
@@ -2708,25 +2708,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>44709700</v>
+        <v>46393200</v>
       </c>
       <c r="E66" s="3">
-        <v>44862600</v>
+        <v>46551800</v>
       </c>
       <c r="F66" s="3">
-        <v>45552500</v>
+        <v>47267700</v>
       </c>
       <c r="G66" s="3">
-        <v>43527700</v>
+        <v>45166700</v>
       </c>
       <c r="H66" s="3">
-        <v>43240400</v>
+        <v>44868500</v>
       </c>
       <c r="I66" s="3">
-        <v>44361400</v>
+        <v>46031800</v>
       </c>
       <c r="J66" s="3">
-        <v>32028000</v>
+        <v>33234000</v>
       </c>
       <c r="K66" s="3">
         <v>31986500</v>
@@ -2914,25 +2914,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5993500</v>
+        <v>6219100</v>
       </c>
       <c r="E72" s="3">
-        <v>6344900</v>
+        <v>6583800</v>
       </c>
       <c r="F72" s="3">
-        <v>6121000</v>
+        <v>6351400</v>
       </c>
       <c r="G72" s="3">
-        <v>6303900</v>
+        <v>6541300</v>
       </c>
       <c r="H72" s="3">
-        <v>6304500</v>
+        <v>6541900</v>
       </c>
       <c r="I72" s="3">
-        <v>6127100</v>
+        <v>6357800</v>
       </c>
       <c r="J72" s="3">
-        <v>6709900</v>
+        <v>6962600</v>
       </c>
       <c r="K72" s="3">
         <v>6542400</v>
@@ -3066,25 +3066,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15228200</v>
+        <v>15801600</v>
       </c>
       <c r="E76" s="3">
-        <v>13569900</v>
+        <v>14080900</v>
       </c>
       <c r="F76" s="3">
-        <v>13217200</v>
+        <v>13714900</v>
       </c>
       <c r="G76" s="3">
-        <v>12286400</v>
+        <v>12749000</v>
       </c>
       <c r="H76" s="3">
-        <v>12266300</v>
+        <v>12728200</v>
       </c>
       <c r="I76" s="3">
-        <v>11500200</v>
+        <v>11933200</v>
       </c>
       <c r="J76" s="3">
-        <v>12037000</v>
+        <v>12490200</v>
       </c>
       <c r="K76" s="3">
         <v>12077300</v>
@@ -3185,25 +3185,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-432300</v>
+        <v>-448600</v>
       </c>
       <c r="E81" s="3">
-        <v>443600</v>
+        <v>460300</v>
       </c>
       <c r="F81" s="3">
-        <v>-187400</v>
+        <v>-194500</v>
       </c>
       <c r="G81" s="3">
-        <v>242300</v>
+        <v>251400</v>
       </c>
       <c r="H81" s="3">
-        <v>177400</v>
+        <v>184000</v>
       </c>
       <c r="I81" s="3">
-        <v>34100</v>
+        <v>35400</v>
       </c>
       <c r="J81" s="3">
-        <v>328000</v>
+        <v>340400</v>
       </c>
       <c r="K81" s="3">
         <v>886300</v>
@@ -3467,25 +3467,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2881200</v>
+        <v>2989600</v>
       </c>
       <c r="E89" s="3">
-        <v>2342700</v>
+        <v>2430900</v>
       </c>
       <c r="F89" s="3">
-        <v>1905200</v>
+        <v>1976900</v>
       </c>
       <c r="G89" s="3">
-        <v>2115600</v>
+        <v>2195200</v>
       </c>
       <c r="H89" s="3">
-        <v>2084800</v>
+        <v>2163300</v>
       </c>
       <c r="I89" s="3">
-        <v>2001700</v>
+        <v>2077100</v>
       </c>
       <c r="J89" s="3">
-        <v>1685800</v>
+        <v>1749300</v>
       </c>
       <c r="K89" s="3">
         <v>2792900</v>
@@ -3521,25 +3521,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2832000</v>
+        <v>-2938700</v>
       </c>
       <c r="E91" s="3">
-        <v>-1560300</v>
+        <v>-1619000</v>
       </c>
       <c r="F91" s="3">
-        <v>-1922200</v>
+        <v>-1994600</v>
       </c>
       <c r="G91" s="3">
-        <v>-962900</v>
+        <v>-999100</v>
       </c>
       <c r="H91" s="3">
-        <v>-2143500</v>
+        <v>-2224200</v>
       </c>
       <c r="I91" s="3">
-        <v>-1467200</v>
+        <v>-1522400</v>
       </c>
       <c r="J91" s="3">
-        <v>-1795400</v>
+        <v>-1863000</v>
       </c>
       <c r="K91" s="3">
         <v>-1049900</v>
@@ -3635,25 +3635,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2663800</v>
+        <v>-2764100</v>
       </c>
       <c r="E94" s="3">
-        <v>-1399800</v>
+        <v>-1452500</v>
       </c>
       <c r="F94" s="3">
-        <v>-1997500</v>
+        <v>-2072700</v>
       </c>
       <c r="G94" s="3">
-        <v>-854300</v>
+        <v>-886500</v>
       </c>
       <c r="H94" s="3">
-        <v>-1606700</v>
+        <v>-1667200</v>
       </c>
       <c r="I94" s="3">
-        <v>-2836900</v>
+        <v>-2943700</v>
       </c>
       <c r="J94" s="3">
-        <v>-1516000</v>
+        <v>-1573100</v>
       </c>
       <c r="K94" s="3">
         <v>-978300</v>
@@ -3689,22 +3689,22 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-65800</v>
+        <v>-68300</v>
       </c>
       <c r="E96" s="3">
-        <v>-153900</v>
+        <v>-159700</v>
       </c>
       <c r="F96" s="3">
-        <v>-60800</v>
+        <v>-63100</v>
       </c>
       <c r="G96" s="3">
-        <v>-151900</v>
+        <v>-157700</v>
       </c>
       <c r="H96" s="3">
-        <v>-183100</v>
+        <v>-190000</v>
       </c>
       <c r="I96" s="3">
-        <v>-426200</v>
+        <v>-442200</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -3841,25 +3841,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-304400</v>
+        <v>-315900</v>
       </c>
       <c r="E100" s="3">
-        <v>-1281100</v>
+        <v>-1329300</v>
       </c>
       <c r="F100" s="3">
-        <v>-20800</v>
+        <v>-21600</v>
       </c>
       <c r="G100" s="3">
-        <v>-293100</v>
+        <v>-304200</v>
       </c>
       <c r="H100" s="3">
-        <v>-875500</v>
+        <v>-908500</v>
       </c>
       <c r="I100" s="3">
-        <v>1437200</v>
+        <v>1491300</v>
       </c>
       <c r="J100" s="3">
-        <v>-313900</v>
+        <v>-325700</v>
       </c>
       <c r="K100" s="3">
         <v>-1629800</v>
@@ -3879,25 +3879,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>15300</v>
+        <v>15900</v>
       </c>
       <c r="E101" s="3">
-        <v>-6400</v>
+        <v>-6600</v>
       </c>
       <c r="F101" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="G101" s="3">
         <v>-1400</v>
       </c>
       <c r="H101" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="I101" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="J101" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="K101" s="3">
         <v>13200</v>
@@ -3917,25 +3917,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-71700</v>
+        <v>-74400</v>
       </c>
       <c r="E102" s="3">
-        <v>-344600</v>
+        <v>-357500</v>
       </c>
       <c r="F102" s="3">
-        <v>-108000</v>
+        <v>-112100</v>
       </c>
       <c r="G102" s="3">
-        <v>966700</v>
+        <v>1003100</v>
       </c>
       <c r="H102" s="3">
-        <v>-399200</v>
+        <v>-414200</v>
       </c>
       <c r="I102" s="3">
-        <v>605200</v>
+        <v>628000</v>
       </c>
       <c r="J102" s="3">
-        <v>-146700</v>
+        <v>-152300</v>
       </c>
       <c r="K102" s="3">
         <v>198100</v>

--- a/AAII_Financials/Quarterly/HNP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HNP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>HNP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,183 +665,196 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42551</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42369</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42185</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12997600</v>
+        <v>11901800</v>
       </c>
       <c r="E8" s="3">
-        <v>12007500</v>
+        <v>13614300</v>
       </c>
       <c r="F8" s="3">
-        <v>12523600</v>
+        <v>12577200</v>
       </c>
       <c r="G8" s="3">
-        <v>11840400</v>
+        <v>13117700</v>
       </c>
       <c r="H8" s="3">
-        <v>11661700</v>
+        <v>12402200</v>
       </c>
       <c r="I8" s="3">
-        <v>10280100</v>
+        <v>12214900</v>
       </c>
       <c r="J8" s="3">
+        <v>10767800</v>
+      </c>
+      <c r="K8" s="3">
         <v>8738400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7528000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9357600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9601400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8777800</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8147000</v>
+        <v>6818900</v>
       </c>
       <c r="E9" s="3">
-        <v>7457100</v>
+        <v>8533500</v>
       </c>
       <c r="F9" s="3">
-        <v>8610600</v>
+        <v>7810900</v>
       </c>
       <c r="G9" s="3">
-        <v>8062900</v>
+        <v>9019100</v>
       </c>
       <c r="H9" s="3">
-        <v>7747800</v>
+        <v>8445500</v>
       </c>
       <c r="I9" s="3">
-        <v>6901900</v>
+        <v>8115400</v>
       </c>
       <c r="J9" s="3">
+        <v>7229300</v>
+      </c>
+      <c r="K9" s="3">
         <v>5505300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3747700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4869000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5130900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5071300</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4850600</v>
+        <v>5082900</v>
       </c>
       <c r="E10" s="3">
-        <v>4550400</v>
+        <v>5080700</v>
       </c>
       <c r="F10" s="3">
-        <v>3913000</v>
+        <v>4766300</v>
       </c>
       <c r="G10" s="3">
-        <v>3777500</v>
+        <v>4098600</v>
       </c>
       <c r="H10" s="3">
-        <v>3913900</v>
+        <v>3956700</v>
       </c>
       <c r="I10" s="3">
-        <v>3378300</v>
+        <v>4099600</v>
       </c>
       <c r="J10" s="3">
+        <v>3538500</v>
+      </c>
+      <c r="K10" s="3">
         <v>3233100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3780300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4488500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4470500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3706500</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -856,8 +869,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +908,11 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -932,8 +949,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -970,46 +990,52 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1622600</v>
+        <v>1649400</v>
       </c>
       <c r="E15" s="3">
-        <v>1552800</v>
+        <v>1699600</v>
       </c>
       <c r="F15" s="3">
-        <v>1502100</v>
+        <v>1626500</v>
       </c>
       <c r="G15" s="3">
-        <v>1470200</v>
+        <v>1573400</v>
       </c>
       <c r="H15" s="3">
-        <v>1457200</v>
+        <v>1540000</v>
       </c>
       <c r="I15" s="3">
-        <v>1473600</v>
+        <v>1526400</v>
       </c>
       <c r="J15" s="3">
+        <v>1543500</v>
+      </c>
+      <c r="K15" s="3">
         <v>1074100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1064600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1086400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1052400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>851300</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,84 +1047,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12721500</v>
+        <v>10011300</v>
       </c>
       <c r="E17" s="3">
-        <v>10486000</v>
+        <v>13325100</v>
       </c>
       <c r="F17" s="3">
-        <v>12174600</v>
+        <v>10983500</v>
       </c>
       <c r="G17" s="3">
-        <v>10720500</v>
+        <v>12752200</v>
       </c>
       <c r="H17" s="3">
-        <v>11063900</v>
+        <v>11229100</v>
       </c>
       <c r="I17" s="3">
-        <v>9544200</v>
+        <v>11588700</v>
       </c>
       <c r="J17" s="3">
+        <v>9997000</v>
+      </c>
+      <c r="K17" s="3">
         <v>7919400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5700300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7631500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7002300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7198900</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>276100</v>
+        <v>1890600</v>
       </c>
       <c r="E18" s="3">
-        <v>1521500</v>
+        <v>289200</v>
       </c>
       <c r="F18" s="3">
-        <v>349000</v>
+        <v>1593700</v>
       </c>
       <c r="G18" s="3">
-        <v>1119900</v>
+        <v>365600</v>
       </c>
       <c r="H18" s="3">
-        <v>597800</v>
+        <v>1173000</v>
       </c>
       <c r="I18" s="3">
-        <v>735900</v>
+        <v>626200</v>
       </c>
       <c r="J18" s="3">
+        <v>770800</v>
+      </c>
+      <c r="K18" s="3">
         <v>819000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1827700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1726000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2599100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1578900</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1113,198 +1146,214 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>107500</v>
+        <v>155500</v>
       </c>
       <c r="E20" s="3">
-        <v>111000</v>
+        <v>112600</v>
       </c>
       <c r="F20" s="3">
-        <v>277500</v>
+        <v>116200</v>
       </c>
       <c r="G20" s="3">
-        <v>63100</v>
+        <v>290700</v>
       </c>
       <c r="H20" s="3">
-        <v>428700</v>
+        <v>66100</v>
       </c>
       <c r="I20" s="3">
-        <v>60400</v>
+        <v>449000</v>
       </c>
       <c r="J20" s="3">
+        <v>63200</v>
+      </c>
+      <c r="K20" s="3">
         <v>232800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>93300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>98900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>162400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>111900</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>458300</v>
+        <v>3703900</v>
       </c>
       <c r="E21" s="3">
-        <v>3190300</v>
+        <v>480000</v>
       </c>
       <c r="F21" s="3">
-        <v>658100</v>
+        <v>3341600</v>
       </c>
       <c r="G21" s="3">
-        <v>2661000</v>
+        <v>689300</v>
       </c>
       <c r="H21" s="3">
-        <v>1008100</v>
+        <v>2787300</v>
       </c>
       <c r="I21" s="3">
-        <v>2279100</v>
+        <v>1055900</v>
       </c>
       <c r="J21" s="3">
+        <v>2387300</v>
+      </c>
+      <c r="K21" s="3">
         <v>1048200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2985600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1859900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3813800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1699700</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>764500</v>
+        <v>738400</v>
       </c>
       <c r="E22" s="3">
-        <v>798600</v>
+        <v>800800</v>
       </c>
       <c r="F22" s="3">
-        <v>776600</v>
+        <v>836400</v>
       </c>
       <c r="G22" s="3">
-        <v>746300</v>
+        <v>813500</v>
       </c>
       <c r="H22" s="3">
-        <v>738700</v>
+        <v>781700</v>
       </c>
       <c r="I22" s="3">
-        <v>677200</v>
+        <v>773700</v>
       </c>
       <c r="J22" s="3">
+        <v>709300</v>
+      </c>
+      <c r="K22" s="3">
         <v>499300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>484900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>572600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>606700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>594400</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-380900</v>
+        <v>1307600</v>
       </c>
       <c r="E23" s="3">
-        <v>833900</v>
+        <v>-398900</v>
       </c>
       <c r="F23" s="3">
-        <v>-150100</v>
+        <v>873500</v>
       </c>
       <c r="G23" s="3">
-        <v>436600</v>
+        <v>-157200</v>
       </c>
       <c r="H23" s="3">
-        <v>287800</v>
+        <v>457400</v>
       </c>
       <c r="I23" s="3">
-        <v>119100</v>
+        <v>301500</v>
       </c>
       <c r="J23" s="3">
+        <v>124700</v>
+      </c>
+      <c r="K23" s="3">
         <v>552400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1436100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1252400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2154800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1096400</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>96500</v>
+        <v>288300</v>
       </c>
       <c r="E24" s="3">
-        <v>195600</v>
+        <v>101100</v>
       </c>
       <c r="F24" s="3">
-        <v>-14700</v>
+        <v>204800</v>
       </c>
       <c r="G24" s="3">
-        <v>108100</v>
+        <v>-15400</v>
       </c>
       <c r="H24" s="3">
-        <v>107300</v>
+        <v>113300</v>
       </c>
       <c r="I24" s="3">
-        <v>69500</v>
+        <v>112400</v>
       </c>
       <c r="J24" s="3">
+        <v>72800</v>
+      </c>
+      <c r="K24" s="3">
         <v>152700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>346400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>319300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>526500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>348700</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1341,84 +1390,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-477400</v>
+        <v>1019300</v>
       </c>
       <c r="E26" s="3">
-        <v>638300</v>
+        <v>-500000</v>
       </c>
       <c r="F26" s="3">
-        <v>-135400</v>
+        <v>668600</v>
       </c>
       <c r="G26" s="3">
-        <v>328500</v>
+        <v>-141800</v>
       </c>
       <c r="H26" s="3">
-        <v>180500</v>
+        <v>344100</v>
       </c>
       <c r="I26" s="3">
-        <v>49500</v>
+        <v>189100</v>
       </c>
       <c r="J26" s="3">
+        <v>51900</v>
+      </c>
+      <c r="K26" s="3">
         <v>399800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1089800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>933100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1628300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>747700</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-448600</v>
+        <v>716500</v>
       </c>
       <c r="E27" s="3">
-        <v>460300</v>
+        <v>-469900</v>
       </c>
       <c r="F27" s="3">
-        <v>-194500</v>
+        <v>482100</v>
       </c>
       <c r="G27" s="3">
-        <v>251400</v>
+        <v>-203700</v>
       </c>
       <c r="H27" s="3">
-        <v>184000</v>
+        <v>263400</v>
       </c>
       <c r="I27" s="3">
-        <v>35400</v>
+        <v>192800</v>
       </c>
       <c r="J27" s="3">
+        <v>37100</v>
+      </c>
+      <c r="K27" s="3">
         <v>340400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>886300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>697700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1328400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>574300</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1455,8 +1513,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1493,8 +1554,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1531,8 +1595,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1569,84 +1636,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-107500</v>
+        <v>-155500</v>
       </c>
       <c r="E32" s="3">
-        <v>-111000</v>
+        <v>-112600</v>
       </c>
       <c r="F32" s="3">
-        <v>-277500</v>
+        <v>-116200</v>
       </c>
       <c r="G32" s="3">
-        <v>-63100</v>
+        <v>-290700</v>
       </c>
       <c r="H32" s="3">
-        <v>-428700</v>
+        <v>-66100</v>
       </c>
       <c r="I32" s="3">
-        <v>-60400</v>
+        <v>-449000</v>
       </c>
       <c r="J32" s="3">
+        <v>-63200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-232800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-93300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-98900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-162400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-111900</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-448600</v>
+        <v>716500</v>
       </c>
       <c r="E33" s="3">
-        <v>460300</v>
+        <v>-469900</v>
       </c>
       <c r="F33" s="3">
-        <v>-194500</v>
+        <v>482100</v>
       </c>
       <c r="G33" s="3">
-        <v>251400</v>
+        <v>-203700</v>
       </c>
       <c r="H33" s="3">
-        <v>184000</v>
+        <v>263400</v>
       </c>
       <c r="I33" s="3">
-        <v>35400</v>
+        <v>192800</v>
       </c>
       <c r="J33" s="3">
+        <v>37100</v>
+      </c>
+      <c r="K33" s="3">
         <v>340400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>886300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>697700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1328400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>574300</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1683,89 +1759,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-448600</v>
+        <v>716500</v>
       </c>
       <c r="E35" s="3">
-        <v>460300</v>
+        <v>-469900</v>
       </c>
       <c r="F35" s="3">
-        <v>-194500</v>
+        <v>482100</v>
       </c>
       <c r="G35" s="3">
-        <v>251400</v>
+        <v>-203700</v>
       </c>
       <c r="H35" s="3">
-        <v>184000</v>
+        <v>263400</v>
       </c>
       <c r="I35" s="3">
-        <v>35400</v>
+        <v>192800</v>
       </c>
       <c r="J35" s="3">
+        <v>37100</v>
+      </c>
+      <c r="K35" s="3">
         <v>340400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>886300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>697700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1328400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>574300</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42551</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42369</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42185</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1780,8 +1865,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1796,66 +1882,70 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1807100</v>
+        <v>2267900</v>
       </c>
       <c r="E41" s="3">
-        <v>1880000</v>
+        <v>1892900</v>
       </c>
       <c r="F41" s="3">
-        <v>2236900</v>
+        <v>1969100</v>
       </c>
       <c r="G41" s="3">
-        <v>2351200</v>
+        <v>2343000</v>
       </c>
       <c r="H41" s="3">
-        <v>1348100</v>
+        <v>2462700</v>
       </c>
       <c r="I41" s="3">
-        <v>1761000</v>
+        <v>1412000</v>
       </c>
       <c r="J41" s="3">
+        <v>1844500</v>
+      </c>
+      <c r="K41" s="3">
         <v>1134300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1271100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1109800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1482900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1779800</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>66500</v>
+        <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>64000</v>
+        <v>69600</v>
       </c>
       <c r="F42" s="3">
-        <v>80000</v>
+        <v>67000</v>
       </c>
       <c r="G42" s="3">
-        <v>0</v>
+        <v>83800</v>
       </c>
       <c r="H42" s="3">
-        <v>89300</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>93600</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
@@ -1872,274 +1962,298 @@
       <c r="N42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5358200</v>
+        <v>6176200</v>
       </c>
       <c r="E43" s="3">
-        <v>4750700</v>
+        <v>5612400</v>
       </c>
       <c r="F43" s="3">
-        <v>4908700</v>
+        <v>4976100</v>
       </c>
       <c r="G43" s="3">
-        <v>4245200</v>
+        <v>5141600</v>
       </c>
       <c r="H43" s="3">
-        <v>4385100</v>
+        <v>4446600</v>
       </c>
       <c r="I43" s="3">
-        <v>3660400</v>
+        <v>4593100</v>
       </c>
       <c r="J43" s="3">
+        <v>3834000</v>
+      </c>
+      <c r="K43" s="3">
         <v>2937000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2173600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2846100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2479300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2660500</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1290100</v>
+        <v>1222600</v>
       </c>
       <c r="E44" s="3">
-        <v>1491600</v>
+        <v>1351300</v>
       </c>
       <c r="F44" s="3">
-        <v>1386000</v>
+        <v>1562300</v>
       </c>
       <c r="G44" s="3">
-        <v>1299900</v>
+        <v>1451800</v>
       </c>
       <c r="H44" s="3">
-        <v>1072600</v>
+        <v>1361500</v>
       </c>
       <c r="I44" s="3">
-        <v>1219700</v>
+        <v>1123500</v>
       </c>
       <c r="J44" s="3">
+        <v>1277500</v>
+      </c>
+      <c r="K44" s="3">
         <v>999100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>765400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>804800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>898500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>974700</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>305300</v>
+        <v>364800</v>
       </c>
       <c r="E45" s="3">
-        <v>548800</v>
+        <v>319800</v>
       </c>
       <c r="F45" s="3">
-        <v>363400</v>
+        <v>574900</v>
       </c>
       <c r="G45" s="3">
-        <v>263700</v>
+        <v>380700</v>
       </c>
       <c r="H45" s="3">
-        <v>154100</v>
+        <v>276200</v>
       </c>
       <c r="I45" s="3">
-        <v>697800</v>
+        <v>161400</v>
       </c>
       <c r="J45" s="3">
+        <v>731000</v>
+      </c>
+      <c r="K45" s="3">
         <v>298300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>252200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>220700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>234800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>91800</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8827300</v>
+        <v>10031500</v>
       </c>
       <c r="E46" s="3">
-        <v>8735100</v>
+        <v>9246100</v>
       </c>
       <c r="F46" s="3">
-        <v>8975100</v>
+        <v>9149500</v>
       </c>
       <c r="G46" s="3">
-        <v>8159900</v>
+        <v>9400900</v>
       </c>
       <c r="H46" s="3">
-        <v>7049100</v>
+        <v>8547000</v>
       </c>
       <c r="I46" s="3">
-        <v>7338900</v>
+        <v>7383600</v>
       </c>
       <c r="J46" s="3">
+        <v>7687000</v>
+      </c>
+      <c r="K46" s="3">
         <v>5368700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4462300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4981400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5095500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5506700</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5265300</v>
+        <v>5730100</v>
       </c>
       <c r="E47" s="3">
-        <v>5359000</v>
+        <v>5515100</v>
       </c>
       <c r="F47" s="3">
-        <v>5253200</v>
+        <v>5613200</v>
       </c>
       <c r="G47" s="3">
-        <v>3662800</v>
+        <v>5502400</v>
       </c>
       <c r="H47" s="3">
-        <v>3590900</v>
+        <v>3836600</v>
       </c>
       <c r="I47" s="3">
-        <v>3853000</v>
+        <v>3761300</v>
       </c>
       <c r="J47" s="3">
+        <v>4035800</v>
+      </c>
+      <c r="K47" s="3">
         <v>3667500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3938500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4006200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3852800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3412900</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>44071900</v>
+        <v>46906700</v>
       </c>
       <c r="E48" s="3">
-        <v>42353500</v>
+        <v>46162700</v>
       </c>
       <c r="F48" s="3">
-        <v>40997500</v>
+        <v>44362900</v>
       </c>
       <c r="G48" s="3">
-        <v>40525300</v>
+        <v>42942500</v>
       </c>
       <c r="H48" s="3">
-        <v>41324500</v>
+        <v>42447900</v>
       </c>
       <c r="I48" s="3">
-        <v>41393300</v>
+        <v>43285100</v>
       </c>
       <c r="J48" s="3">
+        <v>43357100</v>
+      </c>
+      <c r="K48" s="3">
         <v>32395300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>31397500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>32601700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>32015300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>27396000</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3259900</v>
+        <v>3352300</v>
       </c>
       <c r="E49" s="3">
-        <v>3157200</v>
+        <v>3414600</v>
       </c>
       <c r="F49" s="3">
-        <v>4828500</v>
+        <v>3307000</v>
       </c>
       <c r="G49" s="3">
-        <v>4762400</v>
+        <v>5057500</v>
       </c>
       <c r="H49" s="3">
-        <v>4793900</v>
+        <v>4988300</v>
       </c>
       <c r="I49" s="3">
-        <v>4828900</v>
+        <v>5021400</v>
       </c>
       <c r="J49" s="3">
+        <v>5057900</v>
+      </c>
+      <c r="K49" s="3">
         <v>3848400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2643700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2590300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2854700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3312200</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2176,8 +2290,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2214,46 +2331,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>770300</v>
+        <v>813500</v>
       </c>
       <c r="E52" s="3">
-        <v>1027900</v>
+        <v>806900</v>
       </c>
       <c r="F52" s="3">
-        <v>928300</v>
+        <v>1076700</v>
       </c>
       <c r="G52" s="3">
-        <v>805400</v>
+        <v>972300</v>
       </c>
       <c r="H52" s="3">
-        <v>838100</v>
+        <v>843600</v>
       </c>
       <c r="I52" s="3">
-        <v>550900</v>
+        <v>877900</v>
       </c>
       <c r="J52" s="3">
+        <v>577100</v>
+      </c>
+      <c r="K52" s="3">
         <v>444300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1621700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1659200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1540400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>390400</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2290,46 +2413,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>62194800</v>
+        <v>66834200</v>
       </c>
       <c r="E54" s="3">
-        <v>60632700</v>
+        <v>65145400</v>
       </c>
       <c r="F54" s="3">
-        <v>60982600</v>
+        <v>63509200</v>
       </c>
       <c r="G54" s="3">
-        <v>57915700</v>
+        <v>63875700</v>
       </c>
       <c r="H54" s="3">
-        <v>57596700</v>
+        <v>60663300</v>
       </c>
       <c r="I54" s="3">
-        <v>57965000</v>
+        <v>60329200</v>
       </c>
       <c r="J54" s="3">
+        <v>60714900</v>
+      </c>
+      <c r="K54" s="3">
         <v>45724200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>44063700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>45838900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>45358600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>40018200</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2344,8 +2473,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2360,236 +2490,255 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2302000</v>
+        <v>2216600</v>
       </c>
       <c r="E57" s="3">
-        <v>2107300</v>
+        <v>2411200</v>
       </c>
       <c r="F57" s="3">
-        <v>2132500</v>
+        <v>2207300</v>
       </c>
       <c r="G57" s="3">
-        <v>2325600</v>
+        <v>2233700</v>
       </c>
       <c r="H57" s="3">
-        <v>2250600</v>
+        <v>2435900</v>
       </c>
       <c r="I57" s="3">
-        <v>2337100</v>
+        <v>2357300</v>
       </c>
       <c r="J57" s="3">
+        <v>2448000</v>
+      </c>
+      <c r="K57" s="3">
         <v>4113700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3372500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3813800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3809400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3639800</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>14237700</v>
+        <v>14128600</v>
       </c>
       <c r="E58" s="3">
-        <v>16121100</v>
+        <v>14913200</v>
       </c>
       <c r="F58" s="3">
-        <v>14115600</v>
+        <v>16885900</v>
       </c>
       <c r="G58" s="3">
-        <v>14787000</v>
+        <v>14785200</v>
       </c>
       <c r="H58" s="3">
-        <v>16471300</v>
+        <v>15488500</v>
       </c>
       <c r="I58" s="3">
-        <v>18304600</v>
+        <v>17252700</v>
       </c>
       <c r="J58" s="3">
+        <v>19173000</v>
+      </c>
+      <c r="K58" s="3">
         <v>14208700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>11625600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>13811500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>13072400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>10789000</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4027800</v>
+        <v>4362500</v>
       </c>
       <c r="E59" s="3">
-        <v>3171300</v>
+        <v>4218900</v>
       </c>
       <c r="F59" s="3">
-        <v>3823600</v>
+        <v>3321800</v>
       </c>
       <c r="G59" s="3">
-        <v>3405000</v>
+        <v>4005000</v>
       </c>
       <c r="H59" s="3">
-        <v>3926800</v>
+        <v>3566600</v>
       </c>
       <c r="I59" s="3">
-        <v>3974400</v>
+        <v>4113100</v>
       </c>
       <c r="J59" s="3">
+        <v>4162900</v>
+      </c>
+      <c r="K59" s="3">
         <v>586100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1605700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>753300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1505300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>819000</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>20567500</v>
+        <v>20707700</v>
       </c>
       <c r="E60" s="3">
-        <v>21399700</v>
+        <v>21543300</v>
       </c>
       <c r="F60" s="3">
-        <v>20071700</v>
+        <v>22415000</v>
       </c>
       <c r="G60" s="3">
-        <v>20517600</v>
+        <v>21023900</v>
       </c>
       <c r="H60" s="3">
-        <v>22648700</v>
+        <v>21491000</v>
       </c>
       <c r="I60" s="3">
-        <v>24616100</v>
+        <v>23723200</v>
       </c>
       <c r="J60" s="3">
+        <v>25783900</v>
+      </c>
+      <c r="K60" s="3">
         <v>18908400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>16603700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>18378600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>18387100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>15247800</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>21513200</v>
+        <v>22098000</v>
       </c>
       <c r="E61" s="3">
-        <v>20655900</v>
+        <v>22533800</v>
       </c>
       <c r="F61" s="3">
-        <v>22750100</v>
+        <v>21635800</v>
       </c>
       <c r="G61" s="3">
-        <v>20344900</v>
+        <v>23829400</v>
       </c>
       <c r="H61" s="3">
-        <v>18030900</v>
+        <v>21310100</v>
       </c>
       <c r="I61" s="3">
-        <v>16885700</v>
+        <v>18886300</v>
       </c>
       <c r="J61" s="3">
+        <v>17686700</v>
+      </c>
+      <c r="K61" s="3">
         <v>11283400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>12014200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>11604600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>12603500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>11917700</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1179100</v>
+        <v>1206200</v>
       </c>
       <c r="E62" s="3">
-        <v>1280100</v>
+        <v>1235100</v>
       </c>
       <c r="F62" s="3">
-        <v>1296400</v>
+        <v>1340900</v>
       </c>
       <c r="G62" s="3">
-        <v>1258800</v>
+        <v>1357900</v>
       </c>
       <c r="H62" s="3">
-        <v>1288300</v>
+        <v>1318600</v>
       </c>
       <c r="I62" s="3">
-        <v>1291000</v>
+        <v>1349400</v>
       </c>
       <c r="J62" s="3">
+        <v>1352200</v>
+      </c>
+      <c r="K62" s="3">
         <v>691800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>749600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>763300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>734100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>522800</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2626,8 +2775,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2664,8 +2816,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2702,46 +2857,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>46393200</v>
+        <v>47485300</v>
       </c>
       <c r="E66" s="3">
-        <v>46551800</v>
+        <v>48594200</v>
       </c>
       <c r="F66" s="3">
-        <v>47267700</v>
+        <v>48760300</v>
       </c>
       <c r="G66" s="3">
-        <v>45166700</v>
+        <v>49510200</v>
       </c>
       <c r="H66" s="3">
-        <v>44868500</v>
+        <v>47309500</v>
       </c>
       <c r="I66" s="3">
-        <v>46031800</v>
+        <v>46997200</v>
       </c>
       <c r="J66" s="3">
+        <v>48215600</v>
+      </c>
+      <c r="K66" s="3">
         <v>33234000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>31986500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>33351300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>34266300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>29819300</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2756,8 +2917,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2794,8 +2956,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2832,8 +2997,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2870,8 +3038,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2908,46 +3079,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6219100</v>
+        <v>6908400</v>
       </c>
       <c r="E72" s="3">
-        <v>6583800</v>
+        <v>6514200</v>
       </c>
       <c r="F72" s="3">
-        <v>6351400</v>
+        <v>6896200</v>
       </c>
       <c r="G72" s="3">
-        <v>6541300</v>
+        <v>6652800</v>
       </c>
       <c r="H72" s="3">
-        <v>6541900</v>
+        <v>6851600</v>
       </c>
       <c r="I72" s="3">
-        <v>6357800</v>
+        <v>6852200</v>
       </c>
       <c r="J72" s="3">
+        <v>6659400</v>
+      </c>
+      <c r="K72" s="3">
         <v>6962600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6542400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6910800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6213100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5583500</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2984,8 +3161,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3022,8 +3202,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3060,46 +3243,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15801600</v>
+        <v>19348900</v>
       </c>
       <c r="E76" s="3">
-        <v>14080900</v>
+        <v>16551200</v>
       </c>
       <c r="F76" s="3">
-        <v>13714900</v>
+        <v>14748900</v>
       </c>
       <c r="G76" s="3">
-        <v>12749000</v>
+        <v>14365500</v>
       </c>
       <c r="H76" s="3">
-        <v>12728200</v>
+        <v>13353800</v>
       </c>
       <c r="I76" s="3">
-        <v>11933200</v>
+        <v>13332000</v>
       </c>
       <c r="J76" s="3">
+        <v>12499300</v>
+      </c>
+      <c r="K76" s="3">
         <v>12490200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12077300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12487500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>11092300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10198900</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3136,89 +3325,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42551</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42369</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42185</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-448600</v>
+        <v>716500</v>
       </c>
       <c r="E81" s="3">
-        <v>460300</v>
+        <v>-469900</v>
       </c>
       <c r="F81" s="3">
-        <v>-194500</v>
+        <v>482100</v>
       </c>
       <c r="G81" s="3">
-        <v>251400</v>
+        <v>-203700</v>
       </c>
       <c r="H81" s="3">
-        <v>184000</v>
+        <v>263400</v>
       </c>
       <c r="I81" s="3">
-        <v>35400</v>
+        <v>192800</v>
       </c>
       <c r="J81" s="3">
+        <v>37100</v>
+      </c>
+      <c r="K81" s="3">
         <v>340400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>886300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>697700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1328400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>574300</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3233,8 +3431,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3271,8 +3470,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3309,8 +3511,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3347,8 +3552,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3385,8 +3593,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3423,8 +3634,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3461,46 +3675,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2989600</v>
+        <v>2408900</v>
       </c>
       <c r="E89" s="3">
-        <v>2430900</v>
+        <v>3131500</v>
       </c>
       <c r="F89" s="3">
-        <v>1976900</v>
+        <v>2546300</v>
       </c>
       <c r="G89" s="3">
-        <v>2195200</v>
+        <v>2070700</v>
       </c>
       <c r="H89" s="3">
-        <v>2163300</v>
+        <v>2299400</v>
       </c>
       <c r="I89" s="3">
-        <v>2077100</v>
+        <v>2265900</v>
       </c>
       <c r="J89" s="3">
+        <v>2175600</v>
+      </c>
+      <c r="K89" s="3">
         <v>1749300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2792900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2718000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3569000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2482700</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3515,46 +3735,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2938700</v>
+        <v>-2459700</v>
       </c>
       <c r="E91" s="3">
-        <v>-1619000</v>
+        <v>-3078100</v>
       </c>
       <c r="F91" s="3">
-        <v>-1994600</v>
+        <v>-1695800</v>
       </c>
       <c r="G91" s="3">
-        <v>-999100</v>
+        <v>-2089200</v>
       </c>
       <c r="H91" s="3">
-        <v>-2224200</v>
+        <v>-1046500</v>
       </c>
       <c r="I91" s="3">
-        <v>-1522400</v>
+        <v>-2329700</v>
       </c>
       <c r="J91" s="3">
+        <v>-1594700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1863000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1049900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1905100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1685200</v>
       </c>
-      <c r="N91" s="3" t="s">
+      <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3591,8 +3815,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3629,46 +3856,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2764100</v>
+        <v>-2410300</v>
       </c>
       <c r="E94" s="3">
-        <v>-1452500</v>
+        <v>-2895200</v>
       </c>
       <c r="F94" s="3">
-        <v>-2072700</v>
+        <v>-1521500</v>
       </c>
       <c r="G94" s="3">
-        <v>-886500</v>
+        <v>-2171000</v>
       </c>
       <c r="H94" s="3">
-        <v>-1667200</v>
+        <v>-928600</v>
       </c>
       <c r="I94" s="3">
-        <v>-2943700</v>
+        <v>-1746300</v>
       </c>
       <c r="J94" s="3">
+        <v>-3083400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1573100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-978300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1871500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3028300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1869600</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3683,31 +3916,32 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-68300</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-159700</v>
+        <v>-71500</v>
       </c>
       <c r="F96" s="3">
-        <v>-63100</v>
+        <v>-167300</v>
       </c>
       <c r="G96" s="3">
-        <v>-157700</v>
+        <v>-66100</v>
       </c>
       <c r="H96" s="3">
-        <v>-190000</v>
+        <v>-165200</v>
       </c>
       <c r="I96" s="3">
-        <v>-442200</v>
+        <v>-199000</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-463200</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -3721,8 +3955,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3759,8 +3996,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3797,8 +4037,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3835,118 +4078,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-315900</v>
+        <v>409100</v>
       </c>
       <c r="E100" s="3">
-        <v>-1329300</v>
+        <v>-330900</v>
       </c>
       <c r="F100" s="3">
-        <v>-21600</v>
+        <v>-1392400</v>
       </c>
       <c r="G100" s="3">
-        <v>-304200</v>
+        <v>-22600</v>
       </c>
       <c r="H100" s="3">
-        <v>-908500</v>
+        <v>-318600</v>
       </c>
       <c r="I100" s="3">
-        <v>1491300</v>
+        <v>-951600</v>
       </c>
       <c r="J100" s="3">
+        <v>1562100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-325700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1629800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1225200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-873400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-512800</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>15900</v>
+        <v>-32700</v>
       </c>
       <c r="E101" s="3">
-        <v>-6600</v>
+        <v>16600</v>
       </c>
       <c r="F101" s="3">
-        <v>5200</v>
+        <v>-6900</v>
       </c>
       <c r="G101" s="3">
-        <v>-1400</v>
+        <v>5500</v>
       </c>
       <c r="H101" s="3">
-        <v>-1800</v>
+        <v>-1500</v>
       </c>
       <c r="I101" s="3">
-        <v>3300</v>
+        <v>-1900</v>
       </c>
       <c r="J101" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-2800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>13200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>5500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-16200</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-74400</v>
+        <v>375000</v>
       </c>
       <c r="E102" s="3">
-        <v>-357500</v>
+        <v>-78000</v>
       </c>
       <c r="F102" s="3">
-        <v>-112100</v>
+        <v>-374500</v>
       </c>
       <c r="G102" s="3">
-        <v>1003100</v>
+        <v>-117400</v>
       </c>
       <c r="H102" s="3">
-        <v>-414200</v>
+        <v>1050700</v>
       </c>
       <c r="I102" s="3">
-        <v>628000</v>
+        <v>-433900</v>
       </c>
       <c r="J102" s="3">
+        <v>657800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-152300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>198100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-373100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-333400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>84100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HNP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HNP_QTR_FIN.xlsx
@@ -736,25 +736,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11901800</v>
+        <v>11953500</v>
       </c>
       <c r="E8" s="3">
-        <v>13614300</v>
+        <v>13673400</v>
       </c>
       <c r="F8" s="3">
-        <v>12577200</v>
+        <v>12631800</v>
       </c>
       <c r="G8" s="3">
-        <v>13117700</v>
+        <v>13174600</v>
       </c>
       <c r="H8" s="3">
-        <v>12402200</v>
+        <v>12456000</v>
       </c>
       <c r="I8" s="3">
-        <v>12214900</v>
+        <v>12267900</v>
       </c>
       <c r="J8" s="3">
-        <v>10767800</v>
+        <v>10814500</v>
       </c>
       <c r="K8" s="3">
         <v>8738400</v>
@@ -777,25 +777,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6818900</v>
+        <v>6848500</v>
       </c>
       <c r="E9" s="3">
-        <v>8533500</v>
+        <v>8570600</v>
       </c>
       <c r="F9" s="3">
-        <v>7810900</v>
+        <v>7844800</v>
       </c>
       <c r="G9" s="3">
-        <v>9019100</v>
+        <v>9058300</v>
       </c>
       <c r="H9" s="3">
-        <v>8445500</v>
+        <v>8482100</v>
       </c>
       <c r="I9" s="3">
-        <v>8115400</v>
+        <v>8150600</v>
       </c>
       <c r="J9" s="3">
-        <v>7229300</v>
+        <v>7260700</v>
       </c>
       <c r="K9" s="3">
         <v>5505300</v>
@@ -818,25 +818,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5082900</v>
+        <v>5105000</v>
       </c>
       <c r="E10" s="3">
-        <v>5080700</v>
+        <v>5102800</v>
       </c>
       <c r="F10" s="3">
-        <v>4766300</v>
+        <v>4787000</v>
       </c>
       <c r="G10" s="3">
-        <v>4098600</v>
+        <v>4116400</v>
       </c>
       <c r="H10" s="3">
-        <v>3956700</v>
+        <v>3973900</v>
       </c>
       <c r="I10" s="3">
-        <v>4099600</v>
+        <v>4117400</v>
       </c>
       <c r="J10" s="3">
-        <v>3538500</v>
+        <v>3553900</v>
       </c>
       <c r="K10" s="3">
         <v>3233100</v>
@@ -999,25 +999,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1649400</v>
+        <v>1656500</v>
       </c>
       <c r="E15" s="3">
-        <v>1699600</v>
+        <v>1707000</v>
       </c>
       <c r="F15" s="3">
-        <v>1626500</v>
+        <v>1633500</v>
       </c>
       <c r="G15" s="3">
-        <v>1573400</v>
+        <v>1580200</v>
       </c>
       <c r="H15" s="3">
-        <v>1540000</v>
+        <v>1546600</v>
       </c>
       <c r="I15" s="3">
-        <v>1526400</v>
+        <v>1533000</v>
       </c>
       <c r="J15" s="3">
-        <v>1543500</v>
+        <v>1550200</v>
       </c>
       <c r="K15" s="3">
         <v>1074100</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10011300</v>
+        <v>10054700</v>
       </c>
       <c r="E17" s="3">
-        <v>13325100</v>
+        <v>13382900</v>
       </c>
       <c r="F17" s="3">
-        <v>10983500</v>
+        <v>11031200</v>
       </c>
       <c r="G17" s="3">
-        <v>12752200</v>
+        <v>12807500</v>
       </c>
       <c r="H17" s="3">
-        <v>11229100</v>
+        <v>11277900</v>
       </c>
       <c r="I17" s="3">
-        <v>11588700</v>
+        <v>11639000</v>
       </c>
       <c r="J17" s="3">
-        <v>9997000</v>
+        <v>10040400</v>
       </c>
       <c r="K17" s="3">
         <v>7919400</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1890600</v>
+        <v>1898800</v>
       </c>
       <c r="E18" s="3">
-        <v>289200</v>
+        <v>290500</v>
       </c>
       <c r="F18" s="3">
-        <v>1593700</v>
+        <v>1600600</v>
       </c>
       <c r="G18" s="3">
-        <v>365600</v>
+        <v>367100</v>
       </c>
       <c r="H18" s="3">
-        <v>1173000</v>
+        <v>1178100</v>
       </c>
       <c r="I18" s="3">
-        <v>626200</v>
+        <v>628900</v>
       </c>
       <c r="J18" s="3">
-        <v>770800</v>
+        <v>774100</v>
       </c>
       <c r="K18" s="3">
         <v>819000</v>
@@ -1153,25 +1153,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>155500</v>
+        <v>156100</v>
       </c>
       <c r="E20" s="3">
-        <v>112600</v>
+        <v>113100</v>
       </c>
       <c r="F20" s="3">
-        <v>116200</v>
+        <v>116700</v>
       </c>
       <c r="G20" s="3">
-        <v>290700</v>
+        <v>292000</v>
       </c>
       <c r="H20" s="3">
-        <v>66100</v>
+        <v>66300</v>
       </c>
       <c r="I20" s="3">
-        <v>449000</v>
+        <v>451000</v>
       </c>
       <c r="J20" s="3">
-        <v>63200</v>
+        <v>63500</v>
       </c>
       <c r="K20" s="3">
         <v>232800</v>
@@ -1194,25 +1194,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3703900</v>
+        <v>3720000</v>
       </c>
       <c r="E21" s="3">
-        <v>480000</v>
+        <v>482100</v>
       </c>
       <c r="F21" s="3">
-        <v>3341600</v>
+        <v>3356100</v>
       </c>
       <c r="G21" s="3">
-        <v>689300</v>
+        <v>692300</v>
       </c>
       <c r="H21" s="3">
-        <v>2787300</v>
+        <v>2799400</v>
       </c>
       <c r="I21" s="3">
-        <v>1055900</v>
+        <v>1060500</v>
       </c>
       <c r="J21" s="3">
-        <v>2387300</v>
+        <v>2397600</v>
       </c>
       <c r="K21" s="3">
         <v>1048200</v>
@@ -1235,25 +1235,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>738400</v>
+        <v>741600</v>
       </c>
       <c r="E22" s="3">
-        <v>800800</v>
+        <v>804300</v>
       </c>
       <c r="F22" s="3">
-        <v>836400</v>
+        <v>840100</v>
       </c>
       <c r="G22" s="3">
-        <v>813500</v>
+        <v>817000</v>
       </c>
       <c r="H22" s="3">
-        <v>781700</v>
+        <v>785100</v>
       </c>
       <c r="I22" s="3">
-        <v>773700</v>
+        <v>777100</v>
       </c>
       <c r="J22" s="3">
-        <v>709300</v>
+        <v>712400</v>
       </c>
       <c r="K22" s="3">
         <v>499300</v>
@@ -1276,25 +1276,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1307600</v>
+        <v>1313300</v>
       </c>
       <c r="E23" s="3">
-        <v>-398900</v>
+        <v>-400700</v>
       </c>
       <c r="F23" s="3">
-        <v>873500</v>
+        <v>877200</v>
       </c>
       <c r="G23" s="3">
-        <v>-157200</v>
+        <v>-157900</v>
       </c>
       <c r="H23" s="3">
-        <v>457400</v>
+        <v>459300</v>
       </c>
       <c r="I23" s="3">
-        <v>301500</v>
+        <v>302800</v>
       </c>
       <c r="J23" s="3">
-        <v>124700</v>
+        <v>125300</v>
       </c>
       <c r="K23" s="3">
         <v>552400</v>
@@ -1317,25 +1317,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>288300</v>
+        <v>289600</v>
       </c>
       <c r="E24" s="3">
-        <v>101100</v>
+        <v>101600</v>
       </c>
       <c r="F24" s="3">
-        <v>204800</v>
+        <v>205700</v>
       </c>
       <c r="G24" s="3">
-        <v>-15400</v>
+        <v>-15500</v>
       </c>
       <c r="H24" s="3">
-        <v>113300</v>
+        <v>113800</v>
       </c>
       <c r="I24" s="3">
-        <v>112400</v>
+        <v>112900</v>
       </c>
       <c r="J24" s="3">
-        <v>72800</v>
+        <v>73200</v>
       </c>
       <c r="K24" s="3">
         <v>152700</v>
@@ -1399,25 +1399,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1019300</v>
+        <v>1023700</v>
       </c>
       <c r="E26" s="3">
-        <v>-500000</v>
+        <v>-502200</v>
       </c>
       <c r="F26" s="3">
-        <v>668600</v>
+        <v>671500</v>
       </c>
       <c r="G26" s="3">
-        <v>-141800</v>
+        <v>-142400</v>
       </c>
       <c r="H26" s="3">
-        <v>344100</v>
+        <v>345600</v>
       </c>
       <c r="I26" s="3">
-        <v>189100</v>
+        <v>189900</v>
       </c>
       <c r="J26" s="3">
-        <v>51900</v>
+        <v>52100</v>
       </c>
       <c r="K26" s="3">
         <v>399800</v>
@@ -1440,25 +1440,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>716500</v>
+        <v>719600</v>
       </c>
       <c r="E27" s="3">
-        <v>-469900</v>
+        <v>-471900</v>
       </c>
       <c r="F27" s="3">
-        <v>482100</v>
+        <v>484200</v>
       </c>
       <c r="G27" s="3">
-        <v>-203700</v>
+        <v>-204600</v>
       </c>
       <c r="H27" s="3">
-        <v>263400</v>
+        <v>264500</v>
       </c>
       <c r="I27" s="3">
-        <v>192800</v>
+        <v>193600</v>
       </c>
       <c r="J27" s="3">
-        <v>37100</v>
+        <v>37300</v>
       </c>
       <c r="K27" s="3">
         <v>340400</v>
@@ -1645,25 +1645,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-155500</v>
+        <v>-156100</v>
       </c>
       <c r="E32" s="3">
-        <v>-112600</v>
+        <v>-113100</v>
       </c>
       <c r="F32" s="3">
-        <v>-116200</v>
+        <v>-116700</v>
       </c>
       <c r="G32" s="3">
-        <v>-290700</v>
+        <v>-292000</v>
       </c>
       <c r="H32" s="3">
-        <v>-66100</v>
+        <v>-66300</v>
       </c>
       <c r="I32" s="3">
-        <v>-449000</v>
+        <v>-451000</v>
       </c>
       <c r="J32" s="3">
-        <v>-63200</v>
+        <v>-63500</v>
       </c>
       <c r="K32" s="3">
         <v>-232800</v>
@@ -1686,25 +1686,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>716500</v>
+        <v>719600</v>
       </c>
       <c r="E33" s="3">
-        <v>-469900</v>
+        <v>-471900</v>
       </c>
       <c r="F33" s="3">
-        <v>482100</v>
+        <v>484200</v>
       </c>
       <c r="G33" s="3">
-        <v>-203700</v>
+        <v>-204600</v>
       </c>
       <c r="H33" s="3">
-        <v>263400</v>
+        <v>264500</v>
       </c>
       <c r="I33" s="3">
-        <v>192800</v>
+        <v>193600</v>
       </c>
       <c r="J33" s="3">
-        <v>37100</v>
+        <v>37300</v>
       </c>
       <c r="K33" s="3">
         <v>340400</v>
@@ -1768,25 +1768,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>716500</v>
+        <v>719600</v>
       </c>
       <c r="E35" s="3">
-        <v>-469900</v>
+        <v>-471900</v>
       </c>
       <c r="F35" s="3">
-        <v>482100</v>
+        <v>484200</v>
       </c>
       <c r="G35" s="3">
-        <v>-203700</v>
+        <v>-204600</v>
       </c>
       <c r="H35" s="3">
-        <v>263400</v>
+        <v>264500</v>
       </c>
       <c r="I35" s="3">
-        <v>192800</v>
+        <v>193600</v>
       </c>
       <c r="J35" s="3">
-        <v>37100</v>
+        <v>37300</v>
       </c>
       <c r="K35" s="3">
         <v>340400</v>
@@ -1889,25 +1889,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2267900</v>
+        <v>2277700</v>
       </c>
       <c r="E41" s="3">
-        <v>1892900</v>
+        <v>1901100</v>
       </c>
       <c r="F41" s="3">
-        <v>1969100</v>
+        <v>1977700</v>
       </c>
       <c r="G41" s="3">
-        <v>2343000</v>
+        <v>2353200</v>
       </c>
       <c r="H41" s="3">
-        <v>2462700</v>
+        <v>2473400</v>
       </c>
       <c r="I41" s="3">
-        <v>1412000</v>
+        <v>1418200</v>
       </c>
       <c r="J41" s="3">
-        <v>1844500</v>
+        <v>1852500</v>
       </c>
       <c r="K41" s="3">
         <v>1134300</v>
@@ -1933,19 +1933,19 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>69600</v>
+        <v>69900</v>
       </c>
       <c r="F42" s="3">
-        <v>67000</v>
+        <v>67300</v>
       </c>
       <c r="G42" s="3">
-        <v>83800</v>
+        <v>84200</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>93600</v>
+        <v>94000</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
@@ -1971,25 +1971,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6176200</v>
+        <v>6203000</v>
       </c>
       <c r="E43" s="3">
-        <v>5612400</v>
+        <v>5636800</v>
       </c>
       <c r="F43" s="3">
-        <v>4976100</v>
+        <v>4997700</v>
       </c>
       <c r="G43" s="3">
-        <v>5141600</v>
+        <v>5163900</v>
       </c>
       <c r="H43" s="3">
-        <v>4446600</v>
+        <v>4465900</v>
       </c>
       <c r="I43" s="3">
-        <v>4593100</v>
+        <v>4613000</v>
       </c>
       <c r="J43" s="3">
-        <v>3834000</v>
+        <v>3850700</v>
       </c>
       <c r="K43" s="3">
         <v>2937000</v>
@@ -2012,25 +2012,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1222600</v>
+        <v>1227900</v>
       </c>
       <c r="E44" s="3">
-        <v>1351300</v>
+        <v>1357200</v>
       </c>
       <c r="F44" s="3">
-        <v>1562300</v>
+        <v>1569100</v>
       </c>
       <c r="G44" s="3">
-        <v>1451800</v>
+        <v>1458100</v>
       </c>
       <c r="H44" s="3">
-        <v>1361500</v>
+        <v>1367400</v>
       </c>
       <c r="I44" s="3">
-        <v>1123500</v>
+        <v>1128300</v>
       </c>
       <c r="J44" s="3">
-        <v>1277500</v>
+        <v>1283100</v>
       </c>
       <c r="K44" s="3">
         <v>999100</v>
@@ -2053,25 +2053,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>364800</v>
+        <v>366400</v>
       </c>
       <c r="E45" s="3">
-        <v>319800</v>
+        <v>321200</v>
       </c>
       <c r="F45" s="3">
-        <v>574900</v>
+        <v>577400</v>
       </c>
       <c r="G45" s="3">
-        <v>380700</v>
+        <v>382300</v>
       </c>
       <c r="H45" s="3">
-        <v>276200</v>
+        <v>277400</v>
       </c>
       <c r="I45" s="3">
-        <v>161400</v>
+        <v>162100</v>
       </c>
       <c r="J45" s="3">
-        <v>731000</v>
+        <v>734100</v>
       </c>
       <c r="K45" s="3">
         <v>298300</v>
@@ -2094,25 +2094,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10031500</v>
+        <v>10075000</v>
       </c>
       <c r="E46" s="3">
-        <v>9246100</v>
+        <v>9286200</v>
       </c>
       <c r="F46" s="3">
-        <v>9149500</v>
+        <v>9189200</v>
       </c>
       <c r="G46" s="3">
-        <v>9400900</v>
+        <v>9441700</v>
       </c>
       <c r="H46" s="3">
-        <v>8547000</v>
+        <v>8584100</v>
       </c>
       <c r="I46" s="3">
-        <v>7383600</v>
+        <v>7415600</v>
       </c>
       <c r="J46" s="3">
-        <v>7687000</v>
+        <v>7720400</v>
       </c>
       <c r="K46" s="3">
         <v>5368700</v>
@@ -2135,25 +2135,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5730100</v>
+        <v>5754900</v>
       </c>
       <c r="E47" s="3">
-        <v>5515100</v>
+        <v>5539100</v>
       </c>
       <c r="F47" s="3">
-        <v>5613200</v>
+        <v>5637600</v>
       </c>
       <c r="G47" s="3">
-        <v>5502400</v>
+        <v>5526300</v>
       </c>
       <c r="H47" s="3">
-        <v>3836600</v>
+        <v>3853200</v>
       </c>
       <c r="I47" s="3">
-        <v>3761300</v>
+        <v>3777600</v>
       </c>
       <c r="J47" s="3">
-        <v>4035800</v>
+        <v>4053300</v>
       </c>
       <c r="K47" s="3">
         <v>3667500</v>
@@ -2176,25 +2176,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>46906700</v>
+        <v>47110300</v>
       </c>
       <c r="E48" s="3">
-        <v>46162700</v>
+        <v>46363000</v>
       </c>
       <c r="F48" s="3">
-        <v>44362900</v>
+        <v>44555300</v>
       </c>
       <c r="G48" s="3">
-        <v>42942500</v>
+        <v>43128900</v>
       </c>
       <c r="H48" s="3">
-        <v>42447900</v>
+        <v>42632100</v>
       </c>
       <c r="I48" s="3">
-        <v>43285100</v>
+        <v>43472900</v>
       </c>
       <c r="J48" s="3">
-        <v>43357100</v>
+        <v>43545200</v>
       </c>
       <c r="K48" s="3">
         <v>32395300</v>
@@ -2217,25 +2217,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3352300</v>
+        <v>3366900</v>
       </c>
       <c r="E49" s="3">
-        <v>3414600</v>
+        <v>3429400</v>
       </c>
       <c r="F49" s="3">
-        <v>3307000</v>
+        <v>3321400</v>
       </c>
       <c r="G49" s="3">
-        <v>5057500</v>
+        <v>5079500</v>
       </c>
       <c r="H49" s="3">
-        <v>4988300</v>
+        <v>5010000</v>
       </c>
       <c r="I49" s="3">
-        <v>5021400</v>
+        <v>5043200</v>
       </c>
       <c r="J49" s="3">
-        <v>5057900</v>
+        <v>5079900</v>
       </c>
       <c r="K49" s="3">
         <v>3848400</v>
@@ -2340,25 +2340,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>813500</v>
+        <v>817100</v>
       </c>
       <c r="E52" s="3">
-        <v>806900</v>
+        <v>810400</v>
       </c>
       <c r="F52" s="3">
-        <v>1076700</v>
+        <v>1081400</v>
       </c>
       <c r="G52" s="3">
-        <v>972300</v>
+        <v>976500</v>
       </c>
       <c r="H52" s="3">
-        <v>843600</v>
+        <v>847200</v>
       </c>
       <c r="I52" s="3">
-        <v>877900</v>
+        <v>881700</v>
       </c>
       <c r="J52" s="3">
-        <v>577100</v>
+        <v>579600</v>
       </c>
       <c r="K52" s="3">
         <v>444300</v>
@@ -2422,25 +2422,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>66834200</v>
+        <v>67124200</v>
       </c>
       <c r="E54" s="3">
-        <v>65145400</v>
+        <v>65428000</v>
       </c>
       <c r="F54" s="3">
-        <v>63509200</v>
+        <v>63784800</v>
       </c>
       <c r="G54" s="3">
-        <v>63875700</v>
+        <v>64152800</v>
       </c>
       <c r="H54" s="3">
-        <v>60663300</v>
+        <v>60926500</v>
       </c>
       <c r="I54" s="3">
-        <v>60329200</v>
+        <v>60590900</v>
       </c>
       <c r="J54" s="3">
-        <v>60714900</v>
+        <v>60978300</v>
       </c>
       <c r="K54" s="3">
         <v>45724200</v>
@@ -2497,25 +2497,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2216600</v>
+        <v>2226200</v>
       </c>
       <c r="E57" s="3">
-        <v>2411200</v>
+        <v>2421700</v>
       </c>
       <c r="F57" s="3">
-        <v>2207300</v>
+        <v>2216900</v>
       </c>
       <c r="G57" s="3">
-        <v>2233700</v>
+        <v>2243400</v>
       </c>
       <c r="H57" s="3">
-        <v>2435900</v>
+        <v>2446500</v>
       </c>
       <c r="I57" s="3">
-        <v>2357300</v>
+        <v>2367600</v>
       </c>
       <c r="J57" s="3">
-        <v>2448000</v>
+        <v>2458600</v>
       </c>
       <c r="K57" s="3">
         <v>4113700</v>
@@ -2538,25 +2538,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>14128600</v>
+        <v>14189900</v>
       </c>
       <c r="E58" s="3">
-        <v>14913200</v>
+        <v>14977900</v>
       </c>
       <c r="F58" s="3">
-        <v>16885900</v>
+        <v>16959100</v>
       </c>
       <c r="G58" s="3">
-        <v>14785200</v>
+        <v>14849400</v>
       </c>
       <c r="H58" s="3">
-        <v>15488500</v>
+        <v>15555700</v>
       </c>
       <c r="I58" s="3">
-        <v>17252700</v>
+        <v>17327600</v>
       </c>
       <c r="J58" s="3">
-        <v>19173000</v>
+        <v>19256200</v>
       </c>
       <c r="K58" s="3">
         <v>14208700</v>
@@ -2579,25 +2579,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4362500</v>
+        <v>4381500</v>
       </c>
       <c r="E59" s="3">
-        <v>4218900</v>
+        <v>4237200</v>
       </c>
       <c r="F59" s="3">
-        <v>3321800</v>
+        <v>3336200</v>
       </c>
       <c r="G59" s="3">
-        <v>4005000</v>
+        <v>4022400</v>
       </c>
       <c r="H59" s="3">
-        <v>3566600</v>
+        <v>3582000</v>
       </c>
       <c r="I59" s="3">
-        <v>4113100</v>
+        <v>4131000</v>
       </c>
       <c r="J59" s="3">
-        <v>4162900</v>
+        <v>4181000</v>
       </c>
       <c r="K59" s="3">
         <v>586100</v>
@@ -2620,25 +2620,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>20707700</v>
+        <v>20797600</v>
       </c>
       <c r="E60" s="3">
-        <v>21543300</v>
+        <v>21636800</v>
       </c>
       <c r="F60" s="3">
-        <v>22415000</v>
+        <v>22512200</v>
       </c>
       <c r="G60" s="3">
-        <v>21023900</v>
+        <v>21115100</v>
       </c>
       <c r="H60" s="3">
-        <v>21491000</v>
+        <v>21584200</v>
       </c>
       <c r="I60" s="3">
-        <v>23723200</v>
+        <v>23826100</v>
       </c>
       <c r="J60" s="3">
-        <v>25783900</v>
+        <v>25895800</v>
       </c>
       <c r="K60" s="3">
         <v>18908400</v>
@@ -2661,25 +2661,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>22098000</v>
+        <v>22193800</v>
       </c>
       <c r="E61" s="3">
-        <v>22533800</v>
+        <v>22631600</v>
       </c>
       <c r="F61" s="3">
-        <v>21635800</v>
+        <v>21729700</v>
       </c>
       <c r="G61" s="3">
-        <v>23829400</v>
+        <v>23932800</v>
       </c>
       <c r="H61" s="3">
-        <v>21310100</v>
+        <v>21402600</v>
       </c>
       <c r="I61" s="3">
-        <v>18886300</v>
+        <v>18968200</v>
       </c>
       <c r="J61" s="3">
-        <v>17686700</v>
+        <v>17763500</v>
       </c>
       <c r="K61" s="3">
         <v>11283400</v>
@@ -2702,25 +2702,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1206200</v>
+        <v>1211400</v>
       </c>
       <c r="E62" s="3">
-        <v>1235100</v>
+        <v>1240400</v>
       </c>
       <c r="F62" s="3">
-        <v>1340900</v>
+        <v>1346700</v>
       </c>
       <c r="G62" s="3">
-        <v>1357900</v>
+        <v>1363800</v>
       </c>
       <c r="H62" s="3">
-        <v>1318600</v>
+        <v>1324300</v>
       </c>
       <c r="I62" s="3">
-        <v>1349400</v>
+        <v>1355200</v>
       </c>
       <c r="J62" s="3">
-        <v>1352200</v>
+        <v>1358100</v>
       </c>
       <c r="K62" s="3">
         <v>691800</v>
@@ -2866,25 +2866,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>47485300</v>
+        <v>47691400</v>
       </c>
       <c r="E66" s="3">
-        <v>48594200</v>
+        <v>48805000</v>
       </c>
       <c r="F66" s="3">
-        <v>48760300</v>
+        <v>48971900</v>
       </c>
       <c r="G66" s="3">
-        <v>49510200</v>
+        <v>49725000</v>
       </c>
       <c r="H66" s="3">
-        <v>47309500</v>
+        <v>47514700</v>
       </c>
       <c r="I66" s="3">
-        <v>46997200</v>
+        <v>47201100</v>
       </c>
       <c r="J66" s="3">
-        <v>48215600</v>
+        <v>48424800</v>
       </c>
       <c r="K66" s="3">
         <v>33234000</v>
@@ -3088,25 +3088,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6908400</v>
+        <v>6938400</v>
       </c>
       <c r="E72" s="3">
-        <v>6514200</v>
+        <v>6542400</v>
       </c>
       <c r="F72" s="3">
-        <v>6896200</v>
+        <v>6926100</v>
       </c>
       <c r="G72" s="3">
-        <v>6652800</v>
+        <v>6681600</v>
       </c>
       <c r="H72" s="3">
-        <v>6851600</v>
+        <v>6881300</v>
       </c>
       <c r="I72" s="3">
-        <v>6852200</v>
+        <v>6882000</v>
       </c>
       <c r="J72" s="3">
-        <v>6659400</v>
+        <v>6688300</v>
       </c>
       <c r="K72" s="3">
         <v>6962600</v>
@@ -3252,25 +3252,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>19348900</v>
+        <v>19432800</v>
       </c>
       <c r="E76" s="3">
-        <v>16551200</v>
+        <v>16623000</v>
       </c>
       <c r="F76" s="3">
-        <v>14748900</v>
+        <v>14812900</v>
       </c>
       <c r="G76" s="3">
-        <v>14365500</v>
+        <v>14427800</v>
       </c>
       <c r="H76" s="3">
-        <v>13353800</v>
+        <v>13411800</v>
       </c>
       <c r="I76" s="3">
-        <v>13332000</v>
+        <v>13389900</v>
       </c>
       <c r="J76" s="3">
-        <v>12499300</v>
+        <v>12553600</v>
       </c>
       <c r="K76" s="3">
         <v>12490200</v>
@@ -3380,25 +3380,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>716500</v>
+        <v>719600</v>
       </c>
       <c r="E81" s="3">
-        <v>-469900</v>
+        <v>-471900</v>
       </c>
       <c r="F81" s="3">
-        <v>482100</v>
+        <v>484200</v>
       </c>
       <c r="G81" s="3">
-        <v>-203700</v>
+        <v>-204600</v>
       </c>
       <c r="H81" s="3">
-        <v>263400</v>
+        <v>264500</v>
       </c>
       <c r="I81" s="3">
-        <v>192800</v>
+        <v>193600</v>
       </c>
       <c r="J81" s="3">
-        <v>37100</v>
+        <v>37300</v>
       </c>
       <c r="K81" s="3">
         <v>340400</v>
@@ -3684,25 +3684,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2408900</v>
+        <v>2419400</v>
       </c>
       <c r="E89" s="3">
-        <v>3131500</v>
+        <v>3145100</v>
       </c>
       <c r="F89" s="3">
-        <v>2546300</v>
+        <v>2557300</v>
       </c>
       <c r="G89" s="3">
-        <v>2070700</v>
+        <v>2079700</v>
       </c>
       <c r="H89" s="3">
-        <v>2299400</v>
+        <v>2309400</v>
       </c>
       <c r="I89" s="3">
-        <v>2265900</v>
+        <v>2275700</v>
       </c>
       <c r="J89" s="3">
-        <v>2175600</v>
+        <v>2185100</v>
       </c>
       <c r="K89" s="3">
         <v>1749300</v>
@@ -3742,25 +3742,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2459700</v>
+        <v>-2470400</v>
       </c>
       <c r="E91" s="3">
-        <v>-3078100</v>
+        <v>-3091400</v>
       </c>
       <c r="F91" s="3">
-        <v>-1695800</v>
+        <v>-1703200</v>
       </c>
       <c r="G91" s="3">
-        <v>-2089200</v>
+        <v>-2098300</v>
       </c>
       <c r="H91" s="3">
-        <v>-1046500</v>
+        <v>-1051100</v>
       </c>
       <c r="I91" s="3">
-        <v>-2329700</v>
+        <v>-2339800</v>
       </c>
       <c r="J91" s="3">
-        <v>-1594700</v>
+        <v>-1601600</v>
       </c>
       <c r="K91" s="3">
         <v>-1863000</v>
@@ -3865,25 +3865,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2410300</v>
+        <v>-2420800</v>
       </c>
       <c r="E94" s="3">
-        <v>-2895200</v>
+        <v>-2907800</v>
       </c>
       <c r="F94" s="3">
-        <v>-1521500</v>
+        <v>-1528100</v>
       </c>
       <c r="G94" s="3">
-        <v>-2171000</v>
+        <v>-2180400</v>
       </c>
       <c r="H94" s="3">
-        <v>-928600</v>
+        <v>-932600</v>
       </c>
       <c r="I94" s="3">
-        <v>-1746300</v>
+        <v>-1753800</v>
       </c>
       <c r="J94" s="3">
-        <v>-3083400</v>
+        <v>-3096800</v>
       </c>
       <c r="K94" s="3">
         <v>-1573100</v>
@@ -3926,22 +3926,22 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-71500</v>
+        <v>-71800</v>
       </c>
       <c r="F96" s="3">
-        <v>-167300</v>
+        <v>-168000</v>
       </c>
       <c r="G96" s="3">
-        <v>-66100</v>
+        <v>-66400</v>
       </c>
       <c r="H96" s="3">
-        <v>-165200</v>
+        <v>-165900</v>
       </c>
       <c r="I96" s="3">
-        <v>-199000</v>
+        <v>-199800</v>
       </c>
       <c r="J96" s="3">
-        <v>-463200</v>
+        <v>-465200</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -4087,25 +4087,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>409100</v>
+        <v>410900</v>
       </c>
       <c r="E100" s="3">
-        <v>-330900</v>
+        <v>-332300</v>
       </c>
       <c r="F100" s="3">
-        <v>-1392400</v>
+        <v>-1398400</v>
       </c>
       <c r="G100" s="3">
-        <v>-22600</v>
+        <v>-22700</v>
       </c>
       <c r="H100" s="3">
-        <v>-318600</v>
+        <v>-320000</v>
       </c>
       <c r="I100" s="3">
-        <v>-951600</v>
+        <v>-955700</v>
       </c>
       <c r="J100" s="3">
-        <v>1562100</v>
+        <v>1568900</v>
       </c>
       <c r="K100" s="3">
         <v>-325700</v>
@@ -4128,13 +4128,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-32700</v>
+        <v>-32800</v>
       </c>
       <c r="E101" s="3">
-        <v>16600</v>
+        <v>16700</v>
       </c>
       <c r="F101" s="3">
-        <v>-6900</v>
+        <v>-7000</v>
       </c>
       <c r="G101" s="3">
         <v>5500</v>
@@ -4146,7 +4146,7 @@
         <v>-1900</v>
       </c>
       <c r="J101" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="K101" s="3">
         <v>-2800</v>
@@ -4169,25 +4169,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>375000</v>
+        <v>376700</v>
       </c>
       <c r="E102" s="3">
-        <v>-78000</v>
+        <v>-78300</v>
       </c>
       <c r="F102" s="3">
-        <v>-374500</v>
+        <v>-376100</v>
       </c>
       <c r="G102" s="3">
-        <v>-117400</v>
+        <v>-117900</v>
       </c>
       <c r="H102" s="3">
-        <v>1050700</v>
+        <v>1055300</v>
       </c>
       <c r="I102" s="3">
-        <v>-433900</v>
+        <v>-435800</v>
       </c>
       <c r="J102" s="3">
-        <v>657800</v>
+        <v>660600</v>
       </c>
       <c r="K102" s="3">
         <v>-152300</v>

--- a/AAII_Financials/Quarterly/HNP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HNP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>HNP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,196 +665,209 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42551</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42369</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42185</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11953500</v>
+        <v>13949200</v>
       </c>
       <c r="E8" s="3">
-        <v>13673400</v>
+        <v>12206200</v>
       </c>
       <c r="F8" s="3">
-        <v>12631800</v>
+        <v>13962400</v>
       </c>
       <c r="G8" s="3">
-        <v>13174600</v>
+        <v>12898800</v>
       </c>
       <c r="H8" s="3">
-        <v>12456000</v>
+        <v>13453200</v>
       </c>
       <c r="I8" s="3">
-        <v>12267900</v>
+        <v>12719300</v>
       </c>
       <c r="J8" s="3">
+        <v>12527300</v>
+      </c>
+      <c r="K8" s="3">
         <v>10814500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8738400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7528000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9357600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9601400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8777800</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6848500</v>
+        <v>8403100</v>
       </c>
       <c r="E9" s="3">
-        <v>8570600</v>
+        <v>6993300</v>
       </c>
       <c r="F9" s="3">
-        <v>7844800</v>
+        <v>8751800</v>
       </c>
       <c r="G9" s="3">
-        <v>9058300</v>
+        <v>8010700</v>
       </c>
       <c r="H9" s="3">
-        <v>8482100</v>
+        <v>9249800</v>
       </c>
       <c r="I9" s="3">
-        <v>8150600</v>
+        <v>8661400</v>
       </c>
       <c r="J9" s="3">
+        <v>8322900</v>
+      </c>
+      <c r="K9" s="3">
         <v>7260700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5505300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3747700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4869000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5130900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5071300</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5105000</v>
+        <v>5546100</v>
       </c>
       <c r="E10" s="3">
-        <v>5102800</v>
+        <v>5212900</v>
       </c>
       <c r="F10" s="3">
-        <v>4787000</v>
+        <v>5210700</v>
       </c>
       <c r="G10" s="3">
-        <v>4116400</v>
+        <v>4888200</v>
       </c>
       <c r="H10" s="3">
-        <v>3973900</v>
+        <v>4203400</v>
       </c>
       <c r="I10" s="3">
-        <v>4117400</v>
+        <v>4057900</v>
       </c>
       <c r="J10" s="3">
+        <v>4204400</v>
+      </c>
+      <c r="K10" s="3">
         <v>3553900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3233100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3780300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4488500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4470500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3706500</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -870,16 +883,17 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>8</v>
+      <c r="D12" s="3">
+        <v>95300</v>
+      </c>
+      <c r="E12" s="3">
+        <v>8800</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>8</v>
@@ -911,8 +925,11 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -952,31 +969,34 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>1483800</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-400</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -993,49 +1013,55 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1656500</v>
+        <v>1774700</v>
       </c>
       <c r="E15" s="3">
-        <v>1707000</v>
+        <v>1700300</v>
       </c>
       <c r="F15" s="3">
-        <v>1633500</v>
+        <v>1743100</v>
       </c>
       <c r="G15" s="3">
-        <v>1580200</v>
+        <v>1668100</v>
       </c>
       <c r="H15" s="3">
-        <v>1546600</v>
+        <v>1613600</v>
       </c>
       <c r="I15" s="3">
-        <v>1533000</v>
+        <v>1579300</v>
       </c>
       <c r="J15" s="3">
+        <v>1565400</v>
+      </c>
+      <c r="K15" s="3">
         <v>1550200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1074100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1064600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1086400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1052400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>851300</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1048,90 +1074,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10054700</v>
+        <v>14028800</v>
       </c>
       <c r="E17" s="3">
-        <v>13382900</v>
+        <v>10267300</v>
       </c>
       <c r="F17" s="3">
-        <v>11031200</v>
+        <v>13665800</v>
       </c>
       <c r="G17" s="3">
-        <v>12807500</v>
+        <v>11264400</v>
       </c>
       <c r="H17" s="3">
-        <v>11277900</v>
+        <v>13078300</v>
       </c>
       <c r="I17" s="3">
-        <v>11639000</v>
+        <v>11516300</v>
       </c>
       <c r="J17" s="3">
+        <v>11885100</v>
+      </c>
+      <c r="K17" s="3">
         <v>10040400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7919400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5700300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7631500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7002300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7198900</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1898800</v>
+        <v>-79500</v>
       </c>
       <c r="E18" s="3">
-        <v>290500</v>
+        <v>1938900</v>
       </c>
       <c r="F18" s="3">
-        <v>1600600</v>
+        <v>296600</v>
       </c>
       <c r="G18" s="3">
-        <v>367100</v>
+        <v>1634400</v>
       </c>
       <c r="H18" s="3">
-        <v>1178100</v>
+        <v>374900</v>
       </c>
       <c r="I18" s="3">
-        <v>628900</v>
+        <v>1203000</v>
       </c>
       <c r="J18" s="3">
+        <v>642200</v>
+      </c>
+      <c r="K18" s="3">
         <v>774100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>819000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1827700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1726000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2599100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1578900</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1147,213 +1180,229 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>156100</v>
+        <v>161400</v>
       </c>
       <c r="E20" s="3">
-        <v>113100</v>
+        <v>159400</v>
       </c>
       <c r="F20" s="3">
-        <v>116700</v>
+        <v>115500</v>
       </c>
       <c r="G20" s="3">
-        <v>292000</v>
+        <v>119200</v>
       </c>
       <c r="H20" s="3">
-        <v>66300</v>
+        <v>298100</v>
       </c>
       <c r="I20" s="3">
-        <v>451000</v>
+        <v>67700</v>
       </c>
       <c r="J20" s="3">
+        <v>460500</v>
+      </c>
+      <c r="K20" s="3">
         <v>63500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>232800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>93300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>98900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>162400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>111900</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3720000</v>
+        <v>156200</v>
       </c>
       <c r="E21" s="3">
-        <v>482100</v>
+        <v>3798700</v>
       </c>
       <c r="F21" s="3">
-        <v>3356100</v>
+        <v>492300</v>
       </c>
       <c r="G21" s="3">
-        <v>692300</v>
+        <v>3427100</v>
       </c>
       <c r="H21" s="3">
-        <v>2799400</v>
+        <v>706900</v>
       </c>
       <c r="I21" s="3">
-        <v>1060500</v>
+        <v>2858600</v>
       </c>
       <c r="J21" s="3">
+        <v>1082900</v>
+      </c>
+      <c r="K21" s="3">
         <v>2397600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1048200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2985600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1859900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3813800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1699700</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>741600</v>
+        <v>678100</v>
       </c>
       <c r="E22" s="3">
-        <v>804300</v>
+        <v>757300</v>
       </c>
       <c r="F22" s="3">
-        <v>840100</v>
+        <v>821300</v>
       </c>
       <c r="G22" s="3">
-        <v>817000</v>
+        <v>857800</v>
       </c>
       <c r="H22" s="3">
-        <v>785100</v>
+        <v>834300</v>
       </c>
       <c r="I22" s="3">
-        <v>777100</v>
+        <v>801700</v>
       </c>
       <c r="J22" s="3">
+        <v>793500</v>
+      </c>
+      <c r="K22" s="3">
         <v>712400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>499300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>484900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>572600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>606700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>594400</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1313300</v>
+        <v>-596300</v>
       </c>
       <c r="E23" s="3">
-        <v>-400700</v>
+        <v>1341000</v>
       </c>
       <c r="F23" s="3">
-        <v>877200</v>
+        <v>-409100</v>
       </c>
       <c r="G23" s="3">
-        <v>-157900</v>
+        <v>895800</v>
       </c>
       <c r="H23" s="3">
-        <v>459300</v>
+        <v>-161200</v>
       </c>
       <c r="I23" s="3">
-        <v>302800</v>
+        <v>469100</v>
       </c>
       <c r="J23" s="3">
+        <v>309200</v>
+      </c>
+      <c r="K23" s="3">
         <v>125300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>552400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1436100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1252400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2154800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1096400</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>289600</v>
+        <v>41800</v>
       </c>
       <c r="E24" s="3">
-        <v>101600</v>
+        <v>295700</v>
       </c>
       <c r="F24" s="3">
-        <v>205700</v>
+        <v>103700</v>
       </c>
       <c r="G24" s="3">
-        <v>-15500</v>
+        <v>210100</v>
       </c>
       <c r="H24" s="3">
-        <v>113800</v>
+        <v>-15800</v>
       </c>
       <c r="I24" s="3">
-        <v>112900</v>
+        <v>116200</v>
       </c>
       <c r="J24" s="3">
+        <v>115200</v>
+      </c>
+      <c r="K24" s="3">
         <v>73200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>152700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>346400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>319300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>526500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>348700</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1393,90 +1442,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1023700</v>
+        <v>-638100</v>
       </c>
       <c r="E26" s="3">
-        <v>-502200</v>
+        <v>1045300</v>
       </c>
       <c r="F26" s="3">
-        <v>671500</v>
+        <v>-512800</v>
       </c>
       <c r="G26" s="3">
-        <v>-142400</v>
+        <v>685700</v>
       </c>
       <c r="H26" s="3">
-        <v>345600</v>
+        <v>-145400</v>
       </c>
       <c r="I26" s="3">
-        <v>189900</v>
+        <v>352900</v>
       </c>
       <c r="J26" s="3">
+        <v>193900</v>
+      </c>
+      <c r="K26" s="3">
         <v>52100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>399800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1089800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>933100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1628300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>747700</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>719600</v>
+        <v>-640000</v>
       </c>
       <c r="E27" s="3">
-        <v>-471900</v>
+        <v>734800</v>
       </c>
       <c r="F27" s="3">
-        <v>484200</v>
+        <v>-481900</v>
       </c>
       <c r="G27" s="3">
-        <v>-204600</v>
+        <v>494400</v>
       </c>
       <c r="H27" s="3">
-        <v>264500</v>
+        <v>-208900</v>
       </c>
       <c r="I27" s="3">
-        <v>193600</v>
+        <v>270100</v>
       </c>
       <c r="J27" s="3">
+        <v>197700</v>
+      </c>
+      <c r="K27" s="3">
         <v>37300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>340400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>886300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>697700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1328400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>574300</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1516,8 +1574,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1557,8 +1618,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1598,8 +1662,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1639,90 +1706,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-156100</v>
+        <v>-161400</v>
       </c>
       <c r="E32" s="3">
-        <v>-113100</v>
+        <v>-159400</v>
       </c>
       <c r="F32" s="3">
-        <v>-116700</v>
+        <v>-115500</v>
       </c>
       <c r="G32" s="3">
-        <v>-292000</v>
+        <v>-119200</v>
       </c>
       <c r="H32" s="3">
-        <v>-66300</v>
+        <v>-298100</v>
       </c>
       <c r="I32" s="3">
-        <v>-451000</v>
+        <v>-67700</v>
       </c>
       <c r="J32" s="3">
+        <v>-460500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-63500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-232800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-93300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-98900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-162400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-111900</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>719600</v>
+        <v>-640000</v>
       </c>
       <c r="E33" s="3">
-        <v>-471900</v>
+        <v>734800</v>
       </c>
       <c r="F33" s="3">
-        <v>484200</v>
+        <v>-481900</v>
       </c>
       <c r="G33" s="3">
-        <v>-204600</v>
+        <v>494400</v>
       </c>
       <c r="H33" s="3">
-        <v>264500</v>
+        <v>-208900</v>
       </c>
       <c r="I33" s="3">
-        <v>193600</v>
+        <v>270100</v>
       </c>
       <c r="J33" s="3">
+        <v>197700</v>
+      </c>
+      <c r="K33" s="3">
         <v>37300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>340400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>886300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>697700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1328400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>574300</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1762,95 +1838,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>719600</v>
+        <v>-640000</v>
       </c>
       <c r="E35" s="3">
-        <v>-471900</v>
+        <v>734800</v>
       </c>
       <c r="F35" s="3">
-        <v>484200</v>
+        <v>-481900</v>
       </c>
       <c r="G35" s="3">
-        <v>-204600</v>
+        <v>494400</v>
       </c>
       <c r="H35" s="3">
-        <v>264500</v>
+        <v>-208900</v>
       </c>
       <c r="I35" s="3">
-        <v>193600</v>
+        <v>270100</v>
       </c>
       <c r="J35" s="3">
+        <v>197700</v>
+      </c>
+      <c r="K35" s="3">
         <v>37300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>340400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>886300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>697700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1328400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>574300</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42551</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42369</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42185</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1866,8 +1951,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1883,49 +1969,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2277700</v>
+        <v>2068400</v>
       </c>
       <c r="E41" s="3">
-        <v>1901100</v>
+        <v>2325900</v>
       </c>
       <c r="F41" s="3">
-        <v>1977700</v>
+        <v>1941300</v>
       </c>
       <c r="G41" s="3">
-        <v>2353200</v>
+        <v>2019500</v>
       </c>
       <c r="H41" s="3">
-        <v>2473400</v>
+        <v>2403000</v>
       </c>
       <c r="I41" s="3">
-        <v>1418200</v>
+        <v>2525700</v>
       </c>
       <c r="J41" s="3">
+        <v>1448100</v>
+      </c>
+      <c r="K41" s="3">
         <v>1852500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1134300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1271100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1109800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1482900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1779800</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1933,22 +2023,22 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>69900</v>
+        <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>67300</v>
+        <v>71400</v>
       </c>
       <c r="G42" s="3">
-        <v>84200</v>
+        <v>68700</v>
       </c>
       <c r="H42" s="3">
-        <v>0</v>
+        <v>85900</v>
       </c>
       <c r="I42" s="3">
-        <v>94000</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>95900</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
@@ -1965,295 +2055,319 @@
       <c r="O42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6203000</v>
+        <v>6843000</v>
       </c>
       <c r="E43" s="3">
-        <v>5636800</v>
+        <v>6334100</v>
       </c>
       <c r="F43" s="3">
-        <v>4997700</v>
+        <v>5755900</v>
       </c>
       <c r="G43" s="3">
-        <v>5163900</v>
+        <v>5103400</v>
       </c>
       <c r="H43" s="3">
-        <v>4465900</v>
+        <v>5273100</v>
       </c>
       <c r="I43" s="3">
-        <v>4613000</v>
+        <v>4560300</v>
       </c>
       <c r="J43" s="3">
+        <v>4710600</v>
+      </c>
+      <c r="K43" s="3">
         <v>3850700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2937000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2173600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2846100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2479300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2660500</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1227900</v>
+        <v>1030000</v>
       </c>
       <c r="E44" s="3">
-        <v>1357200</v>
+        <v>1253800</v>
       </c>
       <c r="F44" s="3">
-        <v>1569100</v>
+        <v>1385900</v>
       </c>
       <c r="G44" s="3">
-        <v>1458100</v>
+        <v>1602300</v>
       </c>
       <c r="H44" s="3">
-        <v>1367400</v>
+        <v>1488900</v>
       </c>
       <c r="I44" s="3">
-        <v>1128300</v>
+        <v>1396300</v>
       </c>
       <c r="J44" s="3">
+        <v>1152200</v>
+      </c>
+      <c r="K44" s="3">
         <v>1283100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>999100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>765400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>804800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>898500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>974700</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>366400</v>
+        <v>376700</v>
       </c>
       <c r="E45" s="3">
-        <v>321200</v>
+        <v>374200</v>
       </c>
       <c r="F45" s="3">
-        <v>577400</v>
+        <v>328000</v>
       </c>
       <c r="G45" s="3">
-        <v>382300</v>
+        <v>589600</v>
       </c>
       <c r="H45" s="3">
-        <v>277400</v>
+        <v>390400</v>
       </c>
       <c r="I45" s="3">
-        <v>162100</v>
+        <v>283200</v>
       </c>
       <c r="J45" s="3">
+        <v>165500</v>
+      </c>
+      <c r="K45" s="3">
         <v>734100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>298300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>252200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>220700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>234800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>91800</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10075000</v>
+        <v>10318100</v>
       </c>
       <c r="E46" s="3">
-        <v>9286200</v>
+        <v>10288000</v>
       </c>
       <c r="F46" s="3">
-        <v>9189200</v>
+        <v>9482500</v>
       </c>
       <c r="G46" s="3">
-        <v>9441700</v>
+        <v>9383400</v>
       </c>
       <c r="H46" s="3">
-        <v>8584100</v>
+        <v>9641300</v>
       </c>
       <c r="I46" s="3">
-        <v>7415600</v>
+        <v>8765500</v>
       </c>
       <c r="J46" s="3">
+        <v>7572400</v>
+      </c>
+      <c r="K46" s="3">
         <v>7720400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5368700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4462300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4981400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5095500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5506700</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5754900</v>
+        <v>5928100</v>
       </c>
       <c r="E47" s="3">
-        <v>5539100</v>
+        <v>5876600</v>
       </c>
       <c r="F47" s="3">
-        <v>5637600</v>
+        <v>5656200</v>
       </c>
       <c r="G47" s="3">
-        <v>5526300</v>
+        <v>5756800</v>
       </c>
       <c r="H47" s="3">
-        <v>3853200</v>
+        <v>5643100</v>
       </c>
       <c r="I47" s="3">
-        <v>3777600</v>
+        <v>3934700</v>
       </c>
       <c r="J47" s="3">
+        <v>3857500</v>
+      </c>
+      <c r="K47" s="3">
         <v>4053300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3667500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3938500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4006200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3852800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3412900</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>47110300</v>
+        <v>49784500</v>
       </c>
       <c r="E48" s="3">
-        <v>46363000</v>
+        <v>48106200</v>
       </c>
       <c r="F48" s="3">
-        <v>44555300</v>
+        <v>47343200</v>
       </c>
       <c r="G48" s="3">
-        <v>43128900</v>
+        <v>45497300</v>
       </c>
       <c r="H48" s="3">
-        <v>42632100</v>
+        <v>44040700</v>
       </c>
       <c r="I48" s="3">
-        <v>43472900</v>
+        <v>43533400</v>
       </c>
       <c r="J48" s="3">
+        <v>44391900</v>
+      </c>
+      <c r="K48" s="3">
         <v>43545200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>32395300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>31397500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>32601700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>32015300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>27396000</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3366900</v>
+        <v>3268100</v>
       </c>
       <c r="E49" s="3">
-        <v>3429400</v>
+        <v>3438100</v>
       </c>
       <c r="F49" s="3">
-        <v>3321400</v>
+        <v>3501900</v>
       </c>
       <c r="G49" s="3">
-        <v>5079500</v>
+        <v>3391600</v>
       </c>
       <c r="H49" s="3">
-        <v>5010000</v>
+        <v>5186900</v>
       </c>
       <c r="I49" s="3">
-        <v>5043200</v>
+        <v>5115900</v>
       </c>
       <c r="J49" s="3">
+        <v>5149800</v>
+      </c>
+      <c r="K49" s="3">
         <v>5079900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3848400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2643700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2590300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2854700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3312200</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2293,8 +2407,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2334,49 +2451,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>817100</v>
+        <v>890800</v>
       </c>
       <c r="E52" s="3">
-        <v>810400</v>
+        <v>834300</v>
       </c>
       <c r="F52" s="3">
-        <v>1081400</v>
+        <v>827500</v>
       </c>
       <c r="G52" s="3">
-        <v>976500</v>
+        <v>1104200</v>
       </c>
       <c r="H52" s="3">
-        <v>847200</v>
+        <v>997200</v>
       </c>
       <c r="I52" s="3">
-        <v>881700</v>
+        <v>865100</v>
       </c>
       <c r="J52" s="3">
+        <v>900300</v>
+      </c>
+      <c r="K52" s="3">
         <v>579600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>444300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1621700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1659200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1540400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>390400</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2416,49 +2539,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>67124200</v>
+        <v>70189600</v>
       </c>
       <c r="E54" s="3">
-        <v>65428000</v>
+        <v>68543300</v>
       </c>
       <c r="F54" s="3">
-        <v>63784800</v>
+        <v>66811300</v>
       </c>
       <c r="G54" s="3">
-        <v>64152800</v>
+        <v>65133300</v>
       </c>
       <c r="H54" s="3">
-        <v>60926500</v>
+        <v>65509100</v>
       </c>
       <c r="I54" s="3">
-        <v>60590900</v>
+        <v>62214600</v>
       </c>
       <c r="J54" s="3">
+        <v>61871900</v>
+      </c>
+      <c r="K54" s="3">
         <v>60978300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>45724200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>44063700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>45838900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>45358600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>40018200</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2474,8 +2603,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2491,254 +2621,273 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2226200</v>
+        <v>2461500</v>
       </c>
       <c r="E57" s="3">
-        <v>2421700</v>
+        <v>2273200</v>
       </c>
       <c r="F57" s="3">
-        <v>2216900</v>
+        <v>2472900</v>
       </c>
       <c r="G57" s="3">
-        <v>2243400</v>
+        <v>2263800</v>
       </c>
       <c r="H57" s="3">
-        <v>2446500</v>
+        <v>2290800</v>
       </c>
       <c r="I57" s="3">
-        <v>2367600</v>
+        <v>2498200</v>
       </c>
       <c r="J57" s="3">
+        <v>2417600</v>
+      </c>
+      <c r="K57" s="3">
         <v>2458600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4113700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3372500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3813800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3809400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3639800</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>14189900</v>
+        <v>16455600</v>
       </c>
       <c r="E58" s="3">
-        <v>14977900</v>
+        <v>14489900</v>
       </c>
       <c r="F58" s="3">
-        <v>16959100</v>
+        <v>15294500</v>
       </c>
       <c r="G58" s="3">
-        <v>14849400</v>
+        <v>17317700</v>
       </c>
       <c r="H58" s="3">
-        <v>15555700</v>
+        <v>15163300</v>
       </c>
       <c r="I58" s="3">
-        <v>17327600</v>
+        <v>15884600</v>
       </c>
       <c r="J58" s="3">
+        <v>17693900</v>
+      </c>
+      <c r="K58" s="3">
         <v>19256200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>14208700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>11625600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>13811500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>13072400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>10789000</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4381500</v>
+        <v>5116000</v>
       </c>
       <c r="E59" s="3">
-        <v>4237200</v>
+        <v>4474100</v>
       </c>
       <c r="F59" s="3">
-        <v>3336200</v>
+        <v>4326800</v>
       </c>
       <c r="G59" s="3">
-        <v>4022400</v>
+        <v>3406700</v>
       </c>
       <c r="H59" s="3">
-        <v>3582000</v>
+        <v>4107400</v>
       </c>
       <c r="I59" s="3">
-        <v>4131000</v>
+        <v>3657800</v>
       </c>
       <c r="J59" s="3">
+        <v>4218300</v>
+      </c>
+      <c r="K59" s="3">
         <v>4181000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>586100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1605700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>753300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1505300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>819000</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>20797600</v>
+        <v>24033000</v>
       </c>
       <c r="E60" s="3">
-        <v>21636800</v>
+        <v>21237300</v>
       </c>
       <c r="F60" s="3">
-        <v>22512200</v>
+        <v>22094200</v>
       </c>
       <c r="G60" s="3">
-        <v>21115100</v>
+        <v>22988200</v>
       </c>
       <c r="H60" s="3">
-        <v>21584200</v>
+        <v>21561600</v>
       </c>
       <c r="I60" s="3">
-        <v>23826100</v>
+        <v>22040500</v>
       </c>
       <c r="J60" s="3">
+        <v>24329800</v>
+      </c>
+      <c r="K60" s="3">
         <v>25895800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>18908400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>16603700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>18378600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>18387100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>15247800</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>22193800</v>
+        <v>21258800</v>
       </c>
       <c r="E61" s="3">
-        <v>22631600</v>
+        <v>22663000</v>
       </c>
       <c r="F61" s="3">
-        <v>21729700</v>
+        <v>23110000</v>
       </c>
       <c r="G61" s="3">
-        <v>23932800</v>
+        <v>22189100</v>
       </c>
       <c r="H61" s="3">
-        <v>21402600</v>
+        <v>24438800</v>
       </c>
       <c r="I61" s="3">
-        <v>18968200</v>
+        <v>21855000</v>
       </c>
       <c r="J61" s="3">
+        <v>19369300</v>
+      </c>
+      <c r="K61" s="3">
         <v>17763500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>11283400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>12014200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>11604600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>12603500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>11917700</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1211400</v>
+        <v>1244200</v>
       </c>
       <c r="E62" s="3">
-        <v>1240400</v>
+        <v>1237000</v>
       </c>
       <c r="F62" s="3">
-        <v>1346700</v>
+        <v>1266600</v>
       </c>
       <c r="G62" s="3">
-        <v>1363800</v>
+        <v>1375100</v>
       </c>
       <c r="H62" s="3">
-        <v>1324300</v>
+        <v>1392600</v>
       </c>
       <c r="I62" s="3">
-        <v>1355200</v>
+        <v>1352300</v>
       </c>
       <c r="J62" s="3">
+        <v>1383900</v>
+      </c>
+      <c r="K62" s="3">
         <v>1358100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>691800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>749600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>763300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>734100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>522800</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2778,8 +2927,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2819,8 +2971,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2860,49 +3015,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>47691400</v>
+        <v>49932400</v>
       </c>
       <c r="E66" s="3">
-        <v>48805000</v>
+        <v>48699600</v>
       </c>
       <c r="F66" s="3">
-        <v>48971900</v>
+        <v>49836800</v>
       </c>
       <c r="G66" s="3">
-        <v>49725000</v>
+        <v>50007200</v>
       </c>
       <c r="H66" s="3">
-        <v>47514700</v>
+        <v>50776200</v>
       </c>
       <c r="I66" s="3">
-        <v>47201100</v>
+        <v>48519300</v>
       </c>
       <c r="J66" s="3">
+        <v>48199000</v>
+      </c>
+      <c r="K66" s="3">
         <v>48424800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>33234000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>31986500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>33351300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>34266300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>29819300</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2918,8 +3079,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2959,8 +3121,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3000,8 +3165,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3041,8 +3209,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3082,49 +3253,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6938400</v>
+        <v>6450500</v>
       </c>
       <c r="E72" s="3">
+        <v>7085100</v>
+      </c>
+      <c r="F72" s="3">
+        <v>6680800</v>
+      </c>
+      <c r="G72" s="3">
+        <v>7072500</v>
+      </c>
+      <c r="H72" s="3">
+        <v>6822900</v>
+      </c>
+      <c r="I72" s="3">
+        <v>7026800</v>
+      </c>
+      <c r="J72" s="3">
+        <v>7027500</v>
+      </c>
+      <c r="K72" s="3">
+        <v>6688300</v>
+      </c>
+      <c r="L72" s="3">
+        <v>6962600</v>
+      </c>
+      <c r="M72" s="3">
         <v>6542400</v>
       </c>
-      <c r="F72" s="3">
-        <v>6926100</v>
-      </c>
-      <c r="G72" s="3">
-        <v>6681600</v>
-      </c>
-      <c r="H72" s="3">
-        <v>6881300</v>
-      </c>
-      <c r="I72" s="3">
-        <v>6882000</v>
-      </c>
-      <c r="J72" s="3">
-        <v>6688300</v>
-      </c>
-      <c r="K72" s="3">
-        <v>6962600</v>
-      </c>
-      <c r="L72" s="3">
-        <v>6542400</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6910800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6213100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5583500</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3164,8 +3341,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3205,8 +3385,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3246,49 +3429,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>19432800</v>
+        <v>20257300</v>
       </c>
       <c r="E76" s="3">
-        <v>16623000</v>
+        <v>19843700</v>
       </c>
       <c r="F76" s="3">
-        <v>14812900</v>
+        <v>16974500</v>
       </c>
       <c r="G76" s="3">
-        <v>14427800</v>
+        <v>15126100</v>
       </c>
       <c r="H76" s="3">
-        <v>13411800</v>
+        <v>14732900</v>
       </c>
       <c r="I76" s="3">
-        <v>13389900</v>
+        <v>13695300</v>
       </c>
       <c r="J76" s="3">
+        <v>13673000</v>
+      </c>
+      <c r="K76" s="3">
         <v>12553600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12490200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12077300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12487500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>11092300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10198900</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3328,95 +3517,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42551</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42369</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42185</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>719600</v>
+        <v>-640000</v>
       </c>
       <c r="E81" s="3">
-        <v>-471900</v>
+        <v>734800</v>
       </c>
       <c r="F81" s="3">
-        <v>484200</v>
+        <v>-481900</v>
       </c>
       <c r="G81" s="3">
-        <v>-204600</v>
+        <v>494400</v>
       </c>
       <c r="H81" s="3">
-        <v>264500</v>
+        <v>-208900</v>
       </c>
       <c r="I81" s="3">
-        <v>193600</v>
+        <v>270100</v>
       </c>
       <c r="J81" s="3">
+        <v>197700</v>
+      </c>
+      <c r="K81" s="3">
         <v>37300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>340400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>886300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>697700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1328400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>574300</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3432,8 +3630,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3473,8 +3672,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3514,8 +3716,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3555,8 +3760,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3596,8 +3804,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3637,8 +3848,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3678,49 +3892,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2419400</v>
+        <v>4079800</v>
       </c>
       <c r="E89" s="3">
-        <v>3145100</v>
+        <v>2470600</v>
       </c>
       <c r="F89" s="3">
-        <v>2557300</v>
+        <v>3211600</v>
       </c>
       <c r="G89" s="3">
-        <v>2079700</v>
+        <v>2611400</v>
       </c>
       <c r="H89" s="3">
-        <v>2309400</v>
+        <v>2123700</v>
       </c>
       <c r="I89" s="3">
-        <v>2275700</v>
+        <v>2358200</v>
       </c>
       <c r="J89" s="3">
+        <v>2323800</v>
+      </c>
+      <c r="K89" s="3">
         <v>2185100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1749300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2792900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2718000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3569000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2482700</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3736,49 +3956,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2470400</v>
+        <v>-4116900</v>
       </c>
       <c r="E91" s="3">
-        <v>-3091400</v>
+        <v>-2522600</v>
       </c>
       <c r="F91" s="3">
-        <v>-1703200</v>
+        <v>-3156800</v>
       </c>
       <c r="G91" s="3">
-        <v>-2098300</v>
+        <v>-1739200</v>
       </c>
       <c r="H91" s="3">
-        <v>-1051100</v>
+        <v>-2142600</v>
       </c>
       <c r="I91" s="3">
-        <v>-2339800</v>
+        <v>-1073300</v>
       </c>
       <c r="J91" s="3">
+        <v>-2389300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1601600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1863000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1049900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1905100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1685200</v>
       </c>
-      <c r="O91" s="3" t="s">
+      <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3818,8 +4042,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3859,49 +4086,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2420800</v>
+        <v>-4117400</v>
       </c>
       <c r="E94" s="3">
-        <v>-2907800</v>
+        <v>-2472000</v>
       </c>
       <c r="F94" s="3">
-        <v>-1528100</v>
+        <v>-2969200</v>
       </c>
       <c r="G94" s="3">
-        <v>-2180400</v>
+        <v>-1560400</v>
       </c>
       <c r="H94" s="3">
-        <v>-932600</v>
+        <v>-2226500</v>
       </c>
       <c r="I94" s="3">
-        <v>-1753800</v>
+        <v>-952300</v>
       </c>
       <c r="J94" s="3">
+        <v>-1790900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3096800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1573100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-978300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1871500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3028300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1869600</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3917,35 +4150,36 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-330600</v>
       </c>
       <c r="E96" s="3">
-        <v>-71800</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-168000</v>
+        <v>-73300</v>
       </c>
       <c r="G96" s="3">
-        <v>-66400</v>
+        <v>-171600</v>
       </c>
       <c r="H96" s="3">
-        <v>-165900</v>
+        <v>-67800</v>
       </c>
       <c r="I96" s="3">
-        <v>-199800</v>
+        <v>-169400</v>
       </c>
       <c r="J96" s="3">
+        <v>-204100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-465200</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -3958,8 +4192,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3999,8 +4236,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4040,8 +4280,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4081,127 +4324,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>410900</v>
+        <v>-138100</v>
       </c>
       <c r="E100" s="3">
-        <v>-332300</v>
+        <v>419500</v>
       </c>
       <c r="F100" s="3">
-        <v>-1398400</v>
+        <v>-339300</v>
       </c>
       <c r="G100" s="3">
-        <v>-22700</v>
+        <v>-1428000</v>
       </c>
       <c r="H100" s="3">
-        <v>-320000</v>
+        <v>-23200</v>
       </c>
       <c r="I100" s="3">
-        <v>-955700</v>
+        <v>-326800</v>
       </c>
       <c r="J100" s="3">
+        <v>-975900</v>
+      </c>
+      <c r="K100" s="3">
         <v>1568900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-325700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1629800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1225200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-873400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-512800</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-32800</v>
+        <v>-81800</v>
       </c>
       <c r="E101" s="3">
-        <v>16700</v>
+        <v>-33500</v>
       </c>
       <c r="F101" s="3">
-        <v>-7000</v>
+        <v>17000</v>
       </c>
       <c r="G101" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="H101" s="3">
+        <v>5600</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K101" s="3">
+        <v>3500</v>
+      </c>
+      <c r="L101" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="M101" s="3">
+        <v>13200</v>
+      </c>
+      <c r="N101" s="3">
         <v>5500</v>
       </c>
-      <c r="H101" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="J101" s="3">
-        <v>3500</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="L101" s="3">
-        <v>13200</v>
-      </c>
-      <c r="M101" s="3">
-        <v>5500</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-16200</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>376700</v>
+        <v>-257500</v>
       </c>
       <c r="E102" s="3">
-        <v>-78300</v>
+        <v>384600</v>
       </c>
       <c r="F102" s="3">
-        <v>-376100</v>
+        <v>-80000</v>
       </c>
       <c r="G102" s="3">
-        <v>-117900</v>
+        <v>-384100</v>
       </c>
       <c r="H102" s="3">
-        <v>1055300</v>
+        <v>-120400</v>
       </c>
       <c r="I102" s="3">
-        <v>-435800</v>
+        <v>1077600</v>
       </c>
       <c r="J102" s="3">
+        <v>-445000</v>
+      </c>
+      <c r="K102" s="3">
         <v>660600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-152300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>198100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-373100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-333400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>84100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HNP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HNP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>HNP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,209 +665,222 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42916</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42551</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42369</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42185</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13949200</v>
+        <v>14501000</v>
       </c>
       <c r="E8" s="3">
-        <v>12206200</v>
+        <v>13767700</v>
       </c>
       <c r="F8" s="3">
-        <v>13962400</v>
+        <v>12047400</v>
       </c>
       <c r="G8" s="3">
-        <v>12898800</v>
+        <v>13780700</v>
       </c>
       <c r="H8" s="3">
-        <v>13453200</v>
+        <v>12731000</v>
       </c>
       <c r="I8" s="3">
-        <v>12719300</v>
+        <v>13278100</v>
       </c>
       <c r="J8" s="3">
+        <v>12553800</v>
+      </c>
+      <c r="K8" s="3">
         <v>12527300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10814500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8738400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7528000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9357600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9601400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8777800</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8403100</v>
+        <v>9510800</v>
       </c>
       <c r="E9" s="3">
-        <v>6993300</v>
+        <v>8293800</v>
       </c>
       <c r="F9" s="3">
-        <v>8751800</v>
+        <v>6902300</v>
       </c>
       <c r="G9" s="3">
-        <v>8010700</v>
+        <v>8637900</v>
       </c>
       <c r="H9" s="3">
-        <v>9249800</v>
+        <v>7906400</v>
       </c>
       <c r="I9" s="3">
-        <v>8661400</v>
+        <v>9129400</v>
       </c>
       <c r="J9" s="3">
+        <v>8548700</v>
+      </c>
+      <c r="K9" s="3">
         <v>8322900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7260700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5505300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3747700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4869000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5130900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5071300</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5546100</v>
+        <v>4990200</v>
       </c>
       <c r="E10" s="3">
-        <v>5212900</v>
+        <v>5473900</v>
       </c>
       <c r="F10" s="3">
-        <v>5210700</v>
+        <v>5145100</v>
       </c>
       <c r="G10" s="3">
-        <v>4888200</v>
+        <v>5142900</v>
       </c>
       <c r="H10" s="3">
-        <v>4203400</v>
+        <v>4824600</v>
       </c>
       <c r="I10" s="3">
-        <v>4057900</v>
+        <v>4148700</v>
       </c>
       <c r="J10" s="3">
+        <v>4005100</v>
+      </c>
+      <c r="K10" s="3">
         <v>4204400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3553900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3233100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3780300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4488500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4470500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3706500</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -884,19 +897,20 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>95300</v>
+        <v>18700</v>
       </c>
       <c r="E12" s="3">
-        <v>8800</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>8</v>
+        <v>94100</v>
+      </c>
+      <c r="F12" s="3">
+        <v>8700</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>8</v>
@@ -928,8 +942,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -972,19 +989,22 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1483800</v>
+        <v>-27000</v>
       </c>
       <c r="E14" s="3">
+        <v>1464500</v>
+      </c>
+      <c r="F14" s="3">
         <v>-400</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -998,8 +1018,8 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1016,52 +1036,58 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1774700</v>
+        <v>1718500</v>
       </c>
       <c r="E15" s="3">
-        <v>1700300</v>
+        <v>1751600</v>
       </c>
       <c r="F15" s="3">
-        <v>1743100</v>
+        <v>1678200</v>
       </c>
       <c r="G15" s="3">
-        <v>1668100</v>
+        <v>1720400</v>
       </c>
       <c r="H15" s="3">
-        <v>1613600</v>
+        <v>1646400</v>
       </c>
       <c r="I15" s="3">
-        <v>1579300</v>
+        <v>1592600</v>
       </c>
       <c r="J15" s="3">
+        <v>1558800</v>
+      </c>
+      <c r="K15" s="3">
         <v>1565400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1550200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1074100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1064600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1086400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1052400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>851300</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1075,96 +1101,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>14028800</v>
+        <v>13088600</v>
       </c>
       <c r="E17" s="3">
-        <v>10267300</v>
+        <v>13846200</v>
       </c>
       <c r="F17" s="3">
-        <v>13665800</v>
+        <v>10133700</v>
       </c>
       <c r="G17" s="3">
-        <v>11264400</v>
+        <v>13488000</v>
       </c>
       <c r="H17" s="3">
-        <v>13078300</v>
+        <v>11117800</v>
       </c>
       <c r="I17" s="3">
-        <v>11516300</v>
+        <v>12908100</v>
       </c>
       <c r="J17" s="3">
+        <v>11366400</v>
+      </c>
+      <c r="K17" s="3">
         <v>11885100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10040400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7919400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5700300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7631500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7002300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7198900</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-79500</v>
+        <v>1412400</v>
       </c>
       <c r="E18" s="3">
-        <v>1938900</v>
+        <v>-78500</v>
       </c>
       <c r="F18" s="3">
-        <v>296600</v>
+        <v>1913700</v>
       </c>
       <c r="G18" s="3">
-        <v>1634400</v>
+        <v>292800</v>
       </c>
       <c r="H18" s="3">
-        <v>374900</v>
+        <v>1613200</v>
       </c>
       <c r="I18" s="3">
-        <v>1203000</v>
+        <v>370000</v>
       </c>
       <c r="J18" s="3">
+        <v>1187400</v>
+      </c>
+      <c r="K18" s="3">
         <v>642200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>774100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>819000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1827700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1726000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2599100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1578900</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1181,228 +1214,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>161400</v>
+        <v>147300</v>
       </c>
       <c r="E20" s="3">
-        <v>159400</v>
+        <v>159300</v>
       </c>
       <c r="F20" s="3">
-        <v>115500</v>
+        <v>157400</v>
       </c>
       <c r="G20" s="3">
-        <v>119200</v>
+        <v>114000</v>
       </c>
       <c r="H20" s="3">
-        <v>298100</v>
+        <v>117700</v>
       </c>
       <c r="I20" s="3">
-        <v>67700</v>
+        <v>294300</v>
       </c>
       <c r="J20" s="3">
+        <v>66900</v>
+      </c>
+      <c r="K20" s="3">
         <v>460500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>63500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>232800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>93300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>98900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>162400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>111900</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>156200</v>
+        <v>3278100</v>
       </c>
       <c r="E21" s="3">
-        <v>3798700</v>
+        <v>154100</v>
       </c>
       <c r="F21" s="3">
-        <v>492300</v>
+        <v>3749200</v>
       </c>
       <c r="G21" s="3">
-        <v>3427100</v>
+        <v>485900</v>
       </c>
       <c r="H21" s="3">
-        <v>706900</v>
+        <v>3382500</v>
       </c>
       <c r="I21" s="3">
-        <v>2858600</v>
+        <v>697700</v>
       </c>
       <c r="J21" s="3">
+        <v>2821400</v>
+      </c>
+      <c r="K21" s="3">
         <v>1082900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2397600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1048200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2985600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1859900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3813800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1699700</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>678100</v>
+        <v>655800</v>
       </c>
       <c r="E22" s="3">
-        <v>757300</v>
+        <v>669300</v>
       </c>
       <c r="F22" s="3">
-        <v>821300</v>
+        <v>747400</v>
       </c>
       <c r="G22" s="3">
-        <v>857800</v>
+        <v>810600</v>
       </c>
       <c r="H22" s="3">
-        <v>834300</v>
+        <v>846700</v>
       </c>
       <c r="I22" s="3">
-        <v>801700</v>
+        <v>823400</v>
       </c>
       <c r="J22" s="3">
+        <v>791300</v>
+      </c>
+      <c r="K22" s="3">
         <v>793500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>712400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>499300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>484900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>572600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>606700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>594400</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-596300</v>
+        <v>903900</v>
       </c>
       <c r="E23" s="3">
-        <v>1341000</v>
+        <v>-588500</v>
       </c>
       <c r="F23" s="3">
-        <v>-409100</v>
+        <v>1323600</v>
       </c>
       <c r="G23" s="3">
-        <v>895800</v>
+        <v>-403800</v>
       </c>
       <c r="H23" s="3">
-        <v>-161200</v>
+        <v>884100</v>
       </c>
       <c r="I23" s="3">
-        <v>469100</v>
+        <v>-159100</v>
       </c>
       <c r="J23" s="3">
+        <v>462900</v>
+      </c>
+      <c r="K23" s="3">
         <v>309200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>125300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>552400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1436100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1252400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2154800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1096400</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>41800</v>
+        <v>162700</v>
       </c>
       <c r="E24" s="3">
-        <v>295700</v>
+        <v>41200</v>
       </c>
       <c r="F24" s="3">
-        <v>103700</v>
+        <v>291900</v>
       </c>
       <c r="G24" s="3">
-        <v>210100</v>
+        <v>102400</v>
       </c>
       <c r="H24" s="3">
-        <v>-15800</v>
+        <v>207300</v>
       </c>
       <c r="I24" s="3">
-        <v>116200</v>
+        <v>-15600</v>
       </c>
       <c r="J24" s="3">
+        <v>114700</v>
+      </c>
+      <c r="K24" s="3">
         <v>115200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>73200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>152700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>346400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>319300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>526500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>348700</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1445,96 +1494,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-638100</v>
+        <v>741100</v>
       </c>
       <c r="E26" s="3">
-        <v>1045300</v>
+        <v>-629800</v>
       </c>
       <c r="F26" s="3">
-        <v>-512800</v>
+        <v>1031700</v>
       </c>
       <c r="G26" s="3">
-        <v>685700</v>
+        <v>-506200</v>
       </c>
       <c r="H26" s="3">
-        <v>-145400</v>
+        <v>676800</v>
       </c>
       <c r="I26" s="3">
-        <v>352900</v>
+        <v>-143500</v>
       </c>
       <c r="J26" s="3">
+        <v>348300</v>
+      </c>
+      <c r="K26" s="3">
         <v>193900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>52100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>399800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1089800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>933100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1628300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>747700</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-640000</v>
+        <v>455600</v>
       </c>
       <c r="E27" s="3">
-        <v>734800</v>
+        <v>-631700</v>
       </c>
       <c r="F27" s="3">
-        <v>-481900</v>
+        <v>725200</v>
       </c>
       <c r="G27" s="3">
-        <v>494400</v>
+        <v>-475600</v>
       </c>
       <c r="H27" s="3">
-        <v>-208900</v>
+        <v>488000</v>
       </c>
       <c r="I27" s="3">
-        <v>270100</v>
+        <v>-206200</v>
       </c>
       <c r="J27" s="3">
+        <v>266600</v>
+      </c>
+      <c r="K27" s="3">
         <v>197700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>37300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>340400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>886300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>697700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1328400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>574300</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1577,8 +1635,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1621,8 +1682,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1665,8 +1729,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1709,96 +1776,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-161400</v>
+        <v>-147300</v>
       </c>
       <c r="E32" s="3">
-        <v>-159400</v>
+        <v>-159300</v>
       </c>
       <c r="F32" s="3">
-        <v>-115500</v>
+        <v>-157400</v>
       </c>
       <c r="G32" s="3">
-        <v>-119200</v>
+        <v>-114000</v>
       </c>
       <c r="H32" s="3">
-        <v>-298100</v>
+        <v>-117700</v>
       </c>
       <c r="I32" s="3">
-        <v>-67700</v>
+        <v>-294300</v>
       </c>
       <c r="J32" s="3">
+        <v>-66900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-460500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-63500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-232800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-93300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-98900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-162400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-111900</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-640000</v>
+        <v>455600</v>
       </c>
       <c r="E33" s="3">
-        <v>734800</v>
+        <v>-631700</v>
       </c>
       <c r="F33" s="3">
-        <v>-481900</v>
+        <v>725200</v>
       </c>
       <c r="G33" s="3">
-        <v>494400</v>
+        <v>-475600</v>
       </c>
       <c r="H33" s="3">
-        <v>-208900</v>
+        <v>488000</v>
       </c>
       <c r="I33" s="3">
-        <v>270100</v>
+        <v>-206200</v>
       </c>
       <c r="J33" s="3">
+        <v>266600</v>
+      </c>
+      <c r="K33" s="3">
         <v>197700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>37300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>340400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>886300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>697700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1328400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>574300</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1841,101 +1917,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-640000</v>
+        <v>455600</v>
       </c>
       <c r="E35" s="3">
-        <v>734800</v>
+        <v>-631700</v>
       </c>
       <c r="F35" s="3">
-        <v>-481900</v>
+        <v>725200</v>
       </c>
       <c r="G35" s="3">
-        <v>494400</v>
+        <v>-475600</v>
       </c>
       <c r="H35" s="3">
-        <v>-208900</v>
+        <v>488000</v>
       </c>
       <c r="I35" s="3">
-        <v>270100</v>
+        <v>-206200</v>
       </c>
       <c r="J35" s="3">
+        <v>266600</v>
+      </c>
+      <c r="K35" s="3">
         <v>197700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>37300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>340400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>886300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>697700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1328400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>574300</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42916</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42551</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42369</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42185</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1952,8 +2037,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1970,78 +2056,82 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2068400</v>
+        <v>2098100</v>
       </c>
       <c r="E41" s="3">
-        <v>2325900</v>
+        <v>2041500</v>
       </c>
       <c r="F41" s="3">
-        <v>1941300</v>
+        <v>2295600</v>
       </c>
       <c r="G41" s="3">
-        <v>2019500</v>
+        <v>1916000</v>
       </c>
       <c r="H41" s="3">
-        <v>2403000</v>
+        <v>1993200</v>
       </c>
       <c r="I41" s="3">
-        <v>2525700</v>
+        <v>2371700</v>
       </c>
       <c r="J41" s="3">
+        <v>2492800</v>
+      </c>
+      <c r="K41" s="3">
         <v>1448100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1852500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1134300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1271100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1109800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1482900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1779800</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>71400</v>
+        <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>68700</v>
+        <v>70500</v>
       </c>
       <c r="H42" s="3">
-        <v>85900</v>
+        <v>67800</v>
       </c>
       <c r="I42" s="3">
-        <v>0</v>
+        <v>84800</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>95900</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>8</v>
@@ -2058,316 +2148,340 @@
       <c r="P42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6843000</v>
+        <v>7046100</v>
       </c>
       <c r="E43" s="3">
-        <v>6334100</v>
+        <v>6753900</v>
       </c>
       <c r="F43" s="3">
-        <v>5755900</v>
+        <v>6251700</v>
       </c>
       <c r="G43" s="3">
-        <v>5103400</v>
+        <v>5681100</v>
       </c>
       <c r="H43" s="3">
-        <v>5273100</v>
+        <v>5037000</v>
       </c>
       <c r="I43" s="3">
-        <v>4560300</v>
+        <v>5204500</v>
       </c>
       <c r="J43" s="3">
+        <v>4500900</v>
+      </c>
+      <c r="K43" s="3">
         <v>4710600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3850700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2937000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2173600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2846100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2479300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2660500</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1030000</v>
+        <v>1336900</v>
       </c>
       <c r="E44" s="3">
-        <v>1253800</v>
+        <v>1016600</v>
       </c>
       <c r="F44" s="3">
-        <v>1385900</v>
+        <v>1237500</v>
       </c>
       <c r="G44" s="3">
-        <v>1602300</v>
+        <v>1367800</v>
       </c>
       <c r="H44" s="3">
-        <v>1488900</v>
+        <v>1581400</v>
       </c>
       <c r="I44" s="3">
-        <v>1396300</v>
+        <v>1469500</v>
       </c>
       <c r="J44" s="3">
+        <v>1378200</v>
+      </c>
+      <c r="K44" s="3">
         <v>1152200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1283100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>999100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>765400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>804800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>898500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>974700</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>376700</v>
+        <v>577200</v>
       </c>
       <c r="E45" s="3">
-        <v>374200</v>
+        <v>371800</v>
       </c>
       <c r="F45" s="3">
-        <v>328000</v>
+        <v>369300</v>
       </c>
       <c r="G45" s="3">
-        <v>589600</v>
+        <v>323700</v>
       </c>
       <c r="H45" s="3">
-        <v>390400</v>
+        <v>581900</v>
       </c>
       <c r="I45" s="3">
-        <v>283200</v>
+        <v>385300</v>
       </c>
       <c r="J45" s="3">
+        <v>279500</v>
+      </c>
+      <c r="K45" s="3">
         <v>165500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>734100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>298300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>252200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>220700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>234800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>91800</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10318100</v>
+        <v>11058300</v>
       </c>
       <c r="E46" s="3">
-        <v>10288000</v>
+        <v>10183900</v>
       </c>
       <c r="F46" s="3">
-        <v>9482500</v>
+        <v>10154200</v>
       </c>
       <c r="G46" s="3">
-        <v>9383400</v>
+        <v>9359100</v>
       </c>
       <c r="H46" s="3">
-        <v>9641300</v>
+        <v>9261300</v>
       </c>
       <c r="I46" s="3">
-        <v>8765500</v>
+        <v>9515800</v>
       </c>
       <c r="J46" s="3">
+        <v>8651500</v>
+      </c>
+      <c r="K46" s="3">
         <v>7572400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7720400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5368700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4462300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4981400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5095500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5506700</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5928100</v>
+        <v>5885100</v>
       </c>
       <c r="E47" s="3">
-        <v>5876600</v>
+        <v>5851000</v>
       </c>
       <c r="F47" s="3">
-        <v>5656200</v>
+        <v>5800100</v>
       </c>
       <c r="G47" s="3">
-        <v>5756800</v>
+        <v>5582600</v>
       </c>
       <c r="H47" s="3">
-        <v>5643100</v>
+        <v>5681900</v>
       </c>
       <c r="I47" s="3">
-        <v>3934700</v>
+        <v>5569700</v>
       </c>
       <c r="J47" s="3">
+        <v>3883500</v>
+      </c>
+      <c r="K47" s="3">
         <v>3857500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4053300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3667500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3938500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4006200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3852800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3412900</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>49784500</v>
+        <v>49430400</v>
       </c>
       <c r="E48" s="3">
-        <v>48106200</v>
+        <v>49136700</v>
       </c>
       <c r="F48" s="3">
-        <v>47343200</v>
+        <v>47480300</v>
       </c>
       <c r="G48" s="3">
-        <v>45497300</v>
+        <v>46727200</v>
       </c>
       <c r="H48" s="3">
-        <v>44040700</v>
+        <v>44905300</v>
       </c>
       <c r="I48" s="3">
-        <v>43533400</v>
+        <v>43467600</v>
       </c>
       <c r="J48" s="3">
+        <v>42966900</v>
+      </c>
+      <c r="K48" s="3">
         <v>44391900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>43545200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>32395300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>31397500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>32601700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>32015300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>27396000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3268100</v>
+        <v>3159400</v>
       </c>
       <c r="E49" s="3">
-        <v>3438100</v>
+        <v>3225600</v>
       </c>
       <c r="F49" s="3">
-        <v>3501900</v>
+        <v>3393300</v>
       </c>
       <c r="G49" s="3">
-        <v>3391600</v>
+        <v>3456300</v>
       </c>
       <c r="H49" s="3">
-        <v>5186900</v>
+        <v>3347400</v>
       </c>
       <c r="I49" s="3">
-        <v>5115900</v>
+        <v>5119400</v>
       </c>
       <c r="J49" s="3">
+        <v>5049300</v>
+      </c>
+      <c r="K49" s="3">
         <v>5149800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5079900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3848400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2643700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2590300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2854700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3312200</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2410,8 +2524,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2454,52 +2571,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>890800</v>
+        <v>1226400</v>
       </c>
       <c r="E52" s="3">
-        <v>834300</v>
+        <v>879200</v>
       </c>
       <c r="F52" s="3">
-        <v>827500</v>
+        <v>823500</v>
       </c>
       <c r="G52" s="3">
-        <v>1104200</v>
+        <v>816700</v>
       </c>
       <c r="H52" s="3">
-        <v>997200</v>
+        <v>1089800</v>
       </c>
       <c r="I52" s="3">
-        <v>865100</v>
+        <v>984200</v>
       </c>
       <c r="J52" s="3">
+        <v>853900</v>
+      </c>
+      <c r="K52" s="3">
         <v>900300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>579600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>444300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1621700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1659200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1540400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>390400</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2542,52 +2665,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>70189600</v>
+        <v>70759500</v>
       </c>
       <c r="E54" s="3">
-        <v>68543300</v>
+        <v>69276300</v>
       </c>
       <c r="F54" s="3">
-        <v>66811300</v>
+        <v>67651400</v>
       </c>
       <c r="G54" s="3">
-        <v>65133300</v>
+        <v>65941900</v>
       </c>
       <c r="H54" s="3">
-        <v>65509100</v>
+        <v>64285800</v>
       </c>
       <c r="I54" s="3">
-        <v>62214600</v>
+        <v>64656700</v>
       </c>
       <c r="J54" s="3">
+        <v>61405100</v>
+      </c>
+      <c r="K54" s="3">
         <v>61871900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>60978300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>45724200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>44063700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>45838900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>45358600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>40018200</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2604,8 +2733,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2622,272 +2752,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2461500</v>
+        <v>2934900</v>
       </c>
       <c r="E57" s="3">
-        <v>2273200</v>
+        <v>2429500</v>
       </c>
       <c r="F57" s="3">
-        <v>2472900</v>
+        <v>2243700</v>
       </c>
       <c r="G57" s="3">
-        <v>2263800</v>
+        <v>2440700</v>
       </c>
       <c r="H57" s="3">
-        <v>2290800</v>
+        <v>2234300</v>
       </c>
       <c r="I57" s="3">
-        <v>2498200</v>
+        <v>2261000</v>
       </c>
       <c r="J57" s="3">
+        <v>2465700</v>
+      </c>
+      <c r="K57" s="3">
         <v>2417600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2458600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4113700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3372500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3813800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3809400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3639800</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>16455600</v>
+        <v>14088400</v>
       </c>
       <c r="E58" s="3">
-        <v>14489900</v>
+        <v>16241400</v>
       </c>
       <c r="F58" s="3">
-        <v>15294500</v>
+        <v>14301400</v>
       </c>
       <c r="G58" s="3">
-        <v>17317700</v>
+        <v>15095500</v>
       </c>
       <c r="H58" s="3">
-        <v>15163300</v>
+        <v>17092300</v>
       </c>
       <c r="I58" s="3">
-        <v>15884600</v>
+        <v>14966000</v>
       </c>
       <c r="J58" s="3">
+        <v>15677900</v>
+      </c>
+      <c r="K58" s="3">
         <v>17693900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>19256200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>14208700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>11625600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>13811500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>13072400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>10789000</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5116000</v>
+        <v>5146800</v>
       </c>
       <c r="E59" s="3">
-        <v>4474100</v>
+        <v>5049400</v>
       </c>
       <c r="F59" s="3">
-        <v>4326800</v>
+        <v>4415900</v>
       </c>
       <c r="G59" s="3">
-        <v>3406700</v>
+        <v>4270500</v>
       </c>
       <c r="H59" s="3">
-        <v>4107400</v>
+        <v>3362400</v>
       </c>
       <c r="I59" s="3">
-        <v>3657800</v>
+        <v>4054000</v>
       </c>
       <c r="J59" s="3">
+        <v>3610200</v>
+      </c>
+      <c r="K59" s="3">
         <v>4218300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4181000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>586100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1605700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>753300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1505300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>819000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>24033000</v>
+        <v>22170100</v>
       </c>
       <c r="E60" s="3">
-        <v>21237300</v>
+        <v>23720300</v>
       </c>
       <c r="F60" s="3">
-        <v>22094200</v>
+        <v>20960900</v>
       </c>
       <c r="G60" s="3">
-        <v>22988200</v>
+        <v>21806700</v>
       </c>
       <c r="H60" s="3">
-        <v>21561600</v>
+        <v>22689100</v>
       </c>
       <c r="I60" s="3">
-        <v>22040500</v>
+        <v>21281000</v>
       </c>
       <c r="J60" s="3">
+        <v>21753800</v>
+      </c>
+      <c r="K60" s="3">
         <v>24329800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>25895800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>18908400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>16603700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>18378600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>18387100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>15247800</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>21258800</v>
+        <v>23596700</v>
       </c>
       <c r="E61" s="3">
-        <v>22663000</v>
+        <v>20982200</v>
       </c>
       <c r="F61" s="3">
-        <v>23110000</v>
+        <v>22368200</v>
       </c>
       <c r="G61" s="3">
-        <v>22189100</v>
+        <v>22809300</v>
       </c>
       <c r="H61" s="3">
-        <v>24438800</v>
+        <v>21900400</v>
       </c>
       <c r="I61" s="3">
-        <v>21855000</v>
+        <v>24120800</v>
       </c>
       <c r="J61" s="3">
+        <v>21570700</v>
+      </c>
+      <c r="K61" s="3">
         <v>19369300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>17763500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>11283400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>12014200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>11604600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>12603500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>11917700</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1244200</v>
+        <v>1431200</v>
       </c>
       <c r="E62" s="3">
-        <v>1237000</v>
+        <v>1228000</v>
       </c>
       <c r="F62" s="3">
-        <v>1266600</v>
+        <v>1221000</v>
       </c>
       <c r="G62" s="3">
-        <v>1375100</v>
+        <v>1250200</v>
       </c>
       <c r="H62" s="3">
-        <v>1392600</v>
+        <v>1357200</v>
       </c>
       <c r="I62" s="3">
-        <v>1352300</v>
+        <v>1374500</v>
       </c>
       <c r="J62" s="3">
+        <v>1334700</v>
+      </c>
+      <c r="K62" s="3">
         <v>1383900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1358100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>691800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>749600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>763300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>734100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>522800</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2930,8 +3079,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2974,8 +3126,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3018,52 +3173,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>49932400</v>
+        <v>50916900</v>
       </c>
       <c r="E66" s="3">
-        <v>48699600</v>
+        <v>49282600</v>
       </c>
       <c r="F66" s="3">
-        <v>49836800</v>
+        <v>48065900</v>
       </c>
       <c r="G66" s="3">
-        <v>50007200</v>
+        <v>49188300</v>
       </c>
       <c r="H66" s="3">
-        <v>50776200</v>
+        <v>49356500</v>
       </c>
       <c r="I66" s="3">
-        <v>48519300</v>
+        <v>50115500</v>
       </c>
       <c r="J66" s="3">
+        <v>47887900</v>
+      </c>
+      <c r="K66" s="3">
         <v>48199000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>48424800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>33234000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>31986500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>33351300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>34266300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>29819300</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3080,8 +3241,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3124,8 +3286,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3168,8 +3333,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3212,8 +3380,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3256,52 +3427,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6450500</v>
+        <v>6248300</v>
       </c>
       <c r="E72" s="3">
-        <v>7085100</v>
+        <v>6366600</v>
       </c>
       <c r="F72" s="3">
-        <v>6680800</v>
+        <v>6992900</v>
       </c>
       <c r="G72" s="3">
-        <v>7072500</v>
+        <v>6593800</v>
       </c>
       <c r="H72" s="3">
-        <v>6822900</v>
+        <v>6980500</v>
       </c>
       <c r="I72" s="3">
-        <v>7026800</v>
+        <v>6734100</v>
       </c>
       <c r="J72" s="3">
+        <v>6935400</v>
+      </c>
+      <c r="K72" s="3">
         <v>7027500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6688300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6962600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6542400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6910800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6213100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5583500</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3344,8 +3521,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3388,8 +3568,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3432,52 +3615,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>20257300</v>
+        <v>19842700</v>
       </c>
       <c r="E76" s="3">
-        <v>19843700</v>
+        <v>19993700</v>
       </c>
       <c r="F76" s="3">
-        <v>16974500</v>
+        <v>19585500</v>
       </c>
       <c r="G76" s="3">
-        <v>15126100</v>
+        <v>16753600</v>
       </c>
       <c r="H76" s="3">
-        <v>14732900</v>
+        <v>14929200</v>
       </c>
       <c r="I76" s="3">
-        <v>13695300</v>
+        <v>14541200</v>
       </c>
       <c r="J76" s="3">
+        <v>13517100</v>
+      </c>
+      <c r="K76" s="3">
         <v>13673000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12553600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12490200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12077300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12487500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>11092300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10198900</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3520,101 +3709,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42916</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42551</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42369</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42185</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-640000</v>
+        <v>455600</v>
       </c>
       <c r="E81" s="3">
-        <v>734800</v>
+        <v>-631700</v>
       </c>
       <c r="F81" s="3">
-        <v>-481900</v>
+        <v>725200</v>
       </c>
       <c r="G81" s="3">
-        <v>494400</v>
+        <v>-475600</v>
       </c>
       <c r="H81" s="3">
-        <v>-208900</v>
+        <v>488000</v>
       </c>
       <c r="I81" s="3">
-        <v>270100</v>
+        <v>-206200</v>
       </c>
       <c r="J81" s="3">
+        <v>266600</v>
+      </c>
+      <c r="K81" s="3">
         <v>197700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>37300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>340400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>886300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>697700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1328400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>574300</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3631,31 +3829,32 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>1718500</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -3675,8 +3874,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3719,8 +3921,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3763,8 +3968,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3807,8 +4015,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3851,8 +4062,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3895,52 +4109,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4079800</v>
+        <v>2946300</v>
       </c>
       <c r="E89" s="3">
-        <v>2470600</v>
+        <v>4026800</v>
       </c>
       <c r="F89" s="3">
-        <v>3211600</v>
+        <v>2438400</v>
       </c>
       <c r="G89" s="3">
-        <v>2611400</v>
+        <v>3169800</v>
       </c>
       <c r="H89" s="3">
-        <v>2123700</v>
+        <v>2577400</v>
       </c>
       <c r="I89" s="3">
-        <v>2358200</v>
+        <v>2096000</v>
       </c>
       <c r="J89" s="3">
+        <v>2327500</v>
+      </c>
+      <c r="K89" s="3">
         <v>2323800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2185100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1749300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2792900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2718000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3569000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2482700</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3957,52 +4177,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4116900</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
-        <v>-2522600</v>
+        <v>-4063300</v>
       </c>
       <c r="F91" s="3">
-        <v>-3156800</v>
+        <v>-2489800</v>
       </c>
       <c r="G91" s="3">
-        <v>-1739200</v>
+        <v>-3115700</v>
       </c>
       <c r="H91" s="3">
-        <v>-2142600</v>
+        <v>-1716600</v>
       </c>
       <c r="I91" s="3">
-        <v>-1073300</v>
+        <v>-2114700</v>
       </c>
       <c r="J91" s="3">
+        <v>-1059300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2389300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1601600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1863000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1049900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1905100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1685200</v>
       </c>
-      <c r="P91" s="3" t="s">
+      <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4045,8 +4269,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4089,52 +4316,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4117400</v>
+        <v>-2630800</v>
       </c>
       <c r="E94" s="3">
-        <v>-2472000</v>
+        <v>-4063900</v>
       </c>
       <c r="F94" s="3">
-        <v>-2969200</v>
+        <v>-2439800</v>
       </c>
       <c r="G94" s="3">
-        <v>-1560400</v>
+        <v>-2930600</v>
       </c>
       <c r="H94" s="3">
-        <v>-2226500</v>
+        <v>-1540100</v>
       </c>
       <c r="I94" s="3">
-        <v>-952300</v>
+        <v>-2197600</v>
       </c>
       <c r="J94" s="3">
+        <v>-939900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1790900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3096800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1573100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-978300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1871500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3028300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1869600</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4151,38 +4384,39 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-330600</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-326300</v>
       </c>
       <c r="F96" s="3">
-        <v>-73300</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-171600</v>
+        <v>-72400</v>
       </c>
       <c r="H96" s="3">
-        <v>-67800</v>
+        <v>-169300</v>
       </c>
       <c r="I96" s="3">
-        <v>-169400</v>
+        <v>-66900</v>
       </c>
       <c r="J96" s="3">
+        <v>-167200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-204100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-465200</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -4195,8 +4429,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4239,8 +4476,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4283,8 +4523,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4327,136 +4570,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-138100</v>
+        <v>-270200</v>
       </c>
       <c r="E100" s="3">
-        <v>419500</v>
+        <v>-136300</v>
       </c>
       <c r="F100" s="3">
-        <v>-339300</v>
+        <v>414100</v>
       </c>
       <c r="G100" s="3">
-        <v>-1428000</v>
+        <v>-334900</v>
       </c>
       <c r="H100" s="3">
-        <v>-23200</v>
+        <v>-1409400</v>
       </c>
       <c r="I100" s="3">
-        <v>-326800</v>
+        <v>-22900</v>
       </c>
       <c r="J100" s="3">
+        <v>-322500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-975900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1568900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-325700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1629800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1225200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-873400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-512800</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-81800</v>
+        <v>11300</v>
       </c>
       <c r="E101" s="3">
-        <v>-33500</v>
+        <v>-80700</v>
       </c>
       <c r="F101" s="3">
-        <v>17000</v>
+        <v>-33100</v>
       </c>
       <c r="G101" s="3">
-        <v>-7100</v>
+        <v>16800</v>
       </c>
       <c r="H101" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="I101" s="3">
         <v>5600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>13200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>5500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-16200</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-257500</v>
+        <v>56600</v>
       </c>
       <c r="E102" s="3">
-        <v>384600</v>
+        <v>-254200</v>
       </c>
       <c r="F102" s="3">
-        <v>-80000</v>
+        <v>379600</v>
       </c>
       <c r="G102" s="3">
-        <v>-384100</v>
+        <v>-78900</v>
       </c>
       <c r="H102" s="3">
-        <v>-120400</v>
+        <v>-379100</v>
       </c>
       <c r="I102" s="3">
-        <v>1077600</v>
+        <v>-118800</v>
       </c>
       <c r="J102" s="3">
+        <v>1063500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-445000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>660600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-152300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>198100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-373100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-333400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>84100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HNP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HNP_QTR_FIN.xlsx
@@ -744,25 +744,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14501000</v>
+        <v>14743900</v>
       </c>
       <c r="E8" s="3">
-        <v>13767700</v>
+        <v>13998400</v>
       </c>
       <c r="F8" s="3">
-        <v>12047400</v>
+        <v>12249200</v>
       </c>
       <c r="G8" s="3">
-        <v>13780700</v>
+        <v>14011700</v>
       </c>
       <c r="H8" s="3">
-        <v>12731000</v>
+        <v>12944300</v>
       </c>
       <c r="I8" s="3">
-        <v>13278100</v>
+        <v>13500600</v>
       </c>
       <c r="J8" s="3">
-        <v>12553800</v>
+        <v>12764100</v>
       </c>
       <c r="K8" s="3">
         <v>12527300</v>
@@ -791,25 +791,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9510800</v>
+        <v>9670100</v>
       </c>
       <c r="E9" s="3">
-        <v>8293800</v>
+        <v>8432800</v>
       </c>
       <c r="F9" s="3">
-        <v>6902300</v>
+        <v>7017900</v>
       </c>
       <c r="G9" s="3">
-        <v>8637900</v>
+        <v>8782600</v>
       </c>
       <c r="H9" s="3">
-        <v>7906400</v>
+        <v>8038900</v>
       </c>
       <c r="I9" s="3">
-        <v>9129400</v>
+        <v>9282400</v>
       </c>
       <c r="J9" s="3">
-        <v>8548700</v>
+        <v>8692000</v>
       </c>
       <c r="K9" s="3">
         <v>8322900</v>
@@ -838,25 +838,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4990200</v>
+        <v>5073800</v>
       </c>
       <c r="E10" s="3">
-        <v>5473900</v>
+        <v>5565700</v>
       </c>
       <c r="F10" s="3">
-        <v>5145100</v>
+        <v>5231300</v>
       </c>
       <c r="G10" s="3">
-        <v>5142900</v>
+        <v>5229000</v>
       </c>
       <c r="H10" s="3">
-        <v>4824600</v>
+        <v>4905400</v>
       </c>
       <c r="I10" s="3">
-        <v>4148700</v>
+        <v>4218200</v>
       </c>
       <c r="J10" s="3">
-        <v>4005100</v>
+        <v>4072200</v>
       </c>
       <c r="K10" s="3">
         <v>4204400</v>
@@ -904,13 +904,13 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>18700</v>
+        <v>19000</v>
       </c>
       <c r="E12" s="3">
-        <v>94100</v>
+        <v>95700</v>
       </c>
       <c r="F12" s="3">
-        <v>8700</v>
+        <v>8900</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>8</v>
@@ -998,10 +998,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-27000</v>
+        <v>-27500</v>
       </c>
       <c r="E14" s="3">
-        <v>1464500</v>
+        <v>1489100</v>
       </c>
       <c r="F14" s="3">
         <v>-400</v>
@@ -1045,25 +1045,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1718500</v>
+        <v>1747300</v>
       </c>
       <c r="E15" s="3">
-        <v>1751600</v>
+        <v>1781000</v>
       </c>
       <c r="F15" s="3">
-        <v>1678200</v>
+        <v>1706300</v>
       </c>
       <c r="G15" s="3">
-        <v>1720400</v>
+        <v>1749200</v>
       </c>
       <c r="H15" s="3">
-        <v>1646400</v>
+        <v>1673900</v>
       </c>
       <c r="I15" s="3">
-        <v>1592600</v>
+        <v>1619300</v>
       </c>
       <c r="J15" s="3">
-        <v>1558800</v>
+        <v>1584900</v>
       </c>
       <c r="K15" s="3">
         <v>1565400</v>
@@ -1108,25 +1108,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13088600</v>
+        <v>13307900</v>
       </c>
       <c r="E17" s="3">
-        <v>13846200</v>
+        <v>14078200</v>
       </c>
       <c r="F17" s="3">
-        <v>10133700</v>
+        <v>10303500</v>
       </c>
       <c r="G17" s="3">
-        <v>13488000</v>
+        <v>13714000</v>
       </c>
       <c r="H17" s="3">
-        <v>11117800</v>
+        <v>11304100</v>
       </c>
       <c r="I17" s="3">
-        <v>12908100</v>
+        <v>13124400</v>
       </c>
       <c r="J17" s="3">
-        <v>11366400</v>
+        <v>11556900</v>
       </c>
       <c r="K17" s="3">
         <v>11885100</v>
@@ -1155,25 +1155,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1412400</v>
+        <v>1436000</v>
       </c>
       <c r="E18" s="3">
-        <v>-78500</v>
+        <v>-79800</v>
       </c>
       <c r="F18" s="3">
-        <v>1913700</v>
+        <v>1945700</v>
       </c>
       <c r="G18" s="3">
-        <v>292800</v>
+        <v>297700</v>
       </c>
       <c r="H18" s="3">
-        <v>1613200</v>
+        <v>1640200</v>
       </c>
       <c r="I18" s="3">
-        <v>370000</v>
+        <v>376200</v>
       </c>
       <c r="J18" s="3">
-        <v>1187400</v>
+        <v>1207300</v>
       </c>
       <c r="K18" s="3">
         <v>642200</v>
@@ -1221,25 +1221,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>147300</v>
+        <v>149700</v>
       </c>
       <c r="E20" s="3">
-        <v>159300</v>
+        <v>161900</v>
       </c>
       <c r="F20" s="3">
-        <v>157400</v>
+        <v>160000</v>
       </c>
       <c r="G20" s="3">
-        <v>114000</v>
+        <v>115900</v>
       </c>
       <c r="H20" s="3">
-        <v>117700</v>
+        <v>119600</v>
       </c>
       <c r="I20" s="3">
-        <v>294300</v>
+        <v>299200</v>
       </c>
       <c r="J20" s="3">
-        <v>66900</v>
+        <v>68000</v>
       </c>
       <c r="K20" s="3">
         <v>460500</v>
@@ -1268,25 +1268,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3278100</v>
+        <v>3333100</v>
       </c>
       <c r="E21" s="3">
-        <v>154100</v>
+        <v>156700</v>
       </c>
       <c r="F21" s="3">
-        <v>3749200</v>
+        <v>3812100</v>
       </c>
       <c r="G21" s="3">
-        <v>485900</v>
+        <v>494000</v>
       </c>
       <c r="H21" s="3">
-        <v>3382500</v>
+        <v>3439100</v>
       </c>
       <c r="I21" s="3">
-        <v>697700</v>
+        <v>709400</v>
       </c>
       <c r="J21" s="3">
-        <v>2821400</v>
+        <v>2868600</v>
       </c>
       <c r="K21" s="3">
         <v>1082900</v>
@@ -1315,25 +1315,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>655800</v>
+        <v>666800</v>
       </c>
       <c r="E22" s="3">
-        <v>669300</v>
+        <v>680500</v>
       </c>
       <c r="F22" s="3">
-        <v>747400</v>
+        <v>760000</v>
       </c>
       <c r="G22" s="3">
-        <v>810600</v>
+        <v>824200</v>
       </c>
       <c r="H22" s="3">
-        <v>846700</v>
+        <v>860900</v>
       </c>
       <c r="I22" s="3">
-        <v>823400</v>
+        <v>837200</v>
       </c>
       <c r="J22" s="3">
-        <v>791300</v>
+        <v>804500</v>
       </c>
       <c r="K22" s="3">
         <v>793500</v>
@@ -1362,25 +1362,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>903900</v>
+        <v>919000</v>
       </c>
       <c r="E23" s="3">
-        <v>-588500</v>
+        <v>-598400</v>
       </c>
       <c r="F23" s="3">
-        <v>1323600</v>
+        <v>1345800</v>
       </c>
       <c r="G23" s="3">
-        <v>-403800</v>
+        <v>-410600</v>
       </c>
       <c r="H23" s="3">
-        <v>884100</v>
+        <v>899000</v>
       </c>
       <c r="I23" s="3">
-        <v>-159100</v>
+        <v>-161800</v>
       </c>
       <c r="J23" s="3">
-        <v>462900</v>
+        <v>470700</v>
       </c>
       <c r="K23" s="3">
         <v>309200</v>
@@ -1409,25 +1409,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>162700</v>
+        <v>165400</v>
       </c>
       <c r="E24" s="3">
-        <v>41200</v>
+        <v>41900</v>
       </c>
       <c r="F24" s="3">
-        <v>291900</v>
+        <v>296800</v>
       </c>
       <c r="G24" s="3">
-        <v>102400</v>
+        <v>104100</v>
       </c>
       <c r="H24" s="3">
-        <v>207300</v>
+        <v>210800</v>
       </c>
       <c r="I24" s="3">
-        <v>-15600</v>
+        <v>-15900</v>
       </c>
       <c r="J24" s="3">
-        <v>114700</v>
+        <v>116600</v>
       </c>
       <c r="K24" s="3">
         <v>115200</v>
@@ -1503,25 +1503,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>741100</v>
+        <v>753600</v>
       </c>
       <c r="E26" s="3">
-        <v>-629800</v>
+        <v>-640300</v>
       </c>
       <c r="F26" s="3">
-        <v>1031700</v>
+        <v>1049000</v>
       </c>
       <c r="G26" s="3">
-        <v>-506200</v>
+        <v>-514600</v>
       </c>
       <c r="H26" s="3">
-        <v>676800</v>
+        <v>688100</v>
       </c>
       <c r="I26" s="3">
-        <v>-143500</v>
+        <v>-145900</v>
       </c>
       <c r="J26" s="3">
-        <v>348300</v>
+        <v>354100</v>
       </c>
       <c r="K26" s="3">
         <v>193900</v>
@@ -1550,25 +1550,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>455600</v>
+        <v>463200</v>
       </c>
       <c r="E27" s="3">
-        <v>-631700</v>
+        <v>-642300</v>
       </c>
       <c r="F27" s="3">
-        <v>725200</v>
+        <v>737400</v>
       </c>
       <c r="G27" s="3">
-        <v>-475600</v>
+        <v>-483600</v>
       </c>
       <c r="H27" s="3">
-        <v>488000</v>
+        <v>496200</v>
       </c>
       <c r="I27" s="3">
-        <v>-206200</v>
+        <v>-209700</v>
       </c>
       <c r="J27" s="3">
-        <v>266600</v>
+        <v>271100</v>
       </c>
       <c r="K27" s="3">
         <v>197700</v>
@@ -1785,25 +1785,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-147300</v>
+        <v>-149700</v>
       </c>
       <c r="E32" s="3">
-        <v>-159300</v>
+        <v>-161900</v>
       </c>
       <c r="F32" s="3">
-        <v>-157400</v>
+        <v>-160000</v>
       </c>
       <c r="G32" s="3">
-        <v>-114000</v>
+        <v>-115900</v>
       </c>
       <c r="H32" s="3">
-        <v>-117700</v>
+        <v>-119600</v>
       </c>
       <c r="I32" s="3">
-        <v>-294300</v>
+        <v>-299200</v>
       </c>
       <c r="J32" s="3">
-        <v>-66900</v>
+        <v>-68000</v>
       </c>
       <c r="K32" s="3">
         <v>-460500</v>
@@ -1832,25 +1832,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>455600</v>
+        <v>463200</v>
       </c>
       <c r="E33" s="3">
-        <v>-631700</v>
+        <v>-642300</v>
       </c>
       <c r="F33" s="3">
-        <v>725200</v>
+        <v>737400</v>
       </c>
       <c r="G33" s="3">
-        <v>-475600</v>
+        <v>-483600</v>
       </c>
       <c r="H33" s="3">
-        <v>488000</v>
+        <v>496200</v>
       </c>
       <c r="I33" s="3">
-        <v>-206200</v>
+        <v>-209700</v>
       </c>
       <c r="J33" s="3">
-        <v>266600</v>
+        <v>271100</v>
       </c>
       <c r="K33" s="3">
         <v>197700</v>
@@ -1926,25 +1926,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>455600</v>
+        <v>463200</v>
       </c>
       <c r="E35" s="3">
-        <v>-631700</v>
+        <v>-642300</v>
       </c>
       <c r="F35" s="3">
-        <v>725200</v>
+        <v>737400</v>
       </c>
       <c r="G35" s="3">
-        <v>-475600</v>
+        <v>-483600</v>
       </c>
       <c r="H35" s="3">
-        <v>488000</v>
+        <v>496200</v>
       </c>
       <c r="I35" s="3">
-        <v>-206200</v>
+        <v>-209700</v>
       </c>
       <c r="J35" s="3">
-        <v>266600</v>
+        <v>271100</v>
       </c>
       <c r="K35" s="3">
         <v>197700</v>
@@ -2063,25 +2063,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2098100</v>
+        <v>2133200</v>
       </c>
       <c r="E41" s="3">
-        <v>2041500</v>
+        <v>2075700</v>
       </c>
       <c r="F41" s="3">
-        <v>2295600</v>
+        <v>2334100</v>
       </c>
       <c r="G41" s="3">
-        <v>1916000</v>
+        <v>1948100</v>
       </c>
       <c r="H41" s="3">
-        <v>1993200</v>
+        <v>2026600</v>
       </c>
       <c r="I41" s="3">
-        <v>2371700</v>
+        <v>2411400</v>
       </c>
       <c r="J41" s="3">
-        <v>2492800</v>
+        <v>2534600</v>
       </c>
       <c r="K41" s="3">
         <v>1448100</v>
@@ -2119,13 +2119,13 @@
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>70500</v>
+        <v>71700</v>
       </c>
       <c r="H42" s="3">
-        <v>67800</v>
+        <v>69000</v>
       </c>
       <c r="I42" s="3">
-        <v>84800</v>
+        <v>86200</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
@@ -2157,25 +2157,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7046100</v>
+        <v>7164200</v>
       </c>
       <c r="E43" s="3">
-        <v>6753900</v>
+        <v>6867100</v>
       </c>
       <c r="F43" s="3">
-        <v>6251700</v>
+        <v>6356400</v>
       </c>
       <c r="G43" s="3">
-        <v>5681100</v>
+        <v>5776200</v>
       </c>
       <c r="H43" s="3">
-        <v>5037000</v>
+        <v>5121400</v>
       </c>
       <c r="I43" s="3">
-        <v>5204500</v>
+        <v>5291700</v>
       </c>
       <c r="J43" s="3">
-        <v>4500900</v>
+        <v>4576300</v>
       </c>
       <c r="K43" s="3">
         <v>4710600</v>
@@ -2204,25 +2204,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1336900</v>
+        <v>1359300</v>
       </c>
       <c r="E44" s="3">
-        <v>1016600</v>
+        <v>1033700</v>
       </c>
       <c r="F44" s="3">
-        <v>1237500</v>
+        <v>1258300</v>
       </c>
       <c r="G44" s="3">
-        <v>1367800</v>
+        <v>1390800</v>
       </c>
       <c r="H44" s="3">
-        <v>1581400</v>
+        <v>1607900</v>
       </c>
       <c r="I44" s="3">
-        <v>1469500</v>
+        <v>1494200</v>
       </c>
       <c r="J44" s="3">
-        <v>1378200</v>
+        <v>1401300</v>
       </c>
       <c r="K44" s="3">
         <v>1152200</v>
@@ -2251,25 +2251,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>577200</v>
+        <v>586800</v>
       </c>
       <c r="E45" s="3">
-        <v>371800</v>
+        <v>378100</v>
       </c>
       <c r="F45" s="3">
-        <v>369300</v>
+        <v>375500</v>
       </c>
       <c r="G45" s="3">
-        <v>323700</v>
+        <v>329200</v>
       </c>
       <c r="H45" s="3">
-        <v>581900</v>
+        <v>591600</v>
       </c>
       <c r="I45" s="3">
-        <v>385300</v>
+        <v>391800</v>
       </c>
       <c r="J45" s="3">
-        <v>279500</v>
+        <v>284200</v>
       </c>
       <c r="K45" s="3">
         <v>165500</v>
@@ -2298,25 +2298,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11058300</v>
+        <v>11243600</v>
       </c>
       <c r="E46" s="3">
-        <v>10183900</v>
+        <v>10354500</v>
       </c>
       <c r="F46" s="3">
-        <v>10154200</v>
+        <v>10324300</v>
       </c>
       <c r="G46" s="3">
-        <v>9359100</v>
+        <v>9515900</v>
       </c>
       <c r="H46" s="3">
-        <v>9261300</v>
+        <v>9416500</v>
       </c>
       <c r="I46" s="3">
-        <v>9515800</v>
+        <v>9675300</v>
       </c>
       <c r="J46" s="3">
-        <v>8651500</v>
+        <v>8796400</v>
       </c>
       <c r="K46" s="3">
         <v>7572400</v>
@@ -2345,25 +2345,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5885100</v>
+        <v>5983700</v>
       </c>
       <c r="E47" s="3">
-        <v>5851000</v>
+        <v>5949000</v>
       </c>
       <c r="F47" s="3">
-        <v>5800100</v>
+        <v>5897300</v>
       </c>
       <c r="G47" s="3">
-        <v>5582600</v>
+        <v>5676100</v>
       </c>
       <c r="H47" s="3">
-        <v>5681900</v>
+        <v>5777100</v>
       </c>
       <c r="I47" s="3">
-        <v>5569700</v>
+        <v>5663000</v>
       </c>
       <c r="J47" s="3">
-        <v>3883500</v>
+        <v>3948500</v>
       </c>
       <c r="K47" s="3">
         <v>3857500</v>
@@ -2392,25 +2392,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>49430400</v>
+        <v>50258600</v>
       </c>
       <c r="E48" s="3">
-        <v>49136700</v>
+        <v>49960000</v>
       </c>
       <c r="F48" s="3">
-        <v>47480300</v>
+        <v>48275800</v>
       </c>
       <c r="G48" s="3">
-        <v>46727200</v>
+        <v>47510100</v>
       </c>
       <c r="H48" s="3">
-        <v>44905300</v>
+        <v>45657700</v>
       </c>
       <c r="I48" s="3">
-        <v>43467600</v>
+        <v>44195900</v>
       </c>
       <c r="J48" s="3">
-        <v>42966900</v>
+        <v>43686800</v>
       </c>
       <c r="K48" s="3">
         <v>44391900</v>
@@ -2439,25 +2439,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3159400</v>
+        <v>3212300</v>
       </c>
       <c r="E49" s="3">
-        <v>3225600</v>
+        <v>3279600</v>
       </c>
       <c r="F49" s="3">
-        <v>3393300</v>
+        <v>3450200</v>
       </c>
       <c r="G49" s="3">
-        <v>3456300</v>
+        <v>3514200</v>
       </c>
       <c r="H49" s="3">
-        <v>3347400</v>
+        <v>3403500</v>
       </c>
       <c r="I49" s="3">
-        <v>5119400</v>
+        <v>5205100</v>
       </c>
       <c r="J49" s="3">
-        <v>5049300</v>
+        <v>5133900</v>
       </c>
       <c r="K49" s="3">
         <v>5149800</v>
@@ -2580,25 +2580,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1226400</v>
+        <v>1247000</v>
       </c>
       <c r="E52" s="3">
-        <v>879200</v>
+        <v>894000</v>
       </c>
       <c r="F52" s="3">
-        <v>823500</v>
+        <v>837300</v>
       </c>
       <c r="G52" s="3">
-        <v>816700</v>
+        <v>830400</v>
       </c>
       <c r="H52" s="3">
-        <v>1089800</v>
+        <v>1108100</v>
       </c>
       <c r="I52" s="3">
-        <v>984200</v>
+        <v>1000700</v>
       </c>
       <c r="J52" s="3">
-        <v>853900</v>
+        <v>868200</v>
       </c>
       <c r="K52" s="3">
         <v>900300</v>
@@ -2674,25 +2674,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>70759500</v>
+        <v>71945100</v>
       </c>
       <c r="E54" s="3">
-        <v>69276300</v>
+        <v>70437100</v>
       </c>
       <c r="F54" s="3">
-        <v>67651400</v>
+        <v>68784900</v>
       </c>
       <c r="G54" s="3">
-        <v>65941900</v>
+        <v>67046800</v>
       </c>
       <c r="H54" s="3">
-        <v>64285800</v>
+        <v>65362900</v>
       </c>
       <c r="I54" s="3">
-        <v>64656700</v>
+        <v>65740100</v>
       </c>
       <c r="J54" s="3">
-        <v>61405100</v>
+        <v>62433900</v>
       </c>
       <c r="K54" s="3">
         <v>61871900</v>
@@ -2759,25 +2759,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2934900</v>
+        <v>2984000</v>
       </c>
       <c r="E57" s="3">
-        <v>2429500</v>
+        <v>2470200</v>
       </c>
       <c r="F57" s="3">
-        <v>2243700</v>
+        <v>2281300</v>
       </c>
       <c r="G57" s="3">
-        <v>2440700</v>
+        <v>2481600</v>
       </c>
       <c r="H57" s="3">
-        <v>2234300</v>
+        <v>2271700</v>
       </c>
       <c r="I57" s="3">
-        <v>2261000</v>
+        <v>2298900</v>
       </c>
       <c r="J57" s="3">
-        <v>2465700</v>
+        <v>2507000</v>
       </c>
       <c r="K57" s="3">
         <v>2417600</v>
@@ -2806,25 +2806,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>14088400</v>
+        <v>14324500</v>
       </c>
       <c r="E58" s="3">
-        <v>16241400</v>
+        <v>16513600</v>
       </c>
       <c r="F58" s="3">
-        <v>14301400</v>
+        <v>14541000</v>
       </c>
       <c r="G58" s="3">
-        <v>15095500</v>
+        <v>15348400</v>
       </c>
       <c r="H58" s="3">
-        <v>17092300</v>
+        <v>17378700</v>
       </c>
       <c r="I58" s="3">
-        <v>14966000</v>
+        <v>15216800</v>
       </c>
       <c r="J58" s="3">
-        <v>15677900</v>
+        <v>15940600</v>
       </c>
       <c r="K58" s="3">
         <v>17693900</v>
@@ -2853,25 +2853,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5146800</v>
+        <v>5233000</v>
       </c>
       <c r="E59" s="3">
-        <v>5049400</v>
+        <v>5134000</v>
       </c>
       <c r="F59" s="3">
-        <v>4415900</v>
+        <v>4489900</v>
       </c>
       <c r="G59" s="3">
-        <v>4270500</v>
+        <v>4342000</v>
       </c>
       <c r="H59" s="3">
-        <v>3362400</v>
+        <v>3418800</v>
       </c>
       <c r="I59" s="3">
-        <v>4054000</v>
+        <v>4121900</v>
       </c>
       <c r="J59" s="3">
-        <v>3610200</v>
+        <v>3670700</v>
       </c>
       <c r="K59" s="3">
         <v>4218300</v>
@@ -2900,25 +2900,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>22170100</v>
+        <v>22541500</v>
       </c>
       <c r="E60" s="3">
-        <v>23720300</v>
+        <v>24117800</v>
       </c>
       <c r="F60" s="3">
-        <v>20960900</v>
+        <v>21312100</v>
       </c>
       <c r="G60" s="3">
-        <v>21806700</v>
+        <v>22172100</v>
       </c>
       <c r="H60" s="3">
-        <v>22689100</v>
+        <v>23069200</v>
       </c>
       <c r="I60" s="3">
-        <v>21281000</v>
+        <v>21637600</v>
       </c>
       <c r="J60" s="3">
-        <v>21753800</v>
+        <v>22118200</v>
       </c>
       <c r="K60" s="3">
         <v>24329800</v>
@@ -2947,25 +2947,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>23596700</v>
+        <v>23992000</v>
       </c>
       <c r="E61" s="3">
-        <v>20982200</v>
+        <v>21333700</v>
       </c>
       <c r="F61" s="3">
-        <v>22368200</v>
+        <v>22742900</v>
       </c>
       <c r="G61" s="3">
-        <v>22809300</v>
+        <v>23191500</v>
       </c>
       <c r="H61" s="3">
-        <v>21900400</v>
+        <v>22267300</v>
       </c>
       <c r="I61" s="3">
-        <v>24120800</v>
+        <v>24525000</v>
       </c>
       <c r="J61" s="3">
-        <v>21570700</v>
+        <v>21932100</v>
       </c>
       <c r="K61" s="3">
         <v>19369300</v>
@@ -2994,25 +2994,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1431200</v>
+        <v>1455200</v>
       </c>
       <c r="E62" s="3">
-        <v>1228000</v>
+        <v>1248600</v>
       </c>
       <c r="F62" s="3">
-        <v>1221000</v>
+        <v>1241400</v>
       </c>
       <c r="G62" s="3">
-        <v>1250200</v>
+        <v>1271100</v>
       </c>
       <c r="H62" s="3">
-        <v>1357200</v>
+        <v>1380000</v>
       </c>
       <c r="I62" s="3">
-        <v>1374500</v>
+        <v>1397500</v>
       </c>
       <c r="J62" s="3">
-        <v>1334700</v>
+        <v>1357000</v>
       </c>
       <c r="K62" s="3">
         <v>1383900</v>
@@ -3182,25 +3182,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>50916900</v>
+        <v>51770000</v>
       </c>
       <c r="E66" s="3">
-        <v>49282600</v>
+        <v>50108400</v>
       </c>
       <c r="F66" s="3">
-        <v>48065900</v>
+        <v>48871300</v>
       </c>
       <c r="G66" s="3">
-        <v>49188300</v>
+        <v>50012500</v>
       </c>
       <c r="H66" s="3">
-        <v>49356500</v>
+        <v>50183500</v>
       </c>
       <c r="I66" s="3">
-        <v>50115500</v>
+        <v>50955300</v>
       </c>
       <c r="J66" s="3">
-        <v>47887900</v>
+        <v>48690300</v>
       </c>
       <c r="K66" s="3">
         <v>48199000</v>
@@ -3436,25 +3436,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6248300</v>
+        <v>6352900</v>
       </c>
       <c r="E72" s="3">
-        <v>6366600</v>
+        <v>6473300</v>
       </c>
       <c r="F72" s="3">
-        <v>6992900</v>
+        <v>7110100</v>
       </c>
       <c r="G72" s="3">
-        <v>6593800</v>
+        <v>6704300</v>
       </c>
       <c r="H72" s="3">
-        <v>6980500</v>
+        <v>7097500</v>
       </c>
       <c r="I72" s="3">
-        <v>6734100</v>
+        <v>6846900</v>
       </c>
       <c r="J72" s="3">
-        <v>6935400</v>
+        <v>7051600</v>
       </c>
       <c r="K72" s="3">
         <v>7027500</v>
@@ -3624,25 +3624,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>19842700</v>
+        <v>20175100</v>
       </c>
       <c r="E76" s="3">
-        <v>19993700</v>
+        <v>20328700</v>
       </c>
       <c r="F76" s="3">
-        <v>19585500</v>
+        <v>19913600</v>
       </c>
       <c r="G76" s="3">
-        <v>16753600</v>
+        <v>17034300</v>
       </c>
       <c r="H76" s="3">
-        <v>14929200</v>
+        <v>15179400</v>
       </c>
       <c r="I76" s="3">
-        <v>14541200</v>
+        <v>14784800</v>
       </c>
       <c r="J76" s="3">
-        <v>13517100</v>
+        <v>13743600</v>
       </c>
       <c r="K76" s="3">
         <v>13673000</v>
@@ -3770,25 +3770,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>455600</v>
+        <v>463200</v>
       </c>
       <c r="E81" s="3">
-        <v>-631700</v>
+        <v>-642300</v>
       </c>
       <c r="F81" s="3">
-        <v>725200</v>
+        <v>737400</v>
       </c>
       <c r="G81" s="3">
-        <v>-475600</v>
+        <v>-483600</v>
       </c>
       <c r="H81" s="3">
-        <v>488000</v>
+        <v>496200</v>
       </c>
       <c r="I81" s="3">
-        <v>-206200</v>
+        <v>-209700</v>
       </c>
       <c r="J81" s="3">
-        <v>266600</v>
+        <v>271100</v>
       </c>
       <c r="K81" s="3">
         <v>197700</v>
@@ -3836,7 +3836,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1718500</v>
+        <v>1747300</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>8</v>
@@ -4118,25 +4118,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2946300</v>
+        <v>2995700</v>
       </c>
       <c r="E89" s="3">
-        <v>4026800</v>
+        <v>4094200</v>
       </c>
       <c r="F89" s="3">
-        <v>2438400</v>
+        <v>2479300</v>
       </c>
       <c r="G89" s="3">
-        <v>3169800</v>
+        <v>3222900</v>
       </c>
       <c r="H89" s="3">
-        <v>2577400</v>
+        <v>2620600</v>
       </c>
       <c r="I89" s="3">
-        <v>2096000</v>
+        <v>2131200</v>
       </c>
       <c r="J89" s="3">
-        <v>2327500</v>
+        <v>2366500</v>
       </c>
       <c r="K89" s="3">
         <v>2323800</v>
@@ -4187,22 +4187,22 @@
         <v>-200</v>
       </c>
       <c r="E91" s="3">
-        <v>-4063300</v>
+        <v>-4131400</v>
       </c>
       <c r="F91" s="3">
-        <v>-2489800</v>
+        <v>-2531500</v>
       </c>
       <c r="G91" s="3">
-        <v>-3115700</v>
+        <v>-3167900</v>
       </c>
       <c r="H91" s="3">
-        <v>-1716600</v>
+        <v>-1745300</v>
       </c>
       <c r="I91" s="3">
-        <v>-2114700</v>
+        <v>-2150200</v>
       </c>
       <c r="J91" s="3">
-        <v>-1059300</v>
+        <v>-1077100</v>
       </c>
       <c r="K91" s="3">
         <v>-2389300</v>
@@ -4325,25 +4325,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2630800</v>
+        <v>-2674800</v>
       </c>
       <c r="E94" s="3">
-        <v>-4063900</v>
+        <v>-4132000</v>
       </c>
       <c r="F94" s="3">
-        <v>-2439800</v>
+        <v>-2480700</v>
       </c>
       <c r="G94" s="3">
-        <v>-2930600</v>
+        <v>-2979700</v>
       </c>
       <c r="H94" s="3">
-        <v>-1540100</v>
+        <v>-1565900</v>
       </c>
       <c r="I94" s="3">
-        <v>-2197600</v>
+        <v>-2234400</v>
       </c>
       <c r="J94" s="3">
-        <v>-939900</v>
+        <v>-955700</v>
       </c>
       <c r="K94" s="3">
         <v>-1790900</v>
@@ -4394,22 +4394,22 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-326300</v>
+        <v>-331800</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-72400</v>
+        <v>-73600</v>
       </c>
       <c r="H96" s="3">
-        <v>-169300</v>
+        <v>-172200</v>
       </c>
       <c r="I96" s="3">
-        <v>-66900</v>
+        <v>-68000</v>
       </c>
       <c r="J96" s="3">
-        <v>-167200</v>
+        <v>-170000</v>
       </c>
       <c r="K96" s="3">
         <v>-204100</v>
@@ -4579,25 +4579,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-270200</v>
+        <v>-274800</v>
       </c>
       <c r="E100" s="3">
-        <v>-136300</v>
+        <v>-138600</v>
       </c>
       <c r="F100" s="3">
-        <v>414100</v>
+        <v>421000</v>
       </c>
       <c r="G100" s="3">
-        <v>-334900</v>
+        <v>-340500</v>
       </c>
       <c r="H100" s="3">
-        <v>-1409400</v>
+        <v>-1433000</v>
       </c>
       <c r="I100" s="3">
-        <v>-22900</v>
+        <v>-23300</v>
       </c>
       <c r="J100" s="3">
-        <v>-322500</v>
+        <v>-327900</v>
       </c>
       <c r="K100" s="3">
         <v>-975900</v>
@@ -4626,22 +4626,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>11300</v>
+        <v>11500</v>
       </c>
       <c r="E101" s="3">
-        <v>-80700</v>
+        <v>-82100</v>
       </c>
       <c r="F101" s="3">
-        <v>-33100</v>
+        <v>-33600</v>
       </c>
       <c r="G101" s="3">
-        <v>16800</v>
+        <v>17100</v>
       </c>
       <c r="H101" s="3">
-        <v>-7000</v>
+        <v>-7200</v>
       </c>
       <c r="I101" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="J101" s="3">
         <v>-1500</v>
@@ -4673,25 +4673,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>56600</v>
+        <v>57600</v>
       </c>
       <c r="E102" s="3">
-        <v>-254200</v>
+        <v>-258400</v>
       </c>
       <c r="F102" s="3">
-        <v>379600</v>
+        <v>386000</v>
       </c>
       <c r="G102" s="3">
-        <v>-78900</v>
+        <v>-80300</v>
       </c>
       <c r="H102" s="3">
-        <v>-379100</v>
+        <v>-385400</v>
       </c>
       <c r="I102" s="3">
-        <v>-118800</v>
+        <v>-120800</v>
       </c>
       <c r="J102" s="3">
-        <v>1063500</v>
+        <v>1081400</v>
       </c>
       <c r="K102" s="3">
         <v>-445000</v>

--- a/AAII_Financials/Quarterly/HNP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HNP_QTR_FIN.xlsx
@@ -744,25 +744,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14743900</v>
+        <v>14857000</v>
       </c>
       <c r="E8" s="3">
-        <v>13998400</v>
+        <v>14105700</v>
       </c>
       <c r="F8" s="3">
-        <v>12249200</v>
+        <v>12343100</v>
       </c>
       <c r="G8" s="3">
-        <v>14011700</v>
+        <v>14119000</v>
       </c>
       <c r="H8" s="3">
-        <v>12944300</v>
+        <v>13043500</v>
       </c>
       <c r="I8" s="3">
-        <v>13500600</v>
+        <v>13604100</v>
       </c>
       <c r="J8" s="3">
-        <v>12764100</v>
+        <v>12862000</v>
       </c>
       <c r="K8" s="3">
         <v>12527300</v>
@@ -791,25 +791,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9670100</v>
+        <v>9744300</v>
       </c>
       <c r="E9" s="3">
-        <v>8432800</v>
+        <v>8497400</v>
       </c>
       <c r="F9" s="3">
-        <v>7017900</v>
+        <v>7071700</v>
       </c>
       <c r="G9" s="3">
-        <v>8782600</v>
+        <v>8849900</v>
       </c>
       <c r="H9" s="3">
-        <v>8038900</v>
+        <v>8100500</v>
       </c>
       <c r="I9" s="3">
-        <v>9282400</v>
+        <v>9353500</v>
       </c>
       <c r="J9" s="3">
-        <v>8692000</v>
+        <v>8758600</v>
       </c>
       <c r="K9" s="3">
         <v>8322900</v>
@@ -838,25 +838,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5073800</v>
+        <v>5112700</v>
       </c>
       <c r="E10" s="3">
-        <v>5565700</v>
+        <v>5608300</v>
       </c>
       <c r="F10" s="3">
-        <v>5231300</v>
+        <v>5271400</v>
       </c>
       <c r="G10" s="3">
-        <v>5229000</v>
+        <v>5269100</v>
       </c>
       <c r="H10" s="3">
-        <v>4905400</v>
+        <v>4943000</v>
       </c>
       <c r="I10" s="3">
-        <v>4218200</v>
+        <v>4250600</v>
       </c>
       <c r="J10" s="3">
-        <v>4072200</v>
+        <v>4103400</v>
       </c>
       <c r="K10" s="3">
         <v>4204400</v>
@@ -904,10 +904,10 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>19000</v>
+        <v>19200</v>
       </c>
       <c r="E12" s="3">
-        <v>95700</v>
+        <v>96400</v>
       </c>
       <c r="F12" s="3">
         <v>8900</v>
@@ -998,10 +998,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-27500</v>
+        <v>-27700</v>
       </c>
       <c r="E14" s="3">
-        <v>1489100</v>
+        <v>1500500</v>
       </c>
       <c r="F14" s="3">
         <v>-400</v>
@@ -1045,25 +1045,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1747300</v>
+        <v>1760700</v>
       </c>
       <c r="E15" s="3">
-        <v>1781000</v>
+        <v>1794600</v>
       </c>
       <c r="F15" s="3">
-        <v>1706300</v>
+        <v>1719400</v>
       </c>
       <c r="G15" s="3">
-        <v>1749200</v>
+        <v>1762600</v>
       </c>
       <c r="H15" s="3">
-        <v>1673900</v>
+        <v>1686800</v>
       </c>
       <c r="I15" s="3">
-        <v>1619300</v>
+        <v>1631700</v>
       </c>
       <c r="J15" s="3">
-        <v>1584900</v>
+        <v>1597100</v>
       </c>
       <c r="K15" s="3">
         <v>1565400</v>
@@ -1108,25 +1108,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13307900</v>
+        <v>13409900</v>
       </c>
       <c r="E17" s="3">
-        <v>14078200</v>
+        <v>14186200</v>
       </c>
       <c r="F17" s="3">
-        <v>10303500</v>
+        <v>10382500</v>
       </c>
       <c r="G17" s="3">
-        <v>13714000</v>
+        <v>13819100</v>
       </c>
       <c r="H17" s="3">
-        <v>11304100</v>
+        <v>11390700</v>
       </c>
       <c r="I17" s="3">
-        <v>13124400</v>
+        <v>13225000</v>
       </c>
       <c r="J17" s="3">
-        <v>11556900</v>
+        <v>11645500</v>
       </c>
       <c r="K17" s="3">
         <v>11885100</v>
@@ -1155,25 +1155,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1436000</v>
+        <v>1447000</v>
       </c>
       <c r="E18" s="3">
-        <v>-79800</v>
+        <v>-80400</v>
       </c>
       <c r="F18" s="3">
-        <v>1945700</v>
+        <v>1960600</v>
       </c>
       <c r="G18" s="3">
-        <v>297700</v>
+        <v>299900</v>
       </c>
       <c r="H18" s="3">
-        <v>1640200</v>
+        <v>1652800</v>
       </c>
       <c r="I18" s="3">
-        <v>376200</v>
+        <v>379100</v>
       </c>
       <c r="J18" s="3">
-        <v>1207300</v>
+        <v>1216500</v>
       </c>
       <c r="K18" s="3">
         <v>642200</v>
@@ -1221,25 +1221,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>149700</v>
+        <v>150900</v>
       </c>
       <c r="E20" s="3">
-        <v>161900</v>
+        <v>163200</v>
       </c>
       <c r="F20" s="3">
-        <v>160000</v>
+        <v>161200</v>
       </c>
       <c r="G20" s="3">
-        <v>115900</v>
+        <v>116800</v>
       </c>
       <c r="H20" s="3">
-        <v>119600</v>
+        <v>120500</v>
       </c>
       <c r="I20" s="3">
-        <v>299200</v>
+        <v>301500</v>
       </c>
       <c r="J20" s="3">
-        <v>68000</v>
+        <v>68500</v>
       </c>
       <c r="K20" s="3">
         <v>460500</v>
@@ -1268,25 +1268,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3333100</v>
+        <v>3358600</v>
       </c>
       <c r="E21" s="3">
-        <v>156700</v>
+        <v>157900</v>
       </c>
       <c r="F21" s="3">
-        <v>3812100</v>
+        <v>3841300</v>
       </c>
       <c r="G21" s="3">
-        <v>494000</v>
+        <v>497800</v>
       </c>
       <c r="H21" s="3">
-        <v>3439100</v>
+        <v>3465500</v>
       </c>
       <c r="I21" s="3">
-        <v>709400</v>
+        <v>714900</v>
       </c>
       <c r="J21" s="3">
-        <v>2868600</v>
+        <v>2890600</v>
       </c>
       <c r="K21" s="3">
         <v>1082900</v>
@@ -1315,25 +1315,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>666800</v>
+        <v>671900</v>
       </c>
       <c r="E22" s="3">
-        <v>680500</v>
+        <v>685700</v>
       </c>
       <c r="F22" s="3">
-        <v>760000</v>
+        <v>765800</v>
       </c>
       <c r="G22" s="3">
-        <v>824200</v>
+        <v>830500</v>
       </c>
       <c r="H22" s="3">
-        <v>860900</v>
+        <v>867500</v>
       </c>
       <c r="I22" s="3">
-        <v>837200</v>
+        <v>843600</v>
       </c>
       <c r="J22" s="3">
-        <v>804500</v>
+        <v>810700</v>
       </c>
       <c r="K22" s="3">
         <v>793500</v>
@@ -1362,25 +1362,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>919000</v>
+        <v>926000</v>
       </c>
       <c r="E23" s="3">
-        <v>-598400</v>
+        <v>-603000</v>
       </c>
       <c r="F23" s="3">
-        <v>1345800</v>
+        <v>1356100</v>
       </c>
       <c r="G23" s="3">
-        <v>-410600</v>
+        <v>-413700</v>
       </c>
       <c r="H23" s="3">
-        <v>899000</v>
+        <v>905800</v>
       </c>
       <c r="I23" s="3">
-        <v>-161800</v>
+        <v>-163000</v>
       </c>
       <c r="J23" s="3">
-        <v>470700</v>
+        <v>474300</v>
       </c>
       <c r="K23" s="3">
         <v>309200</v>
@@ -1409,25 +1409,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>165400</v>
+        <v>166700</v>
       </c>
       <c r="E24" s="3">
-        <v>41900</v>
+        <v>42200</v>
       </c>
       <c r="F24" s="3">
-        <v>296800</v>
+        <v>299000</v>
       </c>
       <c r="G24" s="3">
-        <v>104100</v>
+        <v>104900</v>
       </c>
       <c r="H24" s="3">
-        <v>210800</v>
+        <v>212400</v>
       </c>
       <c r="I24" s="3">
-        <v>-15900</v>
+        <v>-16000</v>
       </c>
       <c r="J24" s="3">
-        <v>116600</v>
+        <v>117500</v>
       </c>
       <c r="K24" s="3">
         <v>115200</v>
@@ -1503,25 +1503,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>753600</v>
+        <v>759300</v>
       </c>
       <c r="E26" s="3">
-        <v>-640300</v>
+        <v>-645200</v>
       </c>
       <c r="F26" s="3">
-        <v>1049000</v>
+        <v>1057100</v>
       </c>
       <c r="G26" s="3">
-        <v>-514600</v>
+        <v>-518600</v>
       </c>
       <c r="H26" s="3">
-        <v>688100</v>
+        <v>693400</v>
       </c>
       <c r="I26" s="3">
-        <v>-145900</v>
+        <v>-147000</v>
       </c>
       <c r="J26" s="3">
-        <v>354100</v>
+        <v>356800</v>
       </c>
       <c r="K26" s="3">
         <v>193900</v>
@@ -1550,25 +1550,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>463200</v>
+        <v>466800</v>
       </c>
       <c r="E27" s="3">
-        <v>-642300</v>
+        <v>-647200</v>
       </c>
       <c r="F27" s="3">
-        <v>737400</v>
+        <v>743000</v>
       </c>
       <c r="G27" s="3">
-        <v>-483600</v>
+        <v>-487300</v>
       </c>
       <c r="H27" s="3">
-        <v>496200</v>
+        <v>500000</v>
       </c>
       <c r="I27" s="3">
-        <v>-209700</v>
+        <v>-211300</v>
       </c>
       <c r="J27" s="3">
-        <v>271100</v>
+        <v>273100</v>
       </c>
       <c r="K27" s="3">
         <v>197700</v>
@@ -1785,25 +1785,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-149700</v>
+        <v>-150900</v>
       </c>
       <c r="E32" s="3">
-        <v>-161900</v>
+        <v>-163200</v>
       </c>
       <c r="F32" s="3">
-        <v>-160000</v>
+        <v>-161200</v>
       </c>
       <c r="G32" s="3">
-        <v>-115900</v>
+        <v>-116800</v>
       </c>
       <c r="H32" s="3">
-        <v>-119600</v>
+        <v>-120500</v>
       </c>
       <c r="I32" s="3">
-        <v>-299200</v>
+        <v>-301500</v>
       </c>
       <c r="J32" s="3">
-        <v>-68000</v>
+        <v>-68500</v>
       </c>
       <c r="K32" s="3">
         <v>-460500</v>
@@ -1832,25 +1832,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>463200</v>
+        <v>466800</v>
       </c>
       <c r="E33" s="3">
-        <v>-642300</v>
+        <v>-647200</v>
       </c>
       <c r="F33" s="3">
-        <v>737400</v>
+        <v>743000</v>
       </c>
       <c r="G33" s="3">
-        <v>-483600</v>
+        <v>-487300</v>
       </c>
       <c r="H33" s="3">
-        <v>496200</v>
+        <v>500000</v>
       </c>
       <c r="I33" s="3">
-        <v>-209700</v>
+        <v>-211300</v>
       </c>
       <c r="J33" s="3">
-        <v>271100</v>
+        <v>273100</v>
       </c>
       <c r="K33" s="3">
         <v>197700</v>
@@ -1926,25 +1926,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>463200</v>
+        <v>466800</v>
       </c>
       <c r="E35" s="3">
-        <v>-642300</v>
+        <v>-647200</v>
       </c>
       <c r="F35" s="3">
-        <v>737400</v>
+        <v>743000</v>
       </c>
       <c r="G35" s="3">
-        <v>-483600</v>
+        <v>-487300</v>
       </c>
       <c r="H35" s="3">
-        <v>496200</v>
+        <v>500000</v>
       </c>
       <c r="I35" s="3">
-        <v>-209700</v>
+        <v>-211300</v>
       </c>
       <c r="J35" s="3">
-        <v>271100</v>
+        <v>273100</v>
       </c>
       <c r="K35" s="3">
         <v>197700</v>
@@ -2063,25 +2063,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2133200</v>
+        <v>2149600</v>
       </c>
       <c r="E41" s="3">
-        <v>2075700</v>
+        <v>2091600</v>
       </c>
       <c r="F41" s="3">
-        <v>2334100</v>
+        <v>2352000</v>
       </c>
       <c r="G41" s="3">
-        <v>1948100</v>
+        <v>1963000</v>
       </c>
       <c r="H41" s="3">
-        <v>2026600</v>
+        <v>2042200</v>
       </c>
       <c r="I41" s="3">
-        <v>2411400</v>
+        <v>2429900</v>
       </c>
       <c r="J41" s="3">
-        <v>2534600</v>
+        <v>2554000</v>
       </c>
       <c r="K41" s="3">
         <v>1448100</v>
@@ -2119,13 +2119,13 @@
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>71700</v>
+        <v>72200</v>
       </c>
       <c r="H42" s="3">
-        <v>69000</v>
+        <v>69500</v>
       </c>
       <c r="I42" s="3">
-        <v>86200</v>
+        <v>86900</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
@@ -2157,25 +2157,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7164200</v>
+        <v>7219100</v>
       </c>
       <c r="E43" s="3">
-        <v>6867100</v>
+        <v>6919700</v>
       </c>
       <c r="F43" s="3">
-        <v>6356400</v>
+        <v>6405200</v>
       </c>
       <c r="G43" s="3">
-        <v>5776200</v>
+        <v>5820500</v>
       </c>
       <c r="H43" s="3">
-        <v>5121400</v>
+        <v>5160600</v>
       </c>
       <c r="I43" s="3">
-        <v>5291700</v>
+        <v>5332200</v>
       </c>
       <c r="J43" s="3">
-        <v>4576300</v>
+        <v>4611400</v>
       </c>
       <c r="K43" s="3">
         <v>4710600</v>
@@ -2204,25 +2204,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1359300</v>
+        <v>1369700</v>
       </c>
       <c r="E44" s="3">
-        <v>1033700</v>
+        <v>1041600</v>
       </c>
       <c r="F44" s="3">
-        <v>1258300</v>
+        <v>1267900</v>
       </c>
       <c r="G44" s="3">
-        <v>1390800</v>
+        <v>1401400</v>
       </c>
       <c r="H44" s="3">
-        <v>1607900</v>
+        <v>1620200</v>
       </c>
       <c r="I44" s="3">
-        <v>1494200</v>
+        <v>1505600</v>
       </c>
       <c r="J44" s="3">
-        <v>1401300</v>
+        <v>1412000</v>
       </c>
       <c r="K44" s="3">
         <v>1152200</v>
@@ -2251,25 +2251,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>586800</v>
+        <v>591300</v>
       </c>
       <c r="E45" s="3">
-        <v>378100</v>
+        <v>381000</v>
       </c>
       <c r="F45" s="3">
-        <v>375500</v>
+        <v>378400</v>
       </c>
       <c r="G45" s="3">
-        <v>329200</v>
+        <v>331700</v>
       </c>
       <c r="H45" s="3">
-        <v>591600</v>
+        <v>596200</v>
       </c>
       <c r="I45" s="3">
-        <v>391800</v>
+        <v>394800</v>
       </c>
       <c r="J45" s="3">
-        <v>284200</v>
+        <v>286400</v>
       </c>
       <c r="K45" s="3">
         <v>165500</v>
@@ -2298,25 +2298,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11243600</v>
+        <v>11329700</v>
       </c>
       <c r="E46" s="3">
-        <v>10354500</v>
+        <v>10433900</v>
       </c>
       <c r="F46" s="3">
-        <v>10324300</v>
+        <v>10403400</v>
       </c>
       <c r="G46" s="3">
-        <v>9515900</v>
+        <v>9588900</v>
       </c>
       <c r="H46" s="3">
-        <v>9416500</v>
+        <v>9488700</v>
       </c>
       <c r="I46" s="3">
-        <v>9675300</v>
+        <v>9749400</v>
       </c>
       <c r="J46" s="3">
-        <v>8796400</v>
+        <v>8863900</v>
       </c>
       <c r="K46" s="3">
         <v>7572400</v>
@@ -2345,25 +2345,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5983700</v>
+        <v>6029500</v>
       </c>
       <c r="E47" s="3">
-        <v>5949000</v>
+        <v>5994600</v>
       </c>
       <c r="F47" s="3">
-        <v>5897300</v>
+        <v>5942500</v>
       </c>
       <c r="G47" s="3">
-        <v>5676100</v>
+        <v>5719600</v>
       </c>
       <c r="H47" s="3">
-        <v>5777100</v>
+        <v>5821300</v>
       </c>
       <c r="I47" s="3">
-        <v>5663000</v>
+        <v>5706400</v>
       </c>
       <c r="J47" s="3">
-        <v>3948500</v>
+        <v>3978800</v>
       </c>
       <c r="K47" s="3">
         <v>3857500</v>
@@ -2392,25 +2392,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>50258600</v>
+        <v>50643900</v>
       </c>
       <c r="E48" s="3">
-        <v>49960000</v>
+        <v>50342900</v>
       </c>
       <c r="F48" s="3">
-        <v>48275800</v>
+        <v>48645900</v>
       </c>
       <c r="G48" s="3">
-        <v>47510100</v>
+        <v>47874300</v>
       </c>
       <c r="H48" s="3">
-        <v>45657700</v>
+        <v>46007700</v>
       </c>
       <c r="I48" s="3">
-        <v>44195900</v>
+        <v>44534700</v>
       </c>
       <c r="J48" s="3">
-        <v>43686800</v>
+        <v>44021700</v>
       </c>
       <c r="K48" s="3">
         <v>44391900</v>
@@ -2439,25 +2439,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3212300</v>
+        <v>3236900</v>
       </c>
       <c r="E49" s="3">
-        <v>3279600</v>
+        <v>3304800</v>
       </c>
       <c r="F49" s="3">
-        <v>3450200</v>
+        <v>3476600</v>
       </c>
       <c r="G49" s="3">
-        <v>3514200</v>
+        <v>3541200</v>
       </c>
       <c r="H49" s="3">
-        <v>3403500</v>
+        <v>3429600</v>
       </c>
       <c r="I49" s="3">
-        <v>5205100</v>
+        <v>5245000</v>
       </c>
       <c r="J49" s="3">
-        <v>5133900</v>
+        <v>5173300</v>
       </c>
       <c r="K49" s="3">
         <v>5149800</v>
@@ -2580,25 +2580,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1247000</v>
+        <v>1256500</v>
       </c>
       <c r="E52" s="3">
-        <v>894000</v>
+        <v>900800</v>
       </c>
       <c r="F52" s="3">
-        <v>837300</v>
+        <v>843700</v>
       </c>
       <c r="G52" s="3">
-        <v>830400</v>
+        <v>836800</v>
       </c>
       <c r="H52" s="3">
-        <v>1108100</v>
+        <v>1116600</v>
       </c>
       <c r="I52" s="3">
-        <v>1000700</v>
+        <v>1008400</v>
       </c>
       <c r="J52" s="3">
-        <v>868200</v>
+        <v>874800</v>
       </c>
       <c r="K52" s="3">
         <v>900300</v>
@@ -2674,25 +2674,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>71945100</v>
+        <v>72496600</v>
       </c>
       <c r="E54" s="3">
-        <v>70437100</v>
+        <v>70977000</v>
       </c>
       <c r="F54" s="3">
-        <v>68784900</v>
+        <v>69312200</v>
       </c>
       <c r="G54" s="3">
-        <v>67046800</v>
+        <v>67560700</v>
       </c>
       <c r="H54" s="3">
-        <v>65362900</v>
+        <v>65863900</v>
       </c>
       <c r="I54" s="3">
-        <v>65740100</v>
+        <v>66243900</v>
       </c>
       <c r="J54" s="3">
-        <v>62433900</v>
+        <v>62912500</v>
       </c>
       <c r="K54" s="3">
         <v>61871900</v>
@@ -2759,25 +2759,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2984000</v>
+        <v>3006900</v>
       </c>
       <c r="E57" s="3">
-        <v>2470200</v>
+        <v>2489100</v>
       </c>
       <c r="F57" s="3">
-        <v>2281300</v>
+        <v>2298700</v>
       </c>
       <c r="G57" s="3">
-        <v>2481600</v>
+        <v>2500600</v>
       </c>
       <c r="H57" s="3">
-        <v>2271700</v>
+        <v>2289100</v>
       </c>
       <c r="I57" s="3">
-        <v>2298900</v>
+        <v>2316500</v>
       </c>
       <c r="J57" s="3">
-        <v>2507000</v>
+        <v>2526200</v>
       </c>
       <c r="K57" s="3">
         <v>2417600</v>
@@ -2806,25 +2806,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>14324500</v>
+        <v>14434300</v>
       </c>
       <c r="E58" s="3">
-        <v>16513600</v>
+        <v>16640100</v>
       </c>
       <c r="F58" s="3">
-        <v>14541000</v>
+        <v>14652500</v>
       </c>
       <c r="G58" s="3">
-        <v>15348400</v>
+        <v>15466100</v>
       </c>
       <c r="H58" s="3">
-        <v>17378700</v>
+        <v>17511900</v>
       </c>
       <c r="I58" s="3">
-        <v>15216800</v>
+        <v>15333400</v>
       </c>
       <c r="J58" s="3">
-        <v>15940600</v>
+        <v>16062800</v>
       </c>
       <c r="K58" s="3">
         <v>17693900</v>
@@ -2853,25 +2853,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5233000</v>
+        <v>5273100</v>
       </c>
       <c r="E59" s="3">
-        <v>5134000</v>
+        <v>5173400</v>
       </c>
       <c r="F59" s="3">
-        <v>4489900</v>
+        <v>4524300</v>
       </c>
       <c r="G59" s="3">
-        <v>4342000</v>
+        <v>4375300</v>
       </c>
       <c r="H59" s="3">
-        <v>3418800</v>
+        <v>3445000</v>
       </c>
       <c r="I59" s="3">
-        <v>4121900</v>
+        <v>4153500</v>
       </c>
       <c r="J59" s="3">
-        <v>3670700</v>
+        <v>3698800</v>
       </c>
       <c r="K59" s="3">
         <v>4218300</v>
@@ -2900,25 +2900,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>22541500</v>
+        <v>22714300</v>
       </c>
       <c r="E60" s="3">
-        <v>24117800</v>
+        <v>24302600</v>
       </c>
       <c r="F60" s="3">
-        <v>21312100</v>
+        <v>21475500</v>
       </c>
       <c r="G60" s="3">
-        <v>22172100</v>
+        <v>22342000</v>
       </c>
       <c r="H60" s="3">
-        <v>23069200</v>
+        <v>23246000</v>
       </c>
       <c r="I60" s="3">
-        <v>21637600</v>
+        <v>21803400</v>
       </c>
       <c r="J60" s="3">
-        <v>22118200</v>
+        <v>22287800</v>
       </c>
       <c r="K60" s="3">
         <v>24329800</v>
@@ -2947,25 +2947,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>23992000</v>
+        <v>24175900</v>
       </c>
       <c r="E61" s="3">
-        <v>21333700</v>
+        <v>21497200</v>
       </c>
       <c r="F61" s="3">
-        <v>22742900</v>
+        <v>22917300</v>
       </c>
       <c r="G61" s="3">
-        <v>23191500</v>
+        <v>23369200</v>
       </c>
       <c r="H61" s="3">
-        <v>22267300</v>
+        <v>22438000</v>
       </c>
       <c r="I61" s="3">
-        <v>24525000</v>
+        <v>24712900</v>
       </c>
       <c r="J61" s="3">
-        <v>21932100</v>
+        <v>22100200</v>
       </c>
       <c r="K61" s="3">
         <v>19369300</v>
@@ -2994,25 +2994,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1455200</v>
+        <v>1466300</v>
       </c>
       <c r="E62" s="3">
-        <v>1248600</v>
+        <v>1258100</v>
       </c>
       <c r="F62" s="3">
-        <v>1241400</v>
+        <v>1250900</v>
       </c>
       <c r="G62" s="3">
-        <v>1271100</v>
+        <v>1280800</v>
       </c>
       <c r="H62" s="3">
-        <v>1380000</v>
+        <v>1390600</v>
       </c>
       <c r="I62" s="3">
-        <v>1397500</v>
+        <v>1408200</v>
       </c>
       <c r="J62" s="3">
-        <v>1357000</v>
+        <v>1367400</v>
       </c>
       <c r="K62" s="3">
         <v>1383900</v>
@@ -3182,25 +3182,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>51770000</v>
+        <v>52166800</v>
       </c>
       <c r="E66" s="3">
-        <v>50108400</v>
+        <v>50492500</v>
       </c>
       <c r="F66" s="3">
-        <v>48871300</v>
+        <v>49245900</v>
       </c>
       <c r="G66" s="3">
-        <v>50012500</v>
+        <v>50395900</v>
       </c>
       <c r="H66" s="3">
-        <v>50183500</v>
+        <v>50568200</v>
       </c>
       <c r="I66" s="3">
-        <v>50955300</v>
+        <v>51345800</v>
       </c>
       <c r="J66" s="3">
-        <v>48690300</v>
+        <v>49063500</v>
       </c>
       <c r="K66" s="3">
         <v>48199000</v>
@@ -3436,25 +3436,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6352900</v>
+        <v>6401600</v>
       </c>
       <c r="E72" s="3">
-        <v>6473300</v>
+        <v>6522900</v>
       </c>
       <c r="F72" s="3">
-        <v>7110100</v>
+        <v>7164600</v>
       </c>
       <c r="G72" s="3">
-        <v>6704300</v>
+        <v>6755700</v>
       </c>
       <c r="H72" s="3">
-        <v>7097500</v>
+        <v>7151900</v>
       </c>
       <c r="I72" s="3">
-        <v>6846900</v>
+        <v>6899400</v>
       </c>
       <c r="J72" s="3">
-        <v>7051600</v>
+        <v>7105600</v>
       </c>
       <c r="K72" s="3">
         <v>7027500</v>
@@ -3624,25 +3624,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>20175100</v>
+        <v>20329800</v>
       </c>
       <c r="E76" s="3">
-        <v>20328700</v>
+        <v>20484500</v>
       </c>
       <c r="F76" s="3">
-        <v>19913600</v>
+        <v>20066300</v>
       </c>
       <c r="G76" s="3">
-        <v>17034300</v>
+        <v>17164900</v>
       </c>
       <c r="H76" s="3">
-        <v>15179400</v>
+        <v>15295700</v>
       </c>
       <c r="I76" s="3">
-        <v>14784800</v>
+        <v>14898100</v>
       </c>
       <c r="J76" s="3">
-        <v>13743600</v>
+        <v>13848900</v>
       </c>
       <c r="K76" s="3">
         <v>13673000</v>
@@ -3770,25 +3770,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>463200</v>
+        <v>466800</v>
       </c>
       <c r="E81" s="3">
-        <v>-642300</v>
+        <v>-647200</v>
       </c>
       <c r="F81" s="3">
-        <v>737400</v>
+        <v>743000</v>
       </c>
       <c r="G81" s="3">
-        <v>-483600</v>
+        <v>-487300</v>
       </c>
       <c r="H81" s="3">
-        <v>496200</v>
+        <v>500000</v>
       </c>
       <c r="I81" s="3">
-        <v>-209700</v>
+        <v>-211300</v>
       </c>
       <c r="J81" s="3">
-        <v>271100</v>
+        <v>273100</v>
       </c>
       <c r="K81" s="3">
         <v>197700</v>
@@ -3836,7 +3836,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1747300</v>
+        <v>1760700</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>8</v>
@@ -4118,25 +4118,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2995700</v>
+        <v>3018600</v>
       </c>
       <c r="E89" s="3">
-        <v>4094200</v>
+        <v>4125600</v>
       </c>
       <c r="F89" s="3">
-        <v>2479300</v>
+        <v>2498300</v>
       </c>
       <c r="G89" s="3">
-        <v>3222900</v>
+        <v>3247600</v>
       </c>
       <c r="H89" s="3">
-        <v>2620600</v>
+        <v>2640700</v>
       </c>
       <c r="I89" s="3">
-        <v>2131200</v>
+        <v>2147500</v>
       </c>
       <c r="J89" s="3">
-        <v>2366500</v>
+        <v>2384600</v>
       </c>
       <c r="K89" s="3">
         <v>2323800</v>
@@ -4187,22 +4187,22 @@
         <v>-200</v>
       </c>
       <c r="E91" s="3">
-        <v>-4131400</v>
+        <v>-4163100</v>
       </c>
       <c r="F91" s="3">
-        <v>-2531500</v>
+        <v>-2550900</v>
       </c>
       <c r="G91" s="3">
-        <v>-3167900</v>
+        <v>-3192200</v>
       </c>
       <c r="H91" s="3">
-        <v>-1745300</v>
+        <v>-1758700</v>
       </c>
       <c r="I91" s="3">
-        <v>-2150200</v>
+        <v>-2166600</v>
       </c>
       <c r="J91" s="3">
-        <v>-1077100</v>
+        <v>-1085300</v>
       </c>
       <c r="K91" s="3">
         <v>-2389300</v>
@@ -4325,25 +4325,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2674800</v>
+        <v>-2695300</v>
       </c>
       <c r="E94" s="3">
-        <v>-4132000</v>
+        <v>-4163600</v>
       </c>
       <c r="F94" s="3">
-        <v>-2480700</v>
+        <v>-2499700</v>
       </c>
       <c r="G94" s="3">
-        <v>-2979700</v>
+        <v>-3002500</v>
       </c>
       <c r="H94" s="3">
-        <v>-1565900</v>
+        <v>-1577900</v>
       </c>
       <c r="I94" s="3">
-        <v>-2234400</v>
+        <v>-2251500</v>
       </c>
       <c r="J94" s="3">
-        <v>-955700</v>
+        <v>-963000</v>
       </c>
       <c r="K94" s="3">
         <v>-1790900</v>
@@ -4394,22 +4394,22 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-331800</v>
+        <v>-334300</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-73600</v>
+        <v>-74200</v>
       </c>
       <c r="H96" s="3">
-        <v>-172200</v>
+        <v>-173500</v>
       </c>
       <c r="I96" s="3">
-        <v>-68000</v>
+        <v>-68500</v>
       </c>
       <c r="J96" s="3">
-        <v>-170000</v>
+        <v>-171300</v>
       </c>
       <c r="K96" s="3">
         <v>-204100</v>
@@ -4579,25 +4579,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-274800</v>
+        <v>-276900</v>
       </c>
       <c r="E100" s="3">
-        <v>-138600</v>
+        <v>-139700</v>
       </c>
       <c r="F100" s="3">
-        <v>421000</v>
+        <v>424200</v>
       </c>
       <c r="G100" s="3">
-        <v>-340500</v>
+        <v>-343100</v>
       </c>
       <c r="H100" s="3">
-        <v>-1433000</v>
+        <v>-1444000</v>
       </c>
       <c r="I100" s="3">
-        <v>-23300</v>
+        <v>-23400</v>
       </c>
       <c r="J100" s="3">
-        <v>-327900</v>
+        <v>-330400</v>
       </c>
       <c r="K100" s="3">
         <v>-975900</v>
@@ -4626,16 +4626,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>11500</v>
+        <v>11600</v>
       </c>
       <c r="E101" s="3">
-        <v>-82100</v>
+        <v>-82700</v>
       </c>
       <c r="F101" s="3">
-        <v>-33600</v>
+        <v>-33900</v>
       </c>
       <c r="G101" s="3">
-        <v>17100</v>
+        <v>17200</v>
       </c>
       <c r="H101" s="3">
         <v>-7200</v>
@@ -4644,7 +4644,7 @@
         <v>5700</v>
       </c>
       <c r="J101" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="K101" s="3">
         <v>-1900</v>
@@ -4673,25 +4673,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>57600</v>
+        <v>58000</v>
       </c>
       <c r="E102" s="3">
-        <v>-258400</v>
+        <v>-260400</v>
       </c>
       <c r="F102" s="3">
-        <v>386000</v>
+        <v>388900</v>
       </c>
       <c r="G102" s="3">
-        <v>-80300</v>
+        <v>-80900</v>
       </c>
       <c r="H102" s="3">
-        <v>-385400</v>
+        <v>-388400</v>
       </c>
       <c r="I102" s="3">
-        <v>-120800</v>
+        <v>-121700</v>
       </c>
       <c r="J102" s="3">
-        <v>1081400</v>
+        <v>1089700</v>
       </c>
       <c r="K102" s="3">
         <v>-445000</v>

--- a/AAII_Financials/Quarterly/HNP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HNP_QTR_FIN.xlsx
@@ -744,25 +744,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14857000</v>
+        <v>13877500</v>
       </c>
       <c r="E8" s="3">
-        <v>14105700</v>
+        <v>13175800</v>
       </c>
       <c r="F8" s="3">
-        <v>12343100</v>
+        <v>11529400</v>
       </c>
       <c r="G8" s="3">
-        <v>14119000</v>
+        <v>13188300</v>
       </c>
       <c r="H8" s="3">
-        <v>13043500</v>
+        <v>12183600</v>
       </c>
       <c r="I8" s="3">
-        <v>13604100</v>
+        <v>12707300</v>
       </c>
       <c r="J8" s="3">
-        <v>12862000</v>
+        <v>12014100</v>
       </c>
       <c r="K8" s="3">
         <v>12527300</v>
@@ -791,25 +791,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9744300</v>
+        <v>9101900</v>
       </c>
       <c r="E9" s="3">
-        <v>8497400</v>
+        <v>7937200</v>
       </c>
       <c r="F9" s="3">
-        <v>7071700</v>
+        <v>6605500</v>
       </c>
       <c r="G9" s="3">
-        <v>8849900</v>
+        <v>8266500</v>
       </c>
       <c r="H9" s="3">
-        <v>8100500</v>
+        <v>7566500</v>
       </c>
       <c r="I9" s="3">
-        <v>9353500</v>
+        <v>8736900</v>
       </c>
       <c r="J9" s="3">
-        <v>8758600</v>
+        <v>8181200</v>
       </c>
       <c r="K9" s="3">
         <v>8322900</v>
@@ -838,25 +838,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5112700</v>
+        <v>4775700</v>
       </c>
       <c r="E10" s="3">
-        <v>5608300</v>
+        <v>5238600</v>
       </c>
       <c r="F10" s="3">
-        <v>5271400</v>
+        <v>4923900</v>
       </c>
       <c r="G10" s="3">
-        <v>5269100</v>
+        <v>4921800</v>
       </c>
       <c r="H10" s="3">
-        <v>4943000</v>
+        <v>4617100</v>
       </c>
       <c r="I10" s="3">
-        <v>4250600</v>
+        <v>3970400</v>
       </c>
       <c r="J10" s="3">
-        <v>4103400</v>
+        <v>3832900</v>
       </c>
       <c r="K10" s="3">
         <v>4204400</v>
@@ -904,13 +904,13 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>19200</v>
+        <v>17900</v>
       </c>
       <c r="E12" s="3">
-        <v>96400</v>
+        <v>90000</v>
       </c>
       <c r="F12" s="3">
-        <v>8900</v>
+        <v>8300</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>8</v>
@@ -998,10 +998,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-27700</v>
+        <v>-25900</v>
       </c>
       <c r="E14" s="3">
-        <v>1500500</v>
+        <v>1401600</v>
       </c>
       <c r="F14" s="3">
         <v>-400</v>
@@ -1045,25 +1045,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1760700</v>
+        <v>1644600</v>
       </c>
       <c r="E15" s="3">
-        <v>1794600</v>
+        <v>1676300</v>
       </c>
       <c r="F15" s="3">
-        <v>1719400</v>
+        <v>1606100</v>
       </c>
       <c r="G15" s="3">
-        <v>1762600</v>
+        <v>1646400</v>
       </c>
       <c r="H15" s="3">
-        <v>1686800</v>
+        <v>1575600</v>
       </c>
       <c r="I15" s="3">
-        <v>1631700</v>
+        <v>1524200</v>
       </c>
       <c r="J15" s="3">
-        <v>1597100</v>
+        <v>1491800</v>
       </c>
       <c r="K15" s="3">
         <v>1565400</v>
@@ -1108,25 +1108,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13409900</v>
+        <v>12525900</v>
       </c>
       <c r="E17" s="3">
-        <v>14186200</v>
+        <v>13251000</v>
       </c>
       <c r="F17" s="3">
-        <v>10382500</v>
+        <v>9698000</v>
       </c>
       <c r="G17" s="3">
-        <v>13819100</v>
+        <v>12908100</v>
       </c>
       <c r="H17" s="3">
-        <v>11390700</v>
+        <v>10639800</v>
       </c>
       <c r="I17" s="3">
-        <v>13225000</v>
+        <v>12353200</v>
       </c>
       <c r="J17" s="3">
-        <v>11645500</v>
+        <v>10877800</v>
       </c>
       <c r="K17" s="3">
         <v>11885100</v>
@@ -1155,25 +1155,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1447000</v>
+        <v>1351600</v>
       </c>
       <c r="E18" s="3">
-        <v>-80400</v>
+        <v>-75100</v>
       </c>
       <c r="F18" s="3">
-        <v>1960600</v>
+        <v>1831400</v>
       </c>
       <c r="G18" s="3">
-        <v>299900</v>
+        <v>280200</v>
       </c>
       <c r="H18" s="3">
-        <v>1652800</v>
+        <v>1543800</v>
       </c>
       <c r="I18" s="3">
-        <v>379100</v>
+        <v>354100</v>
       </c>
       <c r="J18" s="3">
-        <v>1216500</v>
+        <v>1136300</v>
       </c>
       <c r="K18" s="3">
         <v>642200</v>
@@ -1221,25 +1221,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>150900</v>
+        <v>140900</v>
       </c>
       <c r="E20" s="3">
-        <v>163200</v>
+        <v>152400</v>
       </c>
       <c r="F20" s="3">
-        <v>161200</v>
+        <v>150600</v>
       </c>
       <c r="G20" s="3">
-        <v>116800</v>
+        <v>109100</v>
       </c>
       <c r="H20" s="3">
-        <v>120500</v>
+        <v>112600</v>
       </c>
       <c r="I20" s="3">
-        <v>301500</v>
+        <v>281600</v>
       </c>
       <c r="J20" s="3">
-        <v>68500</v>
+        <v>64000</v>
       </c>
       <c r="K20" s="3">
         <v>460500</v>
@@ -1268,25 +1268,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3358600</v>
+        <v>3137200</v>
       </c>
       <c r="E21" s="3">
-        <v>157900</v>
+        <v>147500</v>
       </c>
       <c r="F21" s="3">
-        <v>3841300</v>
+        <v>3588000</v>
       </c>
       <c r="G21" s="3">
-        <v>497800</v>
+        <v>465000</v>
       </c>
       <c r="H21" s="3">
-        <v>3465500</v>
+        <v>3237100</v>
       </c>
       <c r="I21" s="3">
-        <v>714900</v>
+        <v>667700</v>
       </c>
       <c r="J21" s="3">
-        <v>2890600</v>
+        <v>2700100</v>
       </c>
       <c r="K21" s="3">
         <v>1082900</v>
@@ -1315,25 +1315,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>671900</v>
+        <v>627600</v>
       </c>
       <c r="E22" s="3">
-        <v>685700</v>
+        <v>640500</v>
       </c>
       <c r="F22" s="3">
-        <v>765800</v>
+        <v>715300</v>
       </c>
       <c r="G22" s="3">
-        <v>830500</v>
+        <v>775700</v>
       </c>
       <c r="H22" s="3">
-        <v>867500</v>
+        <v>810300</v>
       </c>
       <c r="I22" s="3">
-        <v>843600</v>
+        <v>788000</v>
       </c>
       <c r="J22" s="3">
-        <v>810700</v>
+        <v>757300</v>
       </c>
       <c r="K22" s="3">
         <v>793500</v>
@@ -1362,25 +1362,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>926000</v>
+        <v>865000</v>
       </c>
       <c r="E23" s="3">
-        <v>-603000</v>
+        <v>-563200</v>
       </c>
       <c r="F23" s="3">
-        <v>1356100</v>
+        <v>1266700</v>
       </c>
       <c r="G23" s="3">
-        <v>-413700</v>
+        <v>-386400</v>
       </c>
       <c r="H23" s="3">
-        <v>905800</v>
+        <v>846100</v>
       </c>
       <c r="I23" s="3">
-        <v>-163000</v>
+        <v>-152300</v>
       </c>
       <c r="J23" s="3">
-        <v>474300</v>
+        <v>443000</v>
       </c>
       <c r="K23" s="3">
         <v>309200</v>
@@ -1409,25 +1409,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>166700</v>
+        <v>155700</v>
       </c>
       <c r="E24" s="3">
-        <v>42200</v>
+        <v>39500</v>
       </c>
       <c r="F24" s="3">
-        <v>299000</v>
+        <v>279300</v>
       </c>
       <c r="G24" s="3">
-        <v>104900</v>
+        <v>98000</v>
       </c>
       <c r="H24" s="3">
-        <v>212400</v>
+        <v>198400</v>
       </c>
       <c r="I24" s="3">
-        <v>-16000</v>
+        <v>-14900</v>
       </c>
       <c r="J24" s="3">
-        <v>117500</v>
+        <v>109700</v>
       </c>
       <c r="K24" s="3">
         <v>115200</v>
@@ -1503,25 +1503,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>759300</v>
+        <v>709300</v>
       </c>
       <c r="E26" s="3">
-        <v>-645200</v>
+        <v>-602700</v>
       </c>
       <c r="F26" s="3">
-        <v>1057100</v>
+        <v>987400</v>
       </c>
       <c r="G26" s="3">
-        <v>-518600</v>
+        <v>-484400</v>
       </c>
       <c r="H26" s="3">
-        <v>693400</v>
+        <v>647700</v>
       </c>
       <c r="I26" s="3">
-        <v>-147000</v>
+        <v>-137300</v>
       </c>
       <c r="J26" s="3">
-        <v>356800</v>
+        <v>333300</v>
       </c>
       <c r="K26" s="3">
         <v>193900</v>
@@ -1550,25 +1550,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>466800</v>
+        <v>436000</v>
       </c>
       <c r="E27" s="3">
-        <v>-647200</v>
+        <v>-604600</v>
       </c>
       <c r="F27" s="3">
-        <v>743000</v>
+        <v>694100</v>
       </c>
       <c r="G27" s="3">
-        <v>-487300</v>
+        <v>-455200</v>
       </c>
       <c r="H27" s="3">
-        <v>500000</v>
+        <v>467000</v>
       </c>
       <c r="I27" s="3">
-        <v>-211300</v>
+        <v>-197400</v>
       </c>
       <c r="J27" s="3">
-        <v>273100</v>
+        <v>255100</v>
       </c>
       <c r="K27" s="3">
         <v>197700</v>
@@ -1785,25 +1785,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-150900</v>
+        <v>-140900</v>
       </c>
       <c r="E32" s="3">
-        <v>-163200</v>
+        <v>-152400</v>
       </c>
       <c r="F32" s="3">
-        <v>-161200</v>
+        <v>-150600</v>
       </c>
       <c r="G32" s="3">
-        <v>-116800</v>
+        <v>-109100</v>
       </c>
       <c r="H32" s="3">
-        <v>-120500</v>
+        <v>-112600</v>
       </c>
       <c r="I32" s="3">
-        <v>-301500</v>
+        <v>-281600</v>
       </c>
       <c r="J32" s="3">
-        <v>-68500</v>
+        <v>-64000</v>
       </c>
       <c r="K32" s="3">
         <v>-460500</v>
@@ -1832,25 +1832,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>466800</v>
+        <v>436000</v>
       </c>
       <c r="E33" s="3">
-        <v>-647200</v>
+        <v>-604600</v>
       </c>
       <c r="F33" s="3">
-        <v>743000</v>
+        <v>694100</v>
       </c>
       <c r="G33" s="3">
-        <v>-487300</v>
+        <v>-455200</v>
       </c>
       <c r="H33" s="3">
-        <v>500000</v>
+        <v>467000</v>
       </c>
       <c r="I33" s="3">
-        <v>-211300</v>
+        <v>-197400</v>
       </c>
       <c r="J33" s="3">
-        <v>273100</v>
+        <v>255100</v>
       </c>
       <c r="K33" s="3">
         <v>197700</v>
@@ -1926,25 +1926,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>466800</v>
+        <v>436000</v>
       </c>
       <c r="E35" s="3">
-        <v>-647200</v>
+        <v>-604600</v>
       </c>
       <c r="F35" s="3">
-        <v>743000</v>
+        <v>694100</v>
       </c>
       <c r="G35" s="3">
-        <v>-487300</v>
+        <v>-455200</v>
       </c>
       <c r="H35" s="3">
-        <v>500000</v>
+        <v>467000</v>
       </c>
       <c r="I35" s="3">
-        <v>-211300</v>
+        <v>-197400</v>
       </c>
       <c r="J35" s="3">
-        <v>273100</v>
+        <v>255100</v>
       </c>
       <c r="K35" s="3">
         <v>197700</v>
@@ -2063,25 +2063,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2149600</v>
+        <v>2007900</v>
       </c>
       <c r="E41" s="3">
-        <v>2091600</v>
+        <v>1953700</v>
       </c>
       <c r="F41" s="3">
-        <v>2352000</v>
+        <v>2196900</v>
       </c>
       <c r="G41" s="3">
-        <v>1963000</v>
+        <v>1833600</v>
       </c>
       <c r="H41" s="3">
-        <v>2042200</v>
+        <v>1907500</v>
       </c>
       <c r="I41" s="3">
-        <v>2429900</v>
+        <v>2269700</v>
       </c>
       <c r="J41" s="3">
-        <v>2554000</v>
+        <v>2385700</v>
       </c>
       <c r="K41" s="3">
         <v>1448100</v>
@@ -2119,13 +2119,13 @@
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>72200</v>
+        <v>67500</v>
       </c>
       <c r="H42" s="3">
-        <v>69500</v>
+        <v>64900</v>
       </c>
       <c r="I42" s="3">
-        <v>86900</v>
+        <v>81200</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
@@ -2157,25 +2157,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7219100</v>
+        <v>6743200</v>
       </c>
       <c r="E43" s="3">
-        <v>6919700</v>
+        <v>6463600</v>
       </c>
       <c r="F43" s="3">
-        <v>6405200</v>
+        <v>5982900</v>
       </c>
       <c r="G43" s="3">
-        <v>5820500</v>
+        <v>5436800</v>
       </c>
       <c r="H43" s="3">
-        <v>5160600</v>
+        <v>4820400</v>
       </c>
       <c r="I43" s="3">
-        <v>5332200</v>
+        <v>4980700</v>
       </c>
       <c r="J43" s="3">
-        <v>4611400</v>
+        <v>4307400</v>
       </c>
       <c r="K43" s="3">
         <v>4710600</v>
@@ -2204,25 +2204,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1369700</v>
+        <v>1279400</v>
       </c>
       <c r="E44" s="3">
-        <v>1041600</v>
+        <v>972900</v>
       </c>
       <c r="F44" s="3">
-        <v>1267900</v>
+        <v>1184300</v>
       </c>
       <c r="G44" s="3">
-        <v>1401400</v>
+        <v>1309000</v>
       </c>
       <c r="H44" s="3">
-        <v>1620200</v>
+        <v>1513400</v>
       </c>
       <c r="I44" s="3">
-        <v>1505600</v>
+        <v>1406400</v>
       </c>
       <c r="J44" s="3">
-        <v>1412000</v>
+        <v>1318900</v>
       </c>
       <c r="K44" s="3">
         <v>1152200</v>
@@ -2251,25 +2251,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>591300</v>
+        <v>552400</v>
       </c>
       <c r="E45" s="3">
-        <v>381000</v>
+        <v>355900</v>
       </c>
       <c r="F45" s="3">
-        <v>378400</v>
+        <v>353400</v>
       </c>
       <c r="G45" s="3">
-        <v>331700</v>
+        <v>309800</v>
       </c>
       <c r="H45" s="3">
-        <v>596200</v>
+        <v>556900</v>
       </c>
       <c r="I45" s="3">
-        <v>394800</v>
+        <v>368800</v>
       </c>
       <c r="J45" s="3">
-        <v>286400</v>
+        <v>267500</v>
       </c>
       <c r="K45" s="3">
         <v>165500</v>
@@ -2298,25 +2298,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11329700</v>
+        <v>10582800</v>
       </c>
       <c r="E46" s="3">
-        <v>10433900</v>
+        <v>9746000</v>
       </c>
       <c r="F46" s="3">
-        <v>10403400</v>
+        <v>9717600</v>
       </c>
       <c r="G46" s="3">
-        <v>9588900</v>
+        <v>8956700</v>
       </c>
       <c r="H46" s="3">
-        <v>9488700</v>
+        <v>8863200</v>
       </c>
       <c r="I46" s="3">
-        <v>9749400</v>
+        <v>9106700</v>
       </c>
       <c r="J46" s="3">
-        <v>8863900</v>
+        <v>8279500</v>
       </c>
       <c r="K46" s="3">
         <v>7572400</v>
@@ -2345,25 +2345,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6029500</v>
+        <v>5632000</v>
       </c>
       <c r="E47" s="3">
-        <v>5994600</v>
+        <v>5599400</v>
       </c>
       <c r="F47" s="3">
-        <v>5942500</v>
+        <v>5550800</v>
       </c>
       <c r="G47" s="3">
-        <v>5719600</v>
+        <v>5342600</v>
       </c>
       <c r="H47" s="3">
-        <v>5821300</v>
+        <v>5437600</v>
       </c>
       <c r="I47" s="3">
-        <v>5706400</v>
+        <v>5330200</v>
       </c>
       <c r="J47" s="3">
-        <v>3978800</v>
+        <v>3716500</v>
       </c>
       <c r="K47" s="3">
         <v>3857500</v>
@@ -2392,25 +2392,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>50643900</v>
+        <v>47305300</v>
       </c>
       <c r="E48" s="3">
-        <v>50342900</v>
+        <v>47024200</v>
       </c>
       <c r="F48" s="3">
-        <v>48645900</v>
+        <v>45439000</v>
       </c>
       <c r="G48" s="3">
-        <v>47874300</v>
+        <v>44718300</v>
       </c>
       <c r="H48" s="3">
-        <v>46007700</v>
+        <v>42974700</v>
       </c>
       <c r="I48" s="3">
-        <v>44534700</v>
+        <v>41598800</v>
       </c>
       <c r="J48" s="3">
-        <v>44021700</v>
+        <v>41119600</v>
       </c>
       <c r="K48" s="3">
         <v>44391900</v>
@@ -2439,25 +2439,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3236900</v>
+        <v>3023500</v>
       </c>
       <c r="E49" s="3">
-        <v>3304800</v>
+        <v>3086900</v>
       </c>
       <c r="F49" s="3">
-        <v>3476600</v>
+        <v>3247400</v>
       </c>
       <c r="G49" s="3">
-        <v>3541200</v>
+        <v>3307700</v>
       </c>
       <c r="H49" s="3">
-        <v>3429600</v>
+        <v>3203500</v>
       </c>
       <c r="I49" s="3">
-        <v>5245000</v>
+        <v>4899300</v>
       </c>
       <c r="J49" s="3">
-        <v>5173300</v>
+        <v>4832200</v>
       </c>
       <c r="K49" s="3">
         <v>5149800</v>
@@ -2580,25 +2580,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1256500</v>
+        <v>1173700</v>
       </c>
       <c r="E52" s="3">
-        <v>900800</v>
+        <v>841400</v>
       </c>
       <c r="F52" s="3">
-        <v>843700</v>
+        <v>788100</v>
       </c>
       <c r="G52" s="3">
-        <v>836800</v>
+        <v>781600</v>
       </c>
       <c r="H52" s="3">
-        <v>1116600</v>
+        <v>1043000</v>
       </c>
       <c r="I52" s="3">
-        <v>1008400</v>
+        <v>941900</v>
       </c>
       <c r="J52" s="3">
-        <v>874800</v>
+        <v>817200</v>
       </c>
       <c r="K52" s="3">
         <v>900300</v>
@@ -2674,25 +2674,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>72496600</v>
+        <v>67717400</v>
       </c>
       <c r="E54" s="3">
-        <v>70977000</v>
+        <v>66298000</v>
       </c>
       <c r="F54" s="3">
-        <v>69312200</v>
+        <v>64742900</v>
       </c>
       <c r="G54" s="3">
-        <v>67560700</v>
+        <v>63106900</v>
       </c>
       <c r="H54" s="3">
-        <v>65863900</v>
+        <v>61522000</v>
       </c>
       <c r="I54" s="3">
-        <v>66243900</v>
+        <v>61877000</v>
       </c>
       <c r="J54" s="3">
-        <v>62912500</v>
+        <v>58765100</v>
       </c>
       <c r="K54" s="3">
         <v>61871900</v>
@@ -2759,25 +2759,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3006900</v>
+        <v>2808700</v>
       </c>
       <c r="E57" s="3">
-        <v>2489100</v>
+        <v>2325000</v>
       </c>
       <c r="F57" s="3">
-        <v>2298700</v>
+        <v>2147200</v>
       </c>
       <c r="G57" s="3">
-        <v>2500600</v>
+        <v>2335800</v>
       </c>
       <c r="H57" s="3">
-        <v>2289100</v>
+        <v>2138200</v>
       </c>
       <c r="I57" s="3">
-        <v>2316500</v>
+        <v>2163800</v>
       </c>
       <c r="J57" s="3">
-        <v>2526200</v>
+        <v>2359700</v>
       </c>
       <c r="K57" s="3">
         <v>2417600</v>
@@ -2806,25 +2806,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>14434300</v>
+        <v>13482700</v>
       </c>
       <c r="E58" s="3">
-        <v>16640100</v>
+        <v>15543200</v>
       </c>
       <c r="F58" s="3">
-        <v>14652500</v>
+        <v>13686500</v>
       </c>
       <c r="G58" s="3">
-        <v>15466100</v>
+        <v>14446500</v>
       </c>
       <c r="H58" s="3">
-        <v>17511900</v>
+        <v>16357500</v>
       </c>
       <c r="I58" s="3">
-        <v>15333400</v>
+        <v>14322600</v>
       </c>
       <c r="J58" s="3">
-        <v>16062800</v>
+        <v>15003900</v>
       </c>
       <c r="K58" s="3">
         <v>17693900</v>
@@ -2853,25 +2853,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5273100</v>
+        <v>4925500</v>
       </c>
       <c r="E59" s="3">
-        <v>5173400</v>
+        <v>4832300</v>
       </c>
       <c r="F59" s="3">
-        <v>4524300</v>
+        <v>4226000</v>
       </c>
       <c r="G59" s="3">
-        <v>4375300</v>
+        <v>4086900</v>
       </c>
       <c r="H59" s="3">
-        <v>3445000</v>
+        <v>3217900</v>
       </c>
       <c r="I59" s="3">
-        <v>4153500</v>
+        <v>3879700</v>
       </c>
       <c r="J59" s="3">
-        <v>3698800</v>
+        <v>3455000</v>
       </c>
       <c r="K59" s="3">
         <v>4218300</v>
@@ -2900,25 +2900,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>22714300</v>
+        <v>21216900</v>
       </c>
       <c r="E60" s="3">
-        <v>24302600</v>
+        <v>22700500</v>
       </c>
       <c r="F60" s="3">
-        <v>21475500</v>
+        <v>20059800</v>
       </c>
       <c r="G60" s="3">
-        <v>22342000</v>
+        <v>20869200</v>
       </c>
       <c r="H60" s="3">
-        <v>23246000</v>
+        <v>21713600</v>
       </c>
       <c r="I60" s="3">
-        <v>21803400</v>
+        <v>20366100</v>
       </c>
       <c r="J60" s="3">
-        <v>22287800</v>
+        <v>20818500</v>
       </c>
       <c r="K60" s="3">
         <v>24329800</v>
@@ -2947,25 +2947,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>24175900</v>
+        <v>22582200</v>
       </c>
       <c r="E61" s="3">
-        <v>21497200</v>
+        <v>20080100</v>
       </c>
       <c r="F61" s="3">
-        <v>22917300</v>
+        <v>21406500</v>
       </c>
       <c r="G61" s="3">
-        <v>23369200</v>
+        <v>21828700</v>
       </c>
       <c r="H61" s="3">
-        <v>22438000</v>
+        <v>20958800</v>
       </c>
       <c r="I61" s="3">
-        <v>24712900</v>
+        <v>23083800</v>
       </c>
       <c r="J61" s="3">
-        <v>22100200</v>
+        <v>20643300</v>
       </c>
       <c r="K61" s="3">
         <v>19369300</v>
@@ -2994,25 +2994,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1466300</v>
+        <v>1369700</v>
       </c>
       <c r="E62" s="3">
-        <v>1258100</v>
+        <v>1175200</v>
       </c>
       <c r="F62" s="3">
-        <v>1250900</v>
+        <v>1168500</v>
       </c>
       <c r="G62" s="3">
-        <v>1280800</v>
+        <v>1196400</v>
       </c>
       <c r="H62" s="3">
-        <v>1390600</v>
+        <v>1298900</v>
       </c>
       <c r="I62" s="3">
-        <v>1408200</v>
+        <v>1315400</v>
       </c>
       <c r="J62" s="3">
-        <v>1367400</v>
+        <v>1277300</v>
       </c>
       <c r="K62" s="3">
         <v>1383900</v>
@@ -3182,25 +3182,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>52166800</v>
+        <v>48727800</v>
       </c>
       <c r="E66" s="3">
-        <v>50492500</v>
+        <v>47163900</v>
       </c>
       <c r="F66" s="3">
-        <v>49245900</v>
+        <v>45999500</v>
       </c>
       <c r="G66" s="3">
-        <v>50395900</v>
+        <v>47073600</v>
       </c>
       <c r="H66" s="3">
-        <v>50568200</v>
+        <v>47234600</v>
       </c>
       <c r="I66" s="3">
-        <v>51345800</v>
+        <v>47960900</v>
       </c>
       <c r="J66" s="3">
-        <v>49063500</v>
+        <v>45829100</v>
       </c>
       <c r="K66" s="3">
         <v>48199000</v>
@@ -3436,25 +3436,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6401600</v>
+        <v>5979600</v>
       </c>
       <c r="E72" s="3">
-        <v>6522900</v>
+        <v>6092900</v>
       </c>
       <c r="F72" s="3">
-        <v>7164600</v>
+        <v>6692300</v>
       </c>
       <c r="G72" s="3">
-        <v>6755700</v>
+        <v>6310300</v>
       </c>
       <c r="H72" s="3">
-        <v>7151900</v>
+        <v>6680400</v>
       </c>
       <c r="I72" s="3">
-        <v>6899400</v>
+        <v>6444600</v>
       </c>
       <c r="J72" s="3">
-        <v>7105600</v>
+        <v>6637200</v>
       </c>
       <c r="K72" s="3">
         <v>7027500</v>
@@ -3624,25 +3624,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>20329800</v>
+        <v>18989600</v>
       </c>
       <c r="E76" s="3">
-        <v>20484500</v>
+        <v>19134100</v>
       </c>
       <c r="F76" s="3">
-        <v>20066300</v>
+        <v>18743400</v>
       </c>
       <c r="G76" s="3">
-        <v>17164900</v>
+        <v>16033300</v>
       </c>
       <c r="H76" s="3">
-        <v>15295700</v>
+        <v>14287400</v>
       </c>
       <c r="I76" s="3">
-        <v>14898100</v>
+        <v>13916000</v>
       </c>
       <c r="J76" s="3">
-        <v>13848900</v>
+        <v>12936000</v>
       </c>
       <c r="K76" s="3">
         <v>13673000</v>
@@ -3770,25 +3770,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>466800</v>
+        <v>436000</v>
       </c>
       <c r="E81" s="3">
-        <v>-647200</v>
+        <v>-604600</v>
       </c>
       <c r="F81" s="3">
-        <v>743000</v>
+        <v>694100</v>
       </c>
       <c r="G81" s="3">
-        <v>-487300</v>
+        <v>-455200</v>
       </c>
       <c r="H81" s="3">
-        <v>500000</v>
+        <v>467000</v>
       </c>
       <c r="I81" s="3">
-        <v>-211300</v>
+        <v>-197400</v>
       </c>
       <c r="J81" s="3">
-        <v>273100</v>
+        <v>255100</v>
       </c>
       <c r="K81" s="3">
         <v>197700</v>
@@ -3836,7 +3836,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1760700</v>
+        <v>1644600</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>8</v>
@@ -4118,25 +4118,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3018600</v>
+        <v>2819600</v>
       </c>
       <c r="E89" s="3">
-        <v>4125600</v>
+        <v>3853600</v>
       </c>
       <c r="F89" s="3">
-        <v>2498300</v>
+        <v>2333600</v>
       </c>
       <c r="G89" s="3">
-        <v>3247600</v>
+        <v>3033500</v>
       </c>
       <c r="H89" s="3">
-        <v>2640700</v>
+        <v>2466600</v>
       </c>
       <c r="I89" s="3">
-        <v>2147500</v>
+        <v>2005900</v>
       </c>
       <c r="J89" s="3">
-        <v>2384600</v>
+        <v>2227400</v>
       </c>
       <c r="K89" s="3">
         <v>2323800</v>
@@ -4187,22 +4187,22 @@
         <v>-200</v>
       </c>
       <c r="E91" s="3">
-        <v>-4163100</v>
+        <v>-3888600</v>
       </c>
       <c r="F91" s="3">
-        <v>-2550900</v>
+        <v>-2382700</v>
       </c>
       <c r="G91" s="3">
-        <v>-3192200</v>
+        <v>-2981800</v>
       </c>
       <c r="H91" s="3">
-        <v>-1758700</v>
+        <v>-1642800</v>
       </c>
       <c r="I91" s="3">
-        <v>-2166600</v>
+        <v>-2023800</v>
       </c>
       <c r="J91" s="3">
-        <v>-1085300</v>
+        <v>-1013800</v>
       </c>
       <c r="K91" s="3">
         <v>-2389300</v>
@@ -4325,25 +4325,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2695300</v>
+        <v>-2517700</v>
       </c>
       <c r="E94" s="3">
-        <v>-4163600</v>
+        <v>-3889200</v>
       </c>
       <c r="F94" s="3">
-        <v>-2499700</v>
+        <v>-2334900</v>
       </c>
       <c r="G94" s="3">
-        <v>-3002500</v>
+        <v>-2804600</v>
       </c>
       <c r="H94" s="3">
-        <v>-1577900</v>
+        <v>-1473800</v>
       </c>
       <c r="I94" s="3">
-        <v>-2251500</v>
+        <v>-2103100</v>
       </c>
       <c r="J94" s="3">
-        <v>-963000</v>
+        <v>-899500</v>
       </c>
       <c r="K94" s="3">
         <v>-1790900</v>
@@ -4394,22 +4394,22 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-334300</v>
+        <v>-312300</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-74200</v>
+        <v>-69300</v>
       </c>
       <c r="H96" s="3">
-        <v>-173500</v>
+        <v>-162100</v>
       </c>
       <c r="I96" s="3">
-        <v>-68500</v>
+        <v>-64000</v>
       </c>
       <c r="J96" s="3">
-        <v>-171300</v>
+        <v>-160000</v>
       </c>
       <c r="K96" s="3">
         <v>-204100</v>
@@ -4579,25 +4579,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-276900</v>
+        <v>-258600</v>
       </c>
       <c r="E100" s="3">
-        <v>-139700</v>
+        <v>-130500</v>
       </c>
       <c r="F100" s="3">
-        <v>424200</v>
+        <v>396300</v>
       </c>
       <c r="G100" s="3">
-        <v>-343100</v>
+        <v>-320500</v>
       </c>
       <c r="H100" s="3">
-        <v>-1444000</v>
+        <v>-1348800</v>
       </c>
       <c r="I100" s="3">
-        <v>-23400</v>
+        <v>-21900</v>
       </c>
       <c r="J100" s="3">
-        <v>-330400</v>
+        <v>-308600</v>
       </c>
       <c r="K100" s="3">
         <v>-975900</v>
@@ -4626,25 +4626,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>11600</v>
+        <v>10800</v>
       </c>
       <c r="E101" s="3">
-        <v>-82700</v>
+        <v>-77300</v>
       </c>
       <c r="F101" s="3">
-        <v>-33900</v>
+        <v>-31600</v>
       </c>
       <c r="G101" s="3">
-        <v>17200</v>
+        <v>16100</v>
       </c>
       <c r="H101" s="3">
-        <v>-7200</v>
+        <v>-6700</v>
       </c>
       <c r="I101" s="3">
-        <v>5700</v>
+        <v>5300</v>
       </c>
       <c r="J101" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="K101" s="3">
         <v>-1900</v>
@@ -4673,25 +4673,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>58000</v>
+        <v>54200</v>
       </c>
       <c r="E102" s="3">
-        <v>-260400</v>
+        <v>-243300</v>
       </c>
       <c r="F102" s="3">
-        <v>388900</v>
+        <v>363300</v>
       </c>
       <c r="G102" s="3">
-        <v>-80900</v>
+        <v>-75500</v>
       </c>
       <c r="H102" s="3">
-        <v>-388400</v>
+        <v>-362800</v>
       </c>
       <c r="I102" s="3">
-        <v>-121700</v>
+        <v>-113700</v>
       </c>
       <c r="J102" s="3">
-        <v>1089700</v>
+        <v>1017800</v>
       </c>
       <c r="K102" s="3">
         <v>-445000</v>
